--- a/app/data/static/templates/constructor_adygea.xlsx
+++ b/app/data/static/templates/constructor_adygea.xlsx
@@ -305,22 +305,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBF1DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -360,26 +345,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF7A19A"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="hair"/>
-        <right style="hair"/>
-        <top style="hair"/>
-        <bottom style="hair"/>
-        <diagonal/>
-      </border>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -401,7 +366,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEBF1DE"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -420,7 +385,7 @@
       <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFF7A19A"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -564,7 +529,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
@@ -652,11 +617,11 @@
         <v/>
       </c>
       <c r="G3" s="16" t="str">
-        <f aca="true">IF(H3="", IF(I3="","",(INDIRECT("N" &amp; ROW() - 1) - M3)),IF(I3="", "", INDIRECT("N" &amp; ROW() - 1) - M3))</f>
+        <f aca="true">IF(H3="", IF(I3="","",(INDIRECT("M" &amp; ROW() - 1) - M3)),IF(I3="", "", INDIRECT("M" &amp; ROW() - 1) - M3))</f>
         <v/>
       </c>
       <c r="H3" s="16" t="str">
-        <f aca="false">IF(D3="", "", E3 * IF(F3="",1,F3))</f>
+        <f aca="false">IF(D3="", "", IF(I3="-", "", E3 * IF(F3="",1,F3)))</f>
         <v/>
       </c>
       <c r="J3" s="9" t="n">
@@ -686,10 +651,13 @@
         <v/>
       </c>
       <c r="G4" s="16" t="str">
-        <f aca="true">IF(H4="", IF(I4="","",(INDIRECT("N" &amp; ROW() - 1) - M4)),IF(I4="", "", INDIRECT("N" &amp; ROW() - 1) - M4))</f>
-        <v/>
-      </c>
-      <c r="H4" s="16"/>
+        <f aca="true">IF(H4="", IF(I4="","",(INDIRECT("M" &amp; ROW() - 1) - M4)),IF(I4="", "", INDIRECT("M" &amp; ROW() - 1) - M4))</f>
+        <v/>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f aca="false">IF(D4="", "", IF(I4="-", "", E4 * IF(F4="",1,F4)))</f>
+        <v/>
+      </c>
       <c r="J4" s="9" t="n">
         <f aca="true">IF(I4 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E4 * F4)</f>
         <v>0</v>
@@ -717,10 +685,13 @@
         <v/>
       </c>
       <c r="G5" s="16" t="str">
-        <f aca="true">IF(H5="", IF(I5="","",(INDIRECT("N" &amp; ROW() - 1) - M5)),IF(I5="", "", INDIRECT("N" &amp; ROW() - 1) - M5))</f>
-        <v/>
-      </c>
-      <c r="H5" s="16"/>
+        <f aca="true">IF(H5="", IF(I5="","",(INDIRECT("M" &amp; ROW() - 1) - M5)),IF(I5="", "", INDIRECT("M" &amp; ROW() - 1) - M5))</f>
+        <v/>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f aca="false">IF(D5="", "", IF(I5="-", "", E5 * IF(F5="",1,F5)))</f>
+        <v/>
+      </c>
       <c r="J5" s="9" t="n">
         <f aca="true">IF(I5 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E5 * F5)</f>
         <v>0</v>
@@ -748,10 +719,13 @@
         <v/>
       </c>
       <c r="G6" s="16" t="str">
-        <f aca="true">IF(H6="", IF(I6="","",(INDIRECT("N" &amp; ROW() - 1) - M6)),IF(I6="", "", INDIRECT("N" &amp; ROW() - 1) - M6))</f>
-        <v/>
-      </c>
-      <c r="H6" s="16"/>
+        <f aca="true">IF(H6="", IF(I6="","",(INDIRECT("M" &amp; ROW() - 1) - M6)),IF(I6="", "", INDIRECT("M" &amp; ROW() - 1) - M6))</f>
+        <v/>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f aca="false">IF(D6="", "", IF(I6="-", "", E6 * IF(F6="",1,F6)))</f>
+        <v/>
+      </c>
       <c r="J6" s="9" t="n">
         <f aca="true">IF(I6 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E6 * F6)</f>
         <v>0</v>
@@ -779,10 +753,13 @@
         <v/>
       </c>
       <c r="G7" s="16" t="str">
-        <f aca="true">IF(H7="", IF(I7="","",(INDIRECT("N" &amp; ROW() - 1) - M7)),IF(I7="", "", INDIRECT("N" &amp; ROW() - 1) - M7))</f>
-        <v/>
-      </c>
-      <c r="H7" s="16"/>
+        <f aca="true">IF(H7="", IF(I7="","",(INDIRECT("M" &amp; ROW() - 1) - M7)),IF(I7="", "", INDIRECT("M" &amp; ROW() - 1) - M7))</f>
+        <v/>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f aca="false">IF(D7="", "", IF(I7="-", "", E7 * IF(F7="",1,F7)))</f>
+        <v/>
+      </c>
       <c r="J7" s="9" t="n">
         <f aca="true">IF(I7 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E7 * F7)</f>
         <v>0</v>
@@ -810,10 +787,13 @@
         <v/>
       </c>
       <c r="G8" s="16" t="str">
-        <f aca="true">IF(H8="", IF(I8="","",(INDIRECT("N" &amp; ROW() - 1) - M8)),IF(I8="", "", INDIRECT("N" &amp; ROW() - 1) - M8))</f>
-        <v/>
-      </c>
-      <c r="H8" s="16"/>
+        <f aca="true">IF(H8="", IF(I8="","",(INDIRECT("M" &amp; ROW() - 1) - M8)),IF(I8="", "", INDIRECT("M" &amp; ROW() - 1) - M8))</f>
+        <v/>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f aca="false">IF(D8="", "", IF(I8="-", "", E8 * IF(F8="",1,F8)))</f>
+        <v/>
+      </c>
       <c r="J8" s="9" t="n">
         <f aca="true">IF(I8 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E8 * F8)</f>
         <v>0</v>
@@ -841,10 +821,13 @@
         <v/>
       </c>
       <c r="G9" s="16" t="str">
-        <f aca="true">IF(H9="", IF(I9="","",(INDIRECT("N" &amp; ROW() - 1) - M9)),IF(I9="", "", INDIRECT("N" &amp; ROW() - 1) - M9))</f>
-        <v/>
-      </c>
-      <c r="H9" s="16"/>
+        <f aca="true">IF(H9="", IF(I9="","",(INDIRECT("M" &amp; ROW() - 1) - M9)),IF(I9="", "", INDIRECT("M" &amp; ROW() - 1) - M9))</f>
+        <v/>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f aca="false">IF(D9="", "", IF(I9="-", "", E9 * IF(F9="",1,F9)))</f>
+        <v/>
+      </c>
       <c r="J9" s="9" t="n">
         <f aca="true">IF(I9 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E9 * F9)</f>
         <v>0</v>
@@ -872,10 +855,13 @@
         <v/>
       </c>
       <c r="G10" s="16" t="str">
-        <f aca="true">IF(H10="", IF(I10="","",(INDIRECT("N" &amp; ROW() - 1) - M10)),IF(I10="", "", INDIRECT("N" &amp; ROW() - 1) - M10))</f>
-        <v/>
-      </c>
-      <c r="H10" s="16"/>
+        <f aca="true">IF(H10="", IF(I10="","",(INDIRECT("M" &amp; ROW() - 1) - M10)),IF(I10="", "", INDIRECT("M" &amp; ROW() - 1) - M10))</f>
+        <v/>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f aca="false">IF(D10="", "", IF(I10="-", "", E10 * IF(F10="",1,F10)))</f>
+        <v/>
+      </c>
       <c r="J10" s="9" t="n">
         <f aca="true">IF(I10 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E10 * F10)</f>
         <v>0</v>
@@ -903,10 +889,13 @@
         <v/>
       </c>
       <c r="G11" s="16" t="str">
-        <f aca="true">IF(H11="", IF(I11="","",(INDIRECT("N" &amp; ROW() - 1) - M11)),IF(I11="", "", INDIRECT("N" &amp; ROW() - 1) - M11))</f>
-        <v/>
-      </c>
-      <c r="H11" s="16"/>
+        <f aca="true">IF(H11="", IF(I11="","",(INDIRECT("M" &amp; ROW() - 1) - M11)),IF(I11="", "", INDIRECT("M" &amp; ROW() - 1) - M11))</f>
+        <v/>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f aca="false">IF(D11="", "", IF(I11="-", "", E11 * IF(F11="",1,F11)))</f>
+        <v/>
+      </c>
       <c r="J11" s="9" t="n">
         <f aca="true">IF(I11 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E11 * F11)</f>
         <v>0</v>
@@ -934,10 +923,13 @@
         <v/>
       </c>
       <c r="G12" s="16" t="str">
-        <f aca="true">IF(H12="", IF(I12="","",(INDIRECT("N" &amp; ROW() - 1) - M12)),IF(I12="", "", INDIRECT("N" &amp; ROW() - 1) - M12))</f>
-        <v/>
-      </c>
-      <c r="H12" s="16"/>
+        <f aca="true">IF(H12="", IF(I12="","",(INDIRECT("M" &amp; ROW() - 1) - M12)),IF(I12="", "", INDIRECT("M" &amp; ROW() - 1) - M12))</f>
+        <v/>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f aca="false">IF(D12="", "", IF(I12="-", "", E12 * IF(F12="",1,F12)))</f>
+        <v/>
+      </c>
       <c r="J12" s="9" t="n">
         <f aca="true">IF(I12 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E12 * F12)</f>
         <v>0</v>
@@ -965,10 +957,13 @@
         <v/>
       </c>
       <c r="G13" s="16" t="str">
-        <f aca="true">IF(H13="", IF(I13="","",(INDIRECT("N" &amp; ROW() - 1) - M13)),IF(I13="", "", INDIRECT("N" &amp; ROW() - 1) - M13))</f>
-        <v/>
-      </c>
-      <c r="H13" s="16"/>
+        <f aca="true">IF(H13="", IF(I13="","",(INDIRECT("M" &amp; ROW() - 1) - M13)),IF(I13="", "", INDIRECT("M" &amp; ROW() - 1) - M13))</f>
+        <v/>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f aca="false">IF(D13="", "", IF(I13="-", "", E13 * IF(F13="",1,F13)))</f>
+        <v/>
+      </c>
       <c r="J13" s="9" t="n">
         <f aca="true">IF(I13 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E13 * F13)</f>
         <v>0</v>
@@ -996,10 +991,13 @@
         <v/>
       </c>
       <c r="G14" s="16" t="str">
-        <f aca="true">IF(H14="", IF(I14="","",(INDIRECT("N" &amp; ROW() - 1) - M14)),IF(I14="", "", INDIRECT("N" &amp; ROW() - 1) - M14))</f>
-        <v/>
-      </c>
-      <c r="H14" s="16"/>
+        <f aca="true">IF(H14="", IF(I14="","",(INDIRECT("M" &amp; ROW() - 1) - M14)),IF(I14="", "", INDIRECT("M" &amp; ROW() - 1) - M14))</f>
+        <v/>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f aca="false">IF(D14="", "", IF(I14="-", "", E14 * IF(F14="",1,F14)))</f>
+        <v/>
+      </c>
       <c r="J14" s="9" t="n">
         <f aca="true">IF(I14 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E14 * F14)</f>
         <v>0</v>
@@ -1027,10 +1025,13 @@
         <v/>
       </c>
       <c r="G15" s="16" t="str">
-        <f aca="true">IF(H15="", IF(I15="","",(INDIRECT("N" &amp; ROW() - 1) - M15)),IF(I15="", "", INDIRECT("N" &amp; ROW() - 1) - M15))</f>
-        <v/>
-      </c>
-      <c r="H15" s="16"/>
+        <f aca="true">IF(H15="", IF(I15="","",(INDIRECT("M" &amp; ROW() - 1) - M15)),IF(I15="", "", INDIRECT("M" &amp; ROW() - 1) - M15))</f>
+        <v/>
+      </c>
+      <c r="H15" s="16" t="str">
+        <f aca="false">IF(D15="", "", IF(I15="-", "", E15 * IF(F15="",1,F15)))</f>
+        <v/>
+      </c>
       <c r="J15" s="9" t="n">
         <f aca="true">IF(I15 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E15 * F15)</f>
         <v>0</v>
@@ -1058,10 +1059,13 @@
         <v/>
       </c>
       <c r="G16" s="16" t="str">
-        <f aca="true">IF(H16="", IF(I16="","",(INDIRECT("N" &amp; ROW() - 1) - M16)),IF(I16="", "", INDIRECT("N" &amp; ROW() - 1) - M16))</f>
-        <v/>
-      </c>
-      <c r="H16" s="16"/>
+        <f aca="true">IF(H16="", IF(I16="","",(INDIRECT("M" &amp; ROW() - 1) - M16)),IF(I16="", "", INDIRECT("M" &amp; ROW() - 1) - M16))</f>
+        <v/>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f aca="false">IF(D16="", "", IF(I16="-", "", E16 * IF(F16="",1,F16)))</f>
+        <v/>
+      </c>
       <c r="J16" s="9" t="n">
         <f aca="true">IF(I16 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E16 * F16)</f>
         <v>0</v>
@@ -1089,10 +1093,13 @@
         <v/>
       </c>
       <c r="G17" s="16" t="str">
-        <f aca="true">IF(H17="", IF(I17="","",(INDIRECT("N" &amp; ROW() - 1) - M17)),IF(I17="", "", INDIRECT("N" &amp; ROW() - 1) - M17))</f>
-        <v/>
-      </c>
-      <c r="H17" s="16"/>
+        <f aca="true">IF(H17="", IF(I17="","",(INDIRECT("M" &amp; ROW() - 1) - M17)),IF(I17="", "", INDIRECT("M" &amp; ROW() - 1) - M17))</f>
+        <v/>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f aca="false">IF(D17="", "", IF(I17="-", "", E17 * IF(F17="",1,F17)))</f>
+        <v/>
+      </c>
       <c r="J17" s="9" t="n">
         <f aca="true">IF(I17 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E17 * F17)</f>
         <v>0</v>
@@ -1120,10 +1127,13 @@
         <v/>
       </c>
       <c r="G18" s="16" t="str">
-        <f aca="true">IF(H18="", IF(I18="","",(INDIRECT("N" &amp; ROW() - 1) - M18)),IF(I18="", "", INDIRECT("N" &amp; ROW() - 1) - M18))</f>
-        <v/>
-      </c>
-      <c r="H18" s="16"/>
+        <f aca="true">IF(H18="", IF(I18="","",(INDIRECT("M" &amp; ROW() - 1) - M18)),IF(I18="", "", INDIRECT("M" &amp; ROW() - 1) - M18))</f>
+        <v/>
+      </c>
+      <c r="H18" s="16" t="str">
+        <f aca="false">IF(D18="", "", IF(I18="-", "", E18 * IF(F18="",1,F18)))</f>
+        <v/>
+      </c>
       <c r="J18" s="9" t="n">
         <f aca="true">IF(I18 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E18 * F18)</f>
         <v>0</v>
@@ -1151,10 +1161,13 @@
         <v/>
       </c>
       <c r="G19" s="16" t="str">
-        <f aca="true">IF(H19="", IF(I19="","",(INDIRECT("N" &amp; ROW() - 1) - M19)),IF(I19="", "", INDIRECT("N" &amp; ROW() - 1) - M19))</f>
-        <v/>
-      </c>
-      <c r="H19" s="16"/>
+        <f aca="true">IF(H19="", IF(I19="","",(INDIRECT("M" &amp; ROW() - 1) - M19)),IF(I19="", "", INDIRECT("M" &amp; ROW() - 1) - M19))</f>
+        <v/>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f aca="false">IF(D19="", "", IF(I19="-", "", E19 * IF(F19="",1,F19)))</f>
+        <v/>
+      </c>
       <c r="J19" s="9" t="n">
         <f aca="true">IF(I19 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E19 * F19)</f>
         <v>0</v>
@@ -1182,10 +1195,13 @@
         <v/>
       </c>
       <c r="G20" s="16" t="str">
-        <f aca="true">IF(H20="", IF(I20="","",(INDIRECT("N" &amp; ROW() - 1) - M20)),IF(I20="", "", INDIRECT("N" &amp; ROW() - 1) - M20))</f>
-        <v/>
-      </c>
-      <c r="H20" s="16"/>
+        <f aca="true">IF(H20="", IF(I20="","",(INDIRECT("M" &amp; ROW() - 1) - M20)),IF(I20="", "", INDIRECT("M" &amp; ROW() - 1) - M20))</f>
+        <v/>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f aca="false">IF(D20="", "", IF(I20="-", "", E20 * IF(F20="",1,F20)))</f>
+        <v/>
+      </c>
       <c r="J20" s="9" t="n">
         <f aca="true">IF(I20 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E20 * F20)</f>
         <v>0</v>
@@ -1213,10 +1229,13 @@
         <v/>
       </c>
       <c r="G21" s="16" t="str">
-        <f aca="true">IF(H21="", IF(I21="","",(INDIRECT("N" &amp; ROW() - 1) - M21)),IF(I21="", "", INDIRECT("N" &amp; ROW() - 1) - M21))</f>
-        <v/>
-      </c>
-      <c r="H21" s="16"/>
+        <f aca="true">IF(H21="", IF(I21="","",(INDIRECT("M" &amp; ROW() - 1) - M21)),IF(I21="", "", INDIRECT("M" &amp; ROW() - 1) - M21))</f>
+        <v/>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f aca="false">IF(D21="", "", IF(I21="-", "", E21 * IF(F21="",1,F21)))</f>
+        <v/>
+      </c>
       <c r="J21" s="9" t="n">
         <f aca="true">IF(I21 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E21 * F21)</f>
         <v>0</v>
@@ -1244,10 +1263,13 @@
         <v/>
       </c>
       <c r="G22" s="16" t="str">
-        <f aca="true">IF(H22="", IF(I22="","",(INDIRECT("N" &amp; ROW() - 1) - M22)),IF(I22="", "", INDIRECT("N" &amp; ROW() - 1) - M22))</f>
-        <v/>
-      </c>
-      <c r="H22" s="16"/>
+        <f aca="true">IF(H22="", IF(I22="","",(INDIRECT("M" &amp; ROW() - 1) - M22)),IF(I22="", "", INDIRECT("M" &amp; ROW() - 1) - M22))</f>
+        <v/>
+      </c>
+      <c r="H22" s="16" t="str">
+        <f aca="false">IF(D22="", "", IF(I22="-", "", E22 * IF(F22="",1,F22)))</f>
+        <v/>
+      </c>
       <c r="J22" s="9" t="n">
         <f aca="true">IF(I22 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E22 * F22)</f>
         <v>0</v>
@@ -1275,10 +1297,13 @@
         <v/>
       </c>
       <c r="G23" s="16" t="str">
-        <f aca="true">IF(H23="", IF(I23="","",(INDIRECT("N" &amp; ROW() - 1) - M23)),IF(I23="", "", INDIRECT("N" &amp; ROW() - 1) - M23))</f>
-        <v/>
-      </c>
-      <c r="H23" s="16"/>
+        <f aca="true">IF(H23="", IF(I23="","",(INDIRECT("M" &amp; ROW() - 1) - M23)),IF(I23="", "", INDIRECT("M" &amp; ROW() - 1) - M23))</f>
+        <v/>
+      </c>
+      <c r="H23" s="16" t="str">
+        <f aca="false">IF(D23="", "", IF(I23="-", "", E23 * IF(F23="",1,F23)))</f>
+        <v/>
+      </c>
       <c r="J23" s="9" t="n">
         <f aca="true">IF(I23 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E23 * F23)</f>
         <v>0</v>
@@ -1306,10 +1331,13 @@
         <v/>
       </c>
       <c r="G24" s="16" t="str">
-        <f aca="true">IF(H24="", IF(I24="","",(INDIRECT("N" &amp; ROW() - 1) - M24)),IF(I24="", "", INDIRECT("N" &amp; ROW() - 1) - M24))</f>
-        <v/>
-      </c>
-      <c r="H24" s="16"/>
+        <f aca="true">IF(H24="", IF(I24="","",(INDIRECT("M" &amp; ROW() - 1) - M24)),IF(I24="", "", INDIRECT("M" &amp; ROW() - 1) - M24))</f>
+        <v/>
+      </c>
+      <c r="H24" s="16" t="str">
+        <f aca="false">IF(D24="", "", IF(I24="-", "", E24 * IF(F24="",1,F24)))</f>
+        <v/>
+      </c>
       <c r="J24" s="9" t="n">
         <f aca="true">IF(I24 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E24 * F24)</f>
         <v>0</v>
@@ -1337,10 +1365,13 @@
         <v/>
       </c>
       <c r="G25" s="16" t="str">
-        <f aca="true">IF(H25="", IF(I25="","",(INDIRECT("N" &amp; ROW() - 1) - M25)),IF(I25="", "", INDIRECT("N" &amp; ROW() - 1) - M25))</f>
-        <v/>
-      </c>
-      <c r="H25" s="16"/>
+        <f aca="true">IF(H25="", IF(I25="","",(INDIRECT("M" &amp; ROW() - 1) - M25)),IF(I25="", "", INDIRECT("M" &amp; ROW() - 1) - M25))</f>
+        <v/>
+      </c>
+      <c r="H25" s="16" t="str">
+        <f aca="false">IF(D25="", "", IF(I25="-", "", E25 * IF(F25="",1,F25)))</f>
+        <v/>
+      </c>
       <c r="J25" s="9" t="n">
         <f aca="true">IF(I25 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E25 * F25)</f>
         <v>0</v>
@@ -1368,10 +1399,13 @@
         <v/>
       </c>
       <c r="G26" s="16" t="str">
-        <f aca="true">IF(H26="", IF(I26="","",(INDIRECT("N" &amp; ROW() - 1) - M26)),IF(I26="", "", INDIRECT("N" &amp; ROW() - 1) - M26))</f>
-        <v/>
-      </c>
-      <c r="H26" s="16"/>
+        <f aca="true">IF(H26="", IF(I26="","",(INDIRECT("M" &amp; ROW() - 1) - M26)),IF(I26="", "", INDIRECT("M" &amp; ROW() - 1) - M26))</f>
+        <v/>
+      </c>
+      <c r="H26" s="16" t="str">
+        <f aca="false">IF(D26="", "", IF(I26="-", "", E26 * IF(F26="",1,F26)))</f>
+        <v/>
+      </c>
       <c r="J26" s="9" t="n">
         <f aca="true">IF(I26 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E26 * F26)</f>
         <v>0</v>
@@ -1399,10 +1433,13 @@
         <v/>
       </c>
       <c r="G27" s="16" t="str">
-        <f aca="true">IF(H27="", IF(I27="","",(INDIRECT("N" &amp; ROW() - 1) - M27)),IF(I27="", "", INDIRECT("N" &amp; ROW() - 1) - M27))</f>
-        <v/>
-      </c>
-      <c r="H27" s="16"/>
+        <f aca="true">IF(H27="", IF(I27="","",(INDIRECT("M" &amp; ROW() - 1) - M27)),IF(I27="", "", INDIRECT("M" &amp; ROW() - 1) - M27))</f>
+        <v/>
+      </c>
+      <c r="H27" s="16" t="str">
+        <f aca="false">IF(D27="", "", IF(I27="-", "", E27 * IF(F27="",1,F27)))</f>
+        <v/>
+      </c>
       <c r="J27" s="9" t="n">
         <f aca="true">IF(I27 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E27 * F27)</f>
         <v>0</v>
@@ -1430,10 +1467,13 @@
         <v/>
       </c>
       <c r="G28" s="16" t="str">
-        <f aca="true">IF(H28="", IF(I28="","",(INDIRECT("N" &amp; ROW() - 1) - M28)),IF(I28="", "", INDIRECT("N" &amp; ROW() - 1) - M28))</f>
-        <v/>
-      </c>
-      <c r="H28" s="16"/>
+        <f aca="true">IF(H28="", IF(I28="","",(INDIRECT("M" &amp; ROW() - 1) - M28)),IF(I28="", "", INDIRECT("M" &amp; ROW() - 1) - M28))</f>
+        <v/>
+      </c>
+      <c r="H28" s="16" t="str">
+        <f aca="false">IF(D28="", "", IF(I28="-", "", E28 * IF(F28="",1,F28)))</f>
+        <v/>
+      </c>
       <c r="J28" s="9" t="n">
         <f aca="true">IF(I28 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E28 * F28)</f>
         <v>0</v>
@@ -1461,10 +1501,13 @@
         <v/>
       </c>
       <c r="G29" s="16" t="str">
-        <f aca="true">IF(H29="", IF(I29="","",(INDIRECT("N" &amp; ROW() - 1) - M29)),IF(I29="", "", INDIRECT("N" &amp; ROW() - 1) - M29))</f>
-        <v/>
-      </c>
-      <c r="H29" s="16"/>
+        <f aca="true">IF(H29="", IF(I29="","",(INDIRECT("M" &amp; ROW() - 1) - M29)),IF(I29="", "", INDIRECT("M" &amp; ROW() - 1) - M29))</f>
+        <v/>
+      </c>
+      <c r="H29" s="16" t="str">
+        <f aca="false">IF(D29="", "", IF(I29="-", "", E29 * IF(F29="",1,F29)))</f>
+        <v/>
+      </c>
       <c r="J29" s="9" t="n">
         <f aca="true">IF(I29 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E29 * F29)</f>
         <v>0</v>
@@ -1492,10 +1535,13 @@
         <v/>
       </c>
       <c r="G30" s="16" t="str">
-        <f aca="true">IF(H30="", IF(I30="","",(INDIRECT("N" &amp; ROW() - 1) - M30)),IF(I30="", "", INDIRECT("N" &amp; ROW() - 1) - M30))</f>
-        <v/>
-      </c>
-      <c r="H30" s="16"/>
+        <f aca="true">IF(H30="", IF(I30="","",(INDIRECT("M" &amp; ROW() - 1) - M30)),IF(I30="", "", INDIRECT("M" &amp; ROW() - 1) - M30))</f>
+        <v/>
+      </c>
+      <c r="H30" s="16" t="str">
+        <f aca="false">IF(D30="", "", IF(I30="-", "", E30 * IF(F30="",1,F30)))</f>
+        <v/>
+      </c>
       <c r="J30" s="9" t="n">
         <f aca="true">IF(I30 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E30 * F30)</f>
         <v>0</v>
@@ -1523,10 +1569,13 @@
         <v/>
       </c>
       <c r="G31" s="16" t="str">
-        <f aca="true">IF(H31="", IF(I31="","",(INDIRECT("N" &amp; ROW() - 1) - M31)),IF(I31="", "", INDIRECT("N" &amp; ROW() - 1) - M31))</f>
-        <v/>
-      </c>
-      <c r="H31" s="16"/>
+        <f aca="true">IF(H31="", IF(I31="","",(INDIRECT("M" &amp; ROW() - 1) - M31)),IF(I31="", "", INDIRECT("M" &amp; ROW() - 1) - M31))</f>
+        <v/>
+      </c>
+      <c r="H31" s="16" t="str">
+        <f aca="false">IF(D31="", "", IF(I31="-", "", E31 * IF(F31="",1,F31)))</f>
+        <v/>
+      </c>
       <c r="J31" s="9" t="n">
         <f aca="true">IF(I31 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E31 * F31)</f>
         <v>0</v>
@@ -1554,10 +1603,13 @@
         <v/>
       </c>
       <c r="G32" s="16" t="str">
-        <f aca="true">IF(H32="", IF(I32="","",(INDIRECT("N" &amp; ROW() - 1) - M32)),IF(I32="", "", INDIRECT("N" &amp; ROW() - 1) - M32))</f>
-        <v/>
-      </c>
-      <c r="H32" s="16"/>
+        <f aca="true">IF(H32="", IF(I32="","",(INDIRECT("M" &amp; ROW() - 1) - M32)),IF(I32="", "", INDIRECT("M" &amp; ROW() - 1) - M32))</f>
+        <v/>
+      </c>
+      <c r="H32" s="16" t="str">
+        <f aca="false">IF(D32="", "", IF(I32="-", "", E32 * IF(F32="",1,F32)))</f>
+        <v/>
+      </c>
       <c r="J32" s="9" t="n">
         <f aca="true">IF(I32 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E32 * F32)</f>
         <v>0</v>
@@ -1585,10 +1637,13 @@
         <v/>
       </c>
       <c r="G33" s="16" t="str">
-        <f aca="true">IF(H33="", IF(I33="","",(INDIRECT("N" &amp; ROW() - 1) - M33)),IF(I33="", "", INDIRECT("N" &amp; ROW() - 1) - M33))</f>
-        <v/>
-      </c>
-      <c r="H33" s="16"/>
+        <f aca="true">IF(H33="", IF(I33="","",(INDIRECT("M" &amp; ROW() - 1) - M33)),IF(I33="", "", INDIRECT("M" &amp; ROW() - 1) - M33))</f>
+        <v/>
+      </c>
+      <c r="H33" s="16" t="str">
+        <f aca="false">IF(D33="", "", IF(I33="-", "", E33 * IF(F33="",1,F33)))</f>
+        <v/>
+      </c>
       <c r="J33" s="9" t="n">
         <f aca="true">IF(I33 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E33 * F33)</f>
         <v>0</v>
@@ -1616,10 +1671,13 @@
         <v/>
       </c>
       <c r="G34" s="16" t="str">
-        <f aca="true">IF(H34="", IF(I34="","",(INDIRECT("N" &amp; ROW() - 1) - M34)),IF(I34="", "", INDIRECT("N" &amp; ROW() - 1) - M34))</f>
-        <v/>
-      </c>
-      <c r="H34" s="16"/>
+        <f aca="true">IF(H34="", IF(I34="","",(INDIRECT("M" &amp; ROW() - 1) - M34)),IF(I34="", "", INDIRECT("M" &amp; ROW() - 1) - M34))</f>
+        <v/>
+      </c>
+      <c r="H34" s="16" t="str">
+        <f aca="false">IF(D34="", "", IF(I34="-", "", E34 * IF(F34="",1,F34)))</f>
+        <v/>
+      </c>
       <c r="J34" s="9" t="n">
         <f aca="true">IF(I34 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E34 * F34)</f>
         <v>0</v>
@@ -1647,10 +1705,13 @@
         <v/>
       </c>
       <c r="G35" s="16" t="str">
-        <f aca="true">IF(H35="", IF(I35="","",(INDIRECT("N" &amp; ROW() - 1) - M35)),IF(I35="", "", INDIRECT("N" &amp; ROW() - 1) - M35))</f>
-        <v/>
-      </c>
-      <c r="H35" s="16"/>
+        <f aca="true">IF(H35="", IF(I35="","",(INDIRECT("M" &amp; ROW() - 1) - M35)),IF(I35="", "", INDIRECT("M" &amp; ROW() - 1) - M35))</f>
+        <v/>
+      </c>
+      <c r="H35" s="16" t="str">
+        <f aca="false">IF(D35="", "", IF(I35="-", "", E35 * IF(F35="",1,F35)))</f>
+        <v/>
+      </c>
       <c r="J35" s="9" t="n">
         <f aca="true">IF(I35 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E35 * F35)</f>
         <v>0</v>
@@ -1678,10 +1739,13 @@
         <v/>
       </c>
       <c r="G36" s="16" t="str">
-        <f aca="true">IF(H36="", IF(I36="","",(INDIRECT("N" &amp; ROW() - 1) - M36)),IF(I36="", "", INDIRECT("N" &amp; ROW() - 1) - M36))</f>
-        <v/>
-      </c>
-      <c r="H36" s="16"/>
+        <f aca="true">IF(H36="", IF(I36="","",(INDIRECT("M" &amp; ROW() - 1) - M36)),IF(I36="", "", INDIRECT("M" &amp; ROW() - 1) - M36))</f>
+        <v/>
+      </c>
+      <c r="H36" s="16" t="str">
+        <f aca="false">IF(D36="", "", IF(I36="-", "", E36 * IF(F36="",1,F36)))</f>
+        <v/>
+      </c>
       <c r="J36" s="9" t="n">
         <f aca="true">IF(I36 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E36 * F36)</f>
         <v>0</v>
@@ -1709,10 +1773,13 @@
         <v/>
       </c>
       <c r="G37" s="16" t="str">
-        <f aca="true">IF(H37="", IF(I37="","",(INDIRECT("N" &amp; ROW() - 1) - M37)),IF(I37="", "", INDIRECT("N" &amp; ROW() - 1) - M37))</f>
-        <v/>
-      </c>
-      <c r="H37" s="16"/>
+        <f aca="true">IF(H37="", IF(I37="","",(INDIRECT("M" &amp; ROW() - 1) - M37)),IF(I37="", "", INDIRECT("M" &amp; ROW() - 1) - M37))</f>
+        <v/>
+      </c>
+      <c r="H37" s="16" t="str">
+        <f aca="false">IF(D37="", "", IF(I37="-", "", E37 * IF(F37="",1,F37)))</f>
+        <v/>
+      </c>
       <c r="J37" s="9" t="n">
         <f aca="true">IF(I37 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E37 * F37)</f>
         <v>0</v>
@@ -1740,10 +1807,13 @@
         <v/>
       </c>
       <c r="G38" s="16" t="str">
-        <f aca="true">IF(H38="", IF(I38="","",(INDIRECT("N" &amp; ROW() - 1) - M38)),IF(I38="", "", INDIRECT("N" &amp; ROW() - 1) - M38))</f>
-        <v/>
-      </c>
-      <c r="H38" s="16"/>
+        <f aca="true">IF(H38="", IF(I38="","",(INDIRECT("M" &amp; ROW() - 1) - M38)),IF(I38="", "", INDIRECT("M" &amp; ROW() - 1) - M38))</f>
+        <v/>
+      </c>
+      <c r="H38" s="16" t="str">
+        <f aca="false">IF(D38="", "", IF(I38="-", "", E38 * IF(F38="",1,F38)))</f>
+        <v/>
+      </c>
       <c r="J38" s="9" t="n">
         <f aca="true">IF(I38 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E38 * F38)</f>
         <v>0</v>
@@ -1771,10 +1841,13 @@
         <v/>
       </c>
       <c r="G39" s="16" t="str">
-        <f aca="true">IF(H39="", IF(I39="","",(INDIRECT("N" &amp; ROW() - 1) - M39)),IF(I39="", "", INDIRECT("N" &amp; ROW() - 1) - M39))</f>
-        <v/>
-      </c>
-      <c r="H39" s="16"/>
+        <f aca="true">IF(H39="", IF(I39="","",(INDIRECT("M" &amp; ROW() - 1) - M39)),IF(I39="", "", INDIRECT("M" &amp; ROW() - 1) - M39))</f>
+        <v/>
+      </c>
+      <c r="H39" s="16" t="str">
+        <f aca="false">IF(D39="", "", IF(I39="-", "", E39 * IF(F39="",1,F39)))</f>
+        <v/>
+      </c>
       <c r="J39" s="9" t="n">
         <f aca="true">IF(I39 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E39 * F39)</f>
         <v>0</v>
@@ -1802,10 +1875,13 @@
         <v/>
       </c>
       <c r="G40" s="16" t="str">
-        <f aca="true">IF(H40="", IF(I40="","",(INDIRECT("N" &amp; ROW() - 1) - M40)),IF(I40="", "", INDIRECT("N" &amp; ROW() - 1) - M40))</f>
-        <v/>
-      </c>
-      <c r="H40" s="16"/>
+        <f aca="true">IF(H40="", IF(I40="","",(INDIRECT("M" &amp; ROW() - 1) - M40)),IF(I40="", "", INDIRECT("M" &amp; ROW() - 1) - M40))</f>
+        <v/>
+      </c>
+      <c r="H40" s="16" t="str">
+        <f aca="false">IF(D40="", "", IF(I40="-", "", E40 * IF(F40="",1,F40)))</f>
+        <v/>
+      </c>
       <c r="J40" s="9" t="n">
         <f aca="true">IF(I40 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E40 * F40)</f>
         <v>0</v>
@@ -1833,10 +1909,13 @@
         <v/>
       </c>
       <c r="G41" s="16" t="str">
-        <f aca="true">IF(H41="", IF(I41="","",(INDIRECT("N" &amp; ROW() - 1) - M41)),IF(I41="", "", INDIRECT("N" &amp; ROW() - 1) - M41))</f>
-        <v/>
-      </c>
-      <c r="H41" s="16"/>
+        <f aca="true">IF(H41="", IF(I41="","",(INDIRECT("M" &amp; ROW() - 1) - M41)),IF(I41="", "", INDIRECT("M" &amp; ROW() - 1) - M41))</f>
+        <v/>
+      </c>
+      <c r="H41" s="16" t="str">
+        <f aca="false">IF(D41="", "", IF(I41="-", "", E41 * IF(F41="",1,F41)))</f>
+        <v/>
+      </c>
       <c r="J41" s="9" t="n">
         <f aca="true">IF(I41 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E41 * F41)</f>
         <v>0</v>
@@ -1864,10 +1943,13 @@
         <v/>
       </c>
       <c r="G42" s="16" t="str">
-        <f aca="true">IF(H42="", IF(I42="","",(INDIRECT("N" &amp; ROW() - 1) - M42)),IF(I42="", "", INDIRECT("N" &amp; ROW() - 1) - M42))</f>
-        <v/>
-      </c>
-      <c r="H42" s="16"/>
+        <f aca="true">IF(H42="", IF(I42="","",(INDIRECT("M" &amp; ROW() - 1) - M42)),IF(I42="", "", INDIRECT("M" &amp; ROW() - 1) - M42))</f>
+        <v/>
+      </c>
+      <c r="H42" s="16" t="str">
+        <f aca="false">IF(D42="", "", IF(I42="-", "", E42 * IF(F42="",1,F42)))</f>
+        <v/>
+      </c>
       <c r="J42" s="9" t="n">
         <f aca="true">IF(I42 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E42 * F42)</f>
         <v>0</v>
@@ -1895,10 +1977,13 @@
         <v/>
       </c>
       <c r="G43" s="16" t="str">
-        <f aca="true">IF(H43="", IF(I43="","",(INDIRECT("N" &amp; ROW() - 1) - M43)),IF(I43="", "", INDIRECT("N" &amp; ROW() - 1) - M43))</f>
-        <v/>
-      </c>
-      <c r="H43" s="16"/>
+        <f aca="true">IF(H43="", IF(I43="","",(INDIRECT("M" &amp; ROW() - 1) - M43)),IF(I43="", "", INDIRECT("M" &amp; ROW() - 1) - M43))</f>
+        <v/>
+      </c>
+      <c r="H43" s="16" t="str">
+        <f aca="false">IF(D43="", "", IF(I43="-", "", E43 * IF(F43="",1,F43)))</f>
+        <v/>
+      </c>
       <c r="J43" s="9" t="n">
         <f aca="true">IF(I43 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E43 * F43)</f>
         <v>0</v>
@@ -1926,10 +2011,13 @@
         <v/>
       </c>
       <c r="G44" s="16" t="str">
-        <f aca="true">IF(H44="", IF(I44="","",(INDIRECT("N" &amp; ROW() - 1) - M44)),IF(I44="", "", INDIRECT("N" &amp; ROW() - 1) - M44))</f>
-        <v/>
-      </c>
-      <c r="H44" s="16"/>
+        <f aca="true">IF(H44="", IF(I44="","",(INDIRECT("M" &amp; ROW() - 1) - M44)),IF(I44="", "", INDIRECT("M" &amp; ROW() - 1) - M44))</f>
+        <v/>
+      </c>
+      <c r="H44" s="16" t="str">
+        <f aca="false">IF(D44="", "", IF(I44="-", "", E44 * IF(F44="",1,F44)))</f>
+        <v/>
+      </c>
       <c r="J44" s="9" t="n">
         <f aca="true">IF(I44 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E44 * F44)</f>
         <v>0</v>
@@ -1957,10 +2045,13 @@
         <v/>
       </c>
       <c r="G45" s="16" t="str">
-        <f aca="true">IF(H45="", IF(I45="","",(INDIRECT("N" &amp; ROW() - 1) - M45)),IF(I45="", "", INDIRECT("N" &amp; ROW() - 1) - M45))</f>
-        <v/>
-      </c>
-      <c r="H45" s="16"/>
+        <f aca="true">IF(H45="", IF(I45="","",(INDIRECT("M" &amp; ROW() - 1) - M45)),IF(I45="", "", INDIRECT("M" &amp; ROW() - 1) - M45))</f>
+        <v/>
+      </c>
+      <c r="H45" s="16" t="str">
+        <f aca="false">IF(D45="", "", IF(I45="-", "", E45 * IF(F45="",1,F45)))</f>
+        <v/>
+      </c>
       <c r="J45" s="9" t="n">
         <f aca="true">IF(I45 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E45 * F45)</f>
         <v>0</v>
@@ -1988,10 +2079,13 @@
         <v/>
       </c>
       <c r="G46" s="16" t="str">
-        <f aca="true">IF(H46="", IF(I46="","",(INDIRECT("N" &amp; ROW() - 1) - M46)),IF(I46="", "", INDIRECT("N" &amp; ROW() - 1) - M46))</f>
-        <v/>
-      </c>
-      <c r="H46" s="16"/>
+        <f aca="true">IF(H46="", IF(I46="","",(INDIRECT("M" &amp; ROW() - 1) - M46)),IF(I46="", "", INDIRECT("M" &amp; ROW() - 1) - M46))</f>
+        <v/>
+      </c>
+      <c r="H46" s="16" t="str">
+        <f aca="false">IF(D46="", "", IF(I46="-", "", E46 * IF(F46="",1,F46)))</f>
+        <v/>
+      </c>
       <c r="J46" s="9" t="n">
         <f aca="true">IF(I46 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E46 * F46)</f>
         <v>0</v>
@@ -2019,10 +2113,13 @@
         <v/>
       </c>
       <c r="G47" s="16" t="str">
-        <f aca="true">IF(H47="", IF(I47="","",(INDIRECT("N" &amp; ROW() - 1) - M47)),IF(I47="", "", INDIRECT("N" &amp; ROW() - 1) - M47))</f>
-        <v/>
-      </c>
-      <c r="H47" s="16"/>
+        <f aca="true">IF(H47="", IF(I47="","",(INDIRECT("M" &amp; ROW() - 1) - M47)),IF(I47="", "", INDIRECT("M" &amp; ROW() - 1) - M47))</f>
+        <v/>
+      </c>
+      <c r="H47" s="16" t="str">
+        <f aca="false">IF(D47="", "", IF(I47="-", "", E47 * IF(F47="",1,F47)))</f>
+        <v/>
+      </c>
       <c r="J47" s="9" t="n">
         <f aca="true">IF(I47 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E47 * F47)</f>
         <v>0</v>
@@ -2050,10 +2147,13 @@
         <v/>
       </c>
       <c r="G48" s="16" t="str">
-        <f aca="true">IF(H48="", IF(I48="","",(INDIRECT("N" &amp; ROW() - 1) - M48)),IF(I48="", "", INDIRECT("N" &amp; ROW() - 1) - M48))</f>
-        <v/>
-      </c>
-      <c r="H48" s="16"/>
+        <f aca="true">IF(H48="", IF(I48="","",(INDIRECT("M" &amp; ROW() - 1) - M48)),IF(I48="", "", INDIRECT("M" &amp; ROW() - 1) - M48))</f>
+        <v/>
+      </c>
+      <c r="H48" s="16" t="str">
+        <f aca="false">IF(D48="", "", IF(I48="-", "", E48 * IF(F48="",1,F48)))</f>
+        <v/>
+      </c>
       <c r="J48" s="9" t="n">
         <f aca="true">IF(I48 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E48 * F48)</f>
         <v>0</v>
@@ -2081,10 +2181,13 @@
         <v/>
       </c>
       <c r="G49" s="16" t="str">
-        <f aca="true">IF(H49="", IF(I49="","",(INDIRECT("N" &amp; ROW() - 1) - M49)),IF(I49="", "", INDIRECT("N" &amp; ROW() - 1) - M49))</f>
-        <v/>
-      </c>
-      <c r="H49" s="16"/>
+        <f aca="true">IF(H49="", IF(I49="","",(INDIRECT("M" &amp; ROW() - 1) - M49)),IF(I49="", "", INDIRECT("M" &amp; ROW() - 1) - M49))</f>
+        <v/>
+      </c>
+      <c r="H49" s="16" t="str">
+        <f aca="false">IF(D49="", "", IF(I49="-", "", E49 * IF(F49="",1,F49)))</f>
+        <v/>
+      </c>
       <c r="J49" s="9" t="n">
         <f aca="true">IF(I49 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E49 * F49)</f>
         <v>0</v>
@@ -2112,10 +2215,13 @@
         <v/>
       </c>
       <c r="G50" s="16" t="str">
-        <f aca="true">IF(H50="", IF(I50="","",(INDIRECT("N" &amp; ROW() - 1) - M50)),IF(I50="", "", INDIRECT("N" &amp; ROW() - 1) - M50))</f>
-        <v/>
-      </c>
-      <c r="H50" s="16"/>
+        <f aca="true">IF(H50="", IF(I50="","",(INDIRECT("M" &amp; ROW() - 1) - M50)),IF(I50="", "", INDIRECT("M" &amp; ROW() - 1) - M50))</f>
+        <v/>
+      </c>
+      <c r="H50" s="16" t="str">
+        <f aca="false">IF(D50="", "", IF(I50="-", "", E50 * IF(F50="",1,F50)))</f>
+        <v/>
+      </c>
       <c r="J50" s="9" t="n">
         <f aca="true">IF(I50 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E50 * F50)</f>
         <v>0</v>
@@ -2143,10 +2249,13 @@
         <v/>
       </c>
       <c r="G51" s="16" t="str">
-        <f aca="true">IF(H51="", IF(I51="","",(INDIRECT("N" &amp; ROW() - 1) - M51)),IF(I51="", "", INDIRECT("N" &amp; ROW() - 1) - M51))</f>
-        <v/>
-      </c>
-      <c r="H51" s="16"/>
+        <f aca="true">IF(H51="", IF(I51="","",(INDIRECT("M" &amp; ROW() - 1) - M51)),IF(I51="", "", INDIRECT("M" &amp; ROW() - 1) - M51))</f>
+        <v/>
+      </c>
+      <c r="H51" s="16" t="str">
+        <f aca="false">IF(D51="", "", IF(I51="-", "", E51 * IF(F51="",1,F51)))</f>
+        <v/>
+      </c>
       <c r="J51" s="9" t="n">
         <f aca="true">IF(I51 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E51 * F51)</f>
         <v>0</v>
@@ -2174,10 +2283,13 @@
         <v/>
       </c>
       <c r="G52" s="16" t="str">
-        <f aca="true">IF(H52="", IF(I52="","",(INDIRECT("N" &amp; ROW() - 1) - M52)),IF(I52="", "", INDIRECT("N" &amp; ROW() - 1) - M52))</f>
-        <v/>
-      </c>
-      <c r="H52" s="16"/>
+        <f aca="true">IF(H52="", IF(I52="","",(INDIRECT("M" &amp; ROW() - 1) - M52)),IF(I52="", "", INDIRECT("M" &amp; ROW() - 1) - M52))</f>
+        <v/>
+      </c>
+      <c r="H52" s="16" t="str">
+        <f aca="false">IF(D52="", "", IF(I52="-", "", E52 * IF(F52="",1,F52)))</f>
+        <v/>
+      </c>
       <c r="J52" s="9" t="n">
         <f aca="true">IF(I52 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E52 * F52)</f>
         <v>0</v>
@@ -2205,10 +2317,13 @@
         <v/>
       </c>
       <c r="G53" s="16" t="str">
-        <f aca="true">IF(H53="", IF(I53="","",(INDIRECT("N" &amp; ROW() - 1) - M53)),IF(I53="", "", INDIRECT("N" &amp; ROW() - 1) - M53))</f>
-        <v/>
-      </c>
-      <c r="H53" s="16"/>
+        <f aca="true">IF(H53="", IF(I53="","",(INDIRECT("M" &amp; ROW() - 1) - M53)),IF(I53="", "", INDIRECT("M" &amp; ROW() - 1) - M53))</f>
+        <v/>
+      </c>
+      <c r="H53" s="16" t="str">
+        <f aca="false">IF(D53="", "", IF(I53="-", "", E53 * IF(F53="",1,F53)))</f>
+        <v/>
+      </c>
       <c r="J53" s="9" t="n">
         <f aca="true">IF(I53 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E53 * F53)</f>
         <v>0</v>
@@ -2236,10 +2351,13 @@
         <v/>
       </c>
       <c r="G54" s="16" t="str">
-        <f aca="true">IF(H54="", IF(I54="","",(INDIRECT("N" &amp; ROW() - 1) - M54)),IF(I54="", "", INDIRECT("N" &amp; ROW() - 1) - M54))</f>
-        <v/>
-      </c>
-      <c r="H54" s="16"/>
+        <f aca="true">IF(H54="", IF(I54="","",(INDIRECT("M" &amp; ROW() - 1) - M54)),IF(I54="", "", INDIRECT("M" &amp; ROW() - 1) - M54))</f>
+        <v/>
+      </c>
+      <c r="H54" s="16" t="str">
+        <f aca="false">IF(D54="", "", IF(I54="-", "", E54 * IF(F54="",1,F54)))</f>
+        <v/>
+      </c>
       <c r="J54" s="9" t="n">
         <f aca="true">IF(I54 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E54 * F54)</f>
         <v>0</v>
@@ -2267,10 +2385,13 @@
         <v/>
       </c>
       <c r="G55" s="16" t="str">
-        <f aca="true">IF(H55="", IF(I55="","",(INDIRECT("N" &amp; ROW() - 1) - M55)),IF(I55="", "", INDIRECT("N" &amp; ROW() - 1) - M55))</f>
-        <v/>
-      </c>
-      <c r="H55" s="16"/>
+        <f aca="true">IF(H55="", IF(I55="","",(INDIRECT("M" &amp; ROW() - 1) - M55)),IF(I55="", "", INDIRECT("M" &amp; ROW() - 1) - M55))</f>
+        <v/>
+      </c>
+      <c r="H55" s="16" t="str">
+        <f aca="false">IF(D55="", "", IF(I55="-", "", E55 * IF(F55="",1,F55)))</f>
+        <v/>
+      </c>
       <c r="J55" s="9" t="n">
         <f aca="true">IF(I55 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E55 * F55)</f>
         <v>0</v>
@@ -2298,10 +2419,13 @@
         <v/>
       </c>
       <c r="G56" s="16" t="str">
-        <f aca="true">IF(H56="", IF(I56="","",(INDIRECT("N" &amp; ROW() - 1) - M56)),IF(I56="", "", INDIRECT("N" &amp; ROW() - 1) - M56))</f>
-        <v/>
-      </c>
-      <c r="H56" s="16"/>
+        <f aca="true">IF(H56="", IF(I56="","",(INDIRECT("M" &amp; ROW() - 1) - M56)),IF(I56="", "", INDIRECT("M" &amp; ROW() - 1) - M56))</f>
+        <v/>
+      </c>
+      <c r="H56" s="16" t="str">
+        <f aca="false">IF(D56="", "", IF(I56="-", "", E56 * IF(F56="",1,F56)))</f>
+        <v/>
+      </c>
       <c r="J56" s="9" t="n">
         <f aca="true">IF(I56 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E56 * F56)</f>
         <v>0</v>
@@ -2329,10 +2453,13 @@
         <v/>
       </c>
       <c r="G57" s="16" t="str">
-        <f aca="true">IF(H57="", IF(I57="","",(INDIRECT("N" &amp; ROW() - 1) - M57)),IF(I57="", "", INDIRECT("N" &amp; ROW() - 1) - M57))</f>
-        <v/>
-      </c>
-      <c r="H57" s="16"/>
+        <f aca="true">IF(H57="", IF(I57="","",(INDIRECT("M" &amp; ROW() - 1) - M57)),IF(I57="", "", INDIRECT("M" &amp; ROW() - 1) - M57))</f>
+        <v/>
+      </c>
+      <c r="H57" s="16" t="str">
+        <f aca="false">IF(D57="", "", IF(I57="-", "", E57 * IF(F57="",1,F57)))</f>
+        <v/>
+      </c>
       <c r="J57" s="9" t="n">
         <f aca="true">IF(I57 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E57 * F57)</f>
         <v>0</v>
@@ -2360,10 +2487,13 @@
         <v/>
       </c>
       <c r="G58" s="16" t="str">
-        <f aca="true">IF(H58="", IF(I58="","",(INDIRECT("N" &amp; ROW() - 1) - M58)),IF(I58="", "", INDIRECT("N" &amp; ROW() - 1) - M58))</f>
-        <v/>
-      </c>
-      <c r="H58" s="16"/>
+        <f aca="true">IF(H58="", IF(I58="","",(INDIRECT("M" &amp; ROW() - 1) - M58)),IF(I58="", "", INDIRECT("M" &amp; ROW() - 1) - M58))</f>
+        <v/>
+      </c>
+      <c r="H58" s="16" t="str">
+        <f aca="false">IF(D58="", "", IF(I58="-", "", E58 * IF(F58="",1,F58)))</f>
+        <v/>
+      </c>
       <c r="J58" s="9" t="n">
         <f aca="true">IF(I58 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E58 * F58)</f>
         <v>0</v>
@@ -2391,10 +2521,13 @@
         <v/>
       </c>
       <c r="G59" s="16" t="str">
-        <f aca="true">IF(H59="", IF(I59="","",(INDIRECT("N" &amp; ROW() - 1) - M59)),IF(I59="", "", INDIRECT("N" &amp; ROW() - 1) - M59))</f>
-        <v/>
-      </c>
-      <c r="H59" s="16"/>
+        <f aca="true">IF(H59="", IF(I59="","",(INDIRECT("M" &amp; ROW() - 1) - M59)),IF(I59="", "", INDIRECT("M" &amp; ROW() - 1) - M59))</f>
+        <v/>
+      </c>
+      <c r="H59" s="16" t="str">
+        <f aca="false">IF(D59="", "", IF(I59="-", "", E59 * IF(F59="",1,F59)))</f>
+        <v/>
+      </c>
       <c r="J59" s="9" t="n">
         <f aca="true">IF(I59 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E59 * F59)</f>
         <v>0</v>
@@ -2422,10 +2555,13 @@
         <v/>
       </c>
       <c r="G60" s="16" t="str">
-        <f aca="true">IF(H60="", IF(I60="","",(INDIRECT("N" &amp; ROW() - 1) - M60)),IF(I60="", "", INDIRECT("N" &amp; ROW() - 1) - M60))</f>
-        <v/>
-      </c>
-      <c r="H60" s="16"/>
+        <f aca="true">IF(H60="", IF(I60="","",(INDIRECT("M" &amp; ROW() - 1) - M60)),IF(I60="", "", INDIRECT("M" &amp; ROW() - 1) - M60))</f>
+        <v/>
+      </c>
+      <c r="H60" s="16" t="str">
+        <f aca="false">IF(D60="", "", IF(I60="-", "", E60 * IF(F60="",1,F60)))</f>
+        <v/>
+      </c>
       <c r="J60" s="9" t="n">
         <f aca="true">IF(I60 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E60 * F60)</f>
         <v>0</v>
@@ -2453,10 +2589,13 @@
         <v/>
       </c>
       <c r="G61" s="16" t="str">
-        <f aca="true">IF(H61="", IF(I61="","",(INDIRECT("N" &amp; ROW() - 1) - M61)),IF(I61="", "", INDIRECT("N" &amp; ROW() - 1) - M61))</f>
-        <v/>
-      </c>
-      <c r="H61" s="16"/>
+        <f aca="true">IF(H61="", IF(I61="","",(INDIRECT("M" &amp; ROW() - 1) - M61)),IF(I61="", "", INDIRECT("M" &amp; ROW() - 1) - M61))</f>
+        <v/>
+      </c>
+      <c r="H61" s="16" t="str">
+        <f aca="false">IF(D61="", "", IF(I61="-", "", E61 * IF(F61="",1,F61)))</f>
+        <v/>
+      </c>
       <c r="J61" s="9" t="n">
         <f aca="true">IF(I61 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E61 * F61)</f>
         <v>0</v>
@@ -2484,10 +2623,13 @@
         <v/>
       </c>
       <c r="G62" s="16" t="str">
-        <f aca="true">IF(H62="", IF(I62="","",(INDIRECT("N" &amp; ROW() - 1) - M62)),IF(I62="", "", INDIRECT("N" &amp; ROW() - 1) - M62))</f>
-        <v/>
-      </c>
-      <c r="H62" s="16"/>
+        <f aca="true">IF(H62="", IF(I62="","",(INDIRECT("M" &amp; ROW() - 1) - M62)),IF(I62="", "", INDIRECT("M" &amp; ROW() - 1) - M62))</f>
+        <v/>
+      </c>
+      <c r="H62" s="16" t="str">
+        <f aca="false">IF(D62="", "", IF(I62="-", "", E62 * IF(F62="",1,F62)))</f>
+        <v/>
+      </c>
       <c r="J62" s="9" t="n">
         <f aca="true">IF(I62 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E62 * F62)</f>
         <v>0</v>
@@ -2515,10 +2657,13 @@
         <v/>
       </c>
       <c r="G63" s="16" t="str">
-        <f aca="true">IF(H63="", IF(I63="","",(INDIRECT("N" &amp; ROW() - 1) - M63)),IF(I63="", "", INDIRECT("N" &amp; ROW() - 1) - M63))</f>
-        <v/>
-      </c>
-      <c r="H63" s="16"/>
+        <f aca="true">IF(H63="", IF(I63="","",(INDIRECT("M" &amp; ROW() - 1) - M63)),IF(I63="", "", INDIRECT("M" &amp; ROW() - 1) - M63))</f>
+        <v/>
+      </c>
+      <c r="H63" s="16" t="str">
+        <f aca="false">IF(D63="", "", IF(I63="-", "", E63 * IF(F63="",1,F63)))</f>
+        <v/>
+      </c>
       <c r="J63" s="9" t="n">
         <f aca="true">IF(I63 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E63 * F63)</f>
         <v>0</v>
@@ -2546,10 +2691,13 @@
         <v/>
       </c>
       <c r="G64" s="16" t="str">
-        <f aca="true">IF(H64="", IF(I64="","",(INDIRECT("N" &amp; ROW() - 1) - M64)),IF(I64="", "", INDIRECT("N" &amp; ROW() - 1) - M64))</f>
-        <v/>
-      </c>
-      <c r="H64" s="16"/>
+        <f aca="true">IF(H64="", IF(I64="","",(INDIRECT("M" &amp; ROW() - 1) - M64)),IF(I64="", "", INDIRECT("M" &amp; ROW() - 1) - M64))</f>
+        <v/>
+      </c>
+      <c r="H64" s="16" t="str">
+        <f aca="false">IF(D64="", "", IF(I64="-", "", E64 * IF(F64="",1,F64)))</f>
+        <v/>
+      </c>
       <c r="J64" s="9" t="n">
         <f aca="true">IF(I64 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E64 * F64)</f>
         <v>0</v>
@@ -2577,10 +2725,13 @@
         <v/>
       </c>
       <c r="G65" s="16" t="str">
-        <f aca="true">IF(H65="", IF(I65="","",(INDIRECT("N" &amp; ROW() - 1) - M65)),IF(I65="", "", INDIRECT("N" &amp; ROW() - 1) - M65))</f>
-        <v/>
-      </c>
-      <c r="H65" s="16"/>
+        <f aca="true">IF(H65="", IF(I65="","",(INDIRECT("M" &amp; ROW() - 1) - M65)),IF(I65="", "", INDIRECT("M" &amp; ROW() - 1) - M65))</f>
+        <v/>
+      </c>
+      <c r="H65" s="16" t="str">
+        <f aca="false">IF(D65="", "", IF(I65="-", "", E65 * IF(F65="",1,F65)))</f>
+        <v/>
+      </c>
       <c r="J65" s="9" t="n">
         <f aca="true">IF(I65 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E65 * F65)</f>
         <v>0</v>
@@ -2608,10 +2759,13 @@
         <v/>
       </c>
       <c r="G66" s="16" t="str">
-        <f aca="true">IF(H66="", IF(I66="","",(INDIRECT("N" &amp; ROW() - 1) - M66)),IF(I66="", "", INDIRECT("N" &amp; ROW() - 1) - M66))</f>
-        <v/>
-      </c>
-      <c r="H66" s="16"/>
+        <f aca="true">IF(H66="", IF(I66="","",(INDIRECT("M" &amp; ROW() - 1) - M66)),IF(I66="", "", INDIRECT("M" &amp; ROW() - 1) - M66))</f>
+        <v/>
+      </c>
+      <c r="H66" s="16" t="str">
+        <f aca="false">IF(D66="", "", IF(I66="-", "", E66 * IF(F66="",1,F66)))</f>
+        <v/>
+      </c>
       <c r="J66" s="9" t="n">
         <f aca="true">IF(I66 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E66 * F66)</f>
         <v>0</v>
@@ -2639,10 +2793,13 @@
         <v/>
       </c>
       <c r="G67" s="16" t="str">
-        <f aca="true">IF(H67="", IF(I67="","",(INDIRECT("N" &amp; ROW() - 1) - M67)),IF(I67="", "", INDIRECT("N" &amp; ROW() - 1) - M67))</f>
-        <v/>
-      </c>
-      <c r="H67" s="16"/>
+        <f aca="true">IF(H67="", IF(I67="","",(INDIRECT("M" &amp; ROW() - 1) - M67)),IF(I67="", "", INDIRECT("M" &amp; ROW() - 1) - M67))</f>
+        <v/>
+      </c>
+      <c r="H67" s="16" t="str">
+        <f aca="false">IF(D67="", "", IF(I67="-", "", E67 * IF(F67="",1,F67)))</f>
+        <v/>
+      </c>
       <c r="J67" s="9" t="n">
         <f aca="true">IF(I67 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E67 * F67)</f>
         <v>0</v>
@@ -2670,10 +2827,13 @@
         <v/>
       </c>
       <c r="G68" s="16" t="str">
-        <f aca="true">IF(H68="", IF(I68="","",(INDIRECT("N" &amp; ROW() - 1) - M68)),IF(I68="", "", INDIRECT("N" &amp; ROW() - 1) - M68))</f>
-        <v/>
-      </c>
-      <c r="H68" s="16"/>
+        <f aca="true">IF(H68="", IF(I68="","",(INDIRECT("M" &amp; ROW() - 1) - M68)),IF(I68="", "", INDIRECT("M" &amp; ROW() - 1) - M68))</f>
+        <v/>
+      </c>
+      <c r="H68" s="16" t="str">
+        <f aca="false">IF(D68="", "", IF(I68="-", "", E68 * IF(F68="",1,F68)))</f>
+        <v/>
+      </c>
       <c r="J68" s="9" t="n">
         <f aca="true">IF(I68 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E68 * F68)</f>
         <v>0</v>
@@ -2701,10 +2861,13 @@
         <v/>
       </c>
       <c r="G69" s="16" t="str">
-        <f aca="true">IF(H69="", IF(I69="","",(INDIRECT("N" &amp; ROW() - 1) - M69)),IF(I69="", "", INDIRECT("N" &amp; ROW() - 1) - M69))</f>
-        <v/>
-      </c>
-      <c r="H69" s="16"/>
+        <f aca="true">IF(H69="", IF(I69="","",(INDIRECT("M" &amp; ROW() - 1) - M69)),IF(I69="", "", INDIRECT("M" &amp; ROW() - 1) - M69))</f>
+        <v/>
+      </c>
+      <c r="H69" s="16" t="str">
+        <f aca="false">IF(D69="", "", IF(I69="-", "", E69 * IF(F69="",1,F69)))</f>
+        <v/>
+      </c>
       <c r="J69" s="9" t="n">
         <f aca="true">IF(I69 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E69 * F69)</f>
         <v>0</v>
@@ -2732,10 +2895,13 @@
         <v/>
       </c>
       <c r="G70" s="16" t="str">
-        <f aca="true">IF(H70="", IF(I70="","",(INDIRECT("N" &amp; ROW() - 1) - M70)),IF(I70="", "", INDIRECT("N" &amp; ROW() - 1) - M70))</f>
-        <v/>
-      </c>
-      <c r="H70" s="16"/>
+        <f aca="true">IF(H70="", IF(I70="","",(INDIRECT("M" &amp; ROW() - 1) - M70)),IF(I70="", "", INDIRECT("M" &amp; ROW() - 1) - M70))</f>
+        <v/>
+      </c>
+      <c r="H70" s="16" t="str">
+        <f aca="false">IF(D70="", "", IF(I70="-", "", E70 * IF(F70="",1,F70)))</f>
+        <v/>
+      </c>
       <c r="J70" s="9" t="n">
         <f aca="true">IF(I70 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E70 * F70)</f>
         <v>0</v>
@@ -2763,10 +2929,13 @@
         <v/>
       </c>
       <c r="G71" s="16" t="str">
-        <f aca="true">IF(H71="", IF(I71="","",(INDIRECT("N" &amp; ROW() - 1) - M71)),IF(I71="", "", INDIRECT("N" &amp; ROW() - 1) - M71))</f>
-        <v/>
-      </c>
-      <c r="H71" s="16"/>
+        <f aca="true">IF(H71="", IF(I71="","",(INDIRECT("M" &amp; ROW() - 1) - M71)),IF(I71="", "", INDIRECT("M" &amp; ROW() - 1) - M71))</f>
+        <v/>
+      </c>
+      <c r="H71" s="16" t="str">
+        <f aca="false">IF(D71="", "", IF(I71="-", "", E71 * IF(F71="",1,F71)))</f>
+        <v/>
+      </c>
       <c r="J71" s="9" t="n">
         <f aca="true">IF(I71 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E71 * F71)</f>
         <v>0</v>
@@ -2794,10 +2963,13 @@
         <v/>
       </c>
       <c r="G72" s="16" t="str">
-        <f aca="true">IF(H72="", IF(I72="","",(INDIRECT("N" &amp; ROW() - 1) - M72)),IF(I72="", "", INDIRECT("N" &amp; ROW() - 1) - M72))</f>
-        <v/>
-      </c>
-      <c r="H72" s="16"/>
+        <f aca="true">IF(H72="", IF(I72="","",(INDIRECT("M" &amp; ROW() - 1) - M72)),IF(I72="", "", INDIRECT("M" &amp; ROW() - 1) - M72))</f>
+        <v/>
+      </c>
+      <c r="H72" s="16" t="str">
+        <f aca="false">IF(D72="", "", IF(I72="-", "", E72 * IF(F72="",1,F72)))</f>
+        <v/>
+      </c>
       <c r="J72" s="9" t="n">
         <f aca="true">IF(I72 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E72 * F72)</f>
         <v>0</v>
@@ -2825,10 +2997,13 @@
         <v/>
       </c>
       <c r="G73" s="16" t="str">
-        <f aca="true">IF(H73="", IF(I73="","",(INDIRECT("N" &amp; ROW() - 1) - M73)),IF(I73="", "", INDIRECT("N" &amp; ROW() - 1) - M73))</f>
-        <v/>
-      </c>
-      <c r="H73" s="16"/>
+        <f aca="true">IF(H73="", IF(I73="","",(INDIRECT("M" &amp; ROW() - 1) - M73)),IF(I73="", "", INDIRECT("M" &amp; ROW() - 1) - M73))</f>
+        <v/>
+      </c>
+      <c r="H73" s="16" t="str">
+        <f aca="false">IF(D73="", "", IF(I73="-", "", E73 * IF(F73="",1,F73)))</f>
+        <v/>
+      </c>
       <c r="J73" s="9" t="n">
         <f aca="true">IF(I73 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E73 * F73)</f>
         <v>0</v>
@@ -2856,10 +3031,13 @@
         <v/>
       </c>
       <c r="G74" s="16" t="str">
-        <f aca="true">IF(H74="", IF(I74="","",(INDIRECT("N" &amp; ROW() - 1) - M74)),IF(I74="", "", INDIRECT("N" &amp; ROW() - 1) - M74))</f>
-        <v/>
-      </c>
-      <c r="H74" s="16"/>
+        <f aca="true">IF(H74="", IF(I74="","",(INDIRECT("M" &amp; ROW() - 1) - M74)),IF(I74="", "", INDIRECT("M" &amp; ROW() - 1) - M74))</f>
+        <v/>
+      </c>
+      <c r="H74" s="16" t="str">
+        <f aca="false">IF(D74="", "", IF(I74="-", "", E74 * IF(F74="",1,F74)))</f>
+        <v/>
+      </c>
       <c r="J74" s="9" t="n">
         <f aca="true">IF(I74 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E74 * F74)</f>
         <v>0</v>
@@ -2887,10 +3065,13 @@
         <v/>
       </c>
       <c r="G75" s="16" t="str">
-        <f aca="true">IF(H75="", IF(I75="","",(INDIRECT("N" &amp; ROW() - 1) - M75)),IF(I75="", "", INDIRECT("N" &amp; ROW() - 1) - M75))</f>
-        <v/>
-      </c>
-      <c r="H75" s="16"/>
+        <f aca="true">IF(H75="", IF(I75="","",(INDIRECT("M" &amp; ROW() - 1) - M75)),IF(I75="", "", INDIRECT("M" &amp; ROW() - 1) - M75))</f>
+        <v/>
+      </c>
+      <c r="H75" s="16" t="str">
+        <f aca="false">IF(D75="", "", IF(I75="-", "", E75 * IF(F75="",1,F75)))</f>
+        <v/>
+      </c>
       <c r="J75" s="9" t="n">
         <f aca="true">IF(I75 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E75 * F75)</f>
         <v>0</v>
@@ -2918,10 +3099,13 @@
         <v/>
       </c>
       <c r="G76" s="16" t="str">
-        <f aca="true">IF(H76="", IF(I76="","",(INDIRECT("N" &amp; ROW() - 1) - M76)),IF(I76="", "", INDIRECT("N" &amp; ROW() - 1) - M76))</f>
-        <v/>
-      </c>
-      <c r="H76" s="16"/>
+        <f aca="true">IF(H76="", IF(I76="","",(INDIRECT("M" &amp; ROW() - 1) - M76)),IF(I76="", "", INDIRECT("M" &amp; ROW() - 1) - M76))</f>
+        <v/>
+      </c>
+      <c r="H76" s="16" t="str">
+        <f aca="false">IF(D76="", "", IF(I76="-", "", E76 * IF(F76="",1,F76)))</f>
+        <v/>
+      </c>
       <c r="J76" s="9" t="n">
         <f aca="true">IF(I76 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E76 * F76)</f>
         <v>0</v>
@@ -2949,10 +3133,13 @@
         <v/>
       </c>
       <c r="G77" s="16" t="str">
-        <f aca="true">IF(H77="", IF(I77="","",(INDIRECT("N" &amp; ROW() - 1) - M77)),IF(I77="", "", INDIRECT("N" &amp; ROW() - 1) - M77))</f>
-        <v/>
-      </c>
-      <c r="H77" s="16"/>
+        <f aca="true">IF(H77="", IF(I77="","",(INDIRECT("M" &amp; ROW() - 1) - M77)),IF(I77="", "", INDIRECT("M" &amp; ROW() - 1) - M77))</f>
+        <v/>
+      </c>
+      <c r="H77" s="16" t="str">
+        <f aca="false">IF(D77="", "", IF(I77="-", "", E77 * IF(F77="",1,F77)))</f>
+        <v/>
+      </c>
       <c r="J77" s="9" t="n">
         <f aca="true">IF(I77 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E77 * F77)</f>
         <v>0</v>
@@ -2980,10 +3167,13 @@
         <v/>
       </c>
       <c r="G78" s="16" t="str">
-        <f aca="true">IF(H78="", IF(I78="","",(INDIRECT("N" &amp; ROW() - 1) - M78)),IF(I78="", "", INDIRECT("N" &amp; ROW() - 1) - M78))</f>
-        <v/>
-      </c>
-      <c r="H78" s="16"/>
+        <f aca="true">IF(H78="", IF(I78="","",(INDIRECT("M" &amp; ROW() - 1) - M78)),IF(I78="", "", INDIRECT("M" &amp; ROW() - 1) - M78))</f>
+        <v/>
+      </c>
+      <c r="H78" s="16" t="str">
+        <f aca="false">IF(D78="", "", IF(I78="-", "", E78 * IF(F78="",1,F78)))</f>
+        <v/>
+      </c>
       <c r="J78" s="9" t="n">
         <f aca="true">IF(I78 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E78 * F78)</f>
         <v>0</v>
@@ -3011,10 +3201,13 @@
         <v/>
       </c>
       <c r="G79" s="16" t="str">
-        <f aca="true">IF(H79="", IF(I79="","",(INDIRECT("N" &amp; ROW() - 1) - M79)),IF(I79="", "", INDIRECT("N" &amp; ROW() - 1) - M79))</f>
-        <v/>
-      </c>
-      <c r="H79" s="16"/>
+        <f aca="true">IF(H79="", IF(I79="","",(INDIRECT("M" &amp; ROW() - 1) - M79)),IF(I79="", "", INDIRECT("M" &amp; ROW() - 1) - M79))</f>
+        <v/>
+      </c>
+      <c r="H79" s="16" t="str">
+        <f aca="false">IF(D79="", "", IF(I79="-", "", E79 * IF(F79="",1,F79)))</f>
+        <v/>
+      </c>
       <c r="J79" s="9" t="n">
         <f aca="true">IF(I79 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E79 * F79)</f>
         <v>0</v>
@@ -3042,10 +3235,13 @@
         <v/>
       </c>
       <c r="G80" s="16" t="str">
-        <f aca="true">IF(H80="", IF(I80="","",(INDIRECT("N" &amp; ROW() - 1) - M80)),IF(I80="", "", INDIRECT("N" &amp; ROW() - 1) - M80))</f>
-        <v/>
-      </c>
-      <c r="H80" s="16"/>
+        <f aca="true">IF(H80="", IF(I80="","",(INDIRECT("M" &amp; ROW() - 1) - M80)),IF(I80="", "", INDIRECT("M" &amp; ROW() - 1) - M80))</f>
+        <v/>
+      </c>
+      <c r="H80" s="16" t="str">
+        <f aca="false">IF(D80="", "", IF(I80="-", "", E80 * IF(F80="",1,F80)))</f>
+        <v/>
+      </c>
       <c r="J80" s="9" t="n">
         <f aca="true">IF(I80 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E80 * F80)</f>
         <v>0</v>
@@ -3073,10 +3269,13 @@
         <v/>
       </c>
       <c r="G81" s="16" t="str">
-        <f aca="true">IF(H81="", IF(I81="","",(INDIRECT("N" &amp; ROW() - 1) - M81)),IF(I81="", "", INDIRECT("N" &amp; ROW() - 1) - M81))</f>
-        <v/>
-      </c>
-      <c r="H81" s="16"/>
+        <f aca="true">IF(H81="", IF(I81="","",(INDIRECT("M" &amp; ROW() - 1) - M81)),IF(I81="", "", INDIRECT("M" &amp; ROW() - 1) - M81))</f>
+        <v/>
+      </c>
+      <c r="H81" s="16" t="str">
+        <f aca="false">IF(D81="", "", IF(I81="-", "", E81 * IF(F81="",1,F81)))</f>
+        <v/>
+      </c>
       <c r="J81" s="9" t="n">
         <f aca="true">IF(I81 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E81 * F81)</f>
         <v>0</v>
@@ -3104,10 +3303,13 @@
         <v/>
       </c>
       <c r="G82" s="16" t="str">
-        <f aca="true">IF(H82="", IF(I82="","",(INDIRECT("N" &amp; ROW() - 1) - M82)),IF(I82="", "", INDIRECT("N" &amp; ROW() - 1) - M82))</f>
-        <v/>
-      </c>
-      <c r="H82" s="16"/>
+        <f aca="true">IF(H82="", IF(I82="","",(INDIRECT("M" &amp; ROW() - 1) - M82)),IF(I82="", "", INDIRECT("M" &amp; ROW() - 1) - M82))</f>
+        <v/>
+      </c>
+      <c r="H82" s="16" t="str">
+        <f aca="false">IF(D82="", "", IF(I82="-", "", E82 * IF(F82="",1,F82)))</f>
+        <v/>
+      </c>
       <c r="J82" s="9" t="n">
         <f aca="true">IF(I82 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E82 * F82)</f>
         <v>0</v>
@@ -3135,10 +3337,13 @@
         <v/>
       </c>
       <c r="G83" s="16" t="str">
-        <f aca="true">IF(H83="", IF(I83="","",(INDIRECT("N" &amp; ROW() - 1) - M83)),IF(I83="", "", INDIRECT("N" &amp; ROW() - 1) - M83))</f>
-        <v/>
-      </c>
-      <c r="H83" s="16"/>
+        <f aca="true">IF(H83="", IF(I83="","",(INDIRECT("M" &amp; ROW() - 1) - M83)),IF(I83="", "", INDIRECT("M" &amp; ROW() - 1) - M83))</f>
+        <v/>
+      </c>
+      <c r="H83" s="16" t="str">
+        <f aca="false">IF(D83="", "", IF(I83="-", "", E83 * IF(F83="",1,F83)))</f>
+        <v/>
+      </c>
       <c r="J83" s="9" t="n">
         <f aca="true">IF(I83 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E83 * F83)</f>
         <v>0</v>
@@ -3166,10 +3371,13 @@
         <v/>
       </c>
       <c r="G84" s="16" t="str">
-        <f aca="true">IF(H84="", IF(I84="","",(INDIRECT("N" &amp; ROW() - 1) - M84)),IF(I84="", "", INDIRECT("N" &amp; ROW() - 1) - M84))</f>
-        <v/>
-      </c>
-      <c r="H84" s="16"/>
+        <f aca="true">IF(H84="", IF(I84="","",(INDIRECT("M" &amp; ROW() - 1) - M84)),IF(I84="", "", INDIRECT("M" &amp; ROW() - 1) - M84))</f>
+        <v/>
+      </c>
+      <c r="H84" s="16" t="str">
+        <f aca="false">IF(D84="", "", IF(I84="-", "", E84 * IF(F84="",1,F84)))</f>
+        <v/>
+      </c>
       <c r="J84" s="9" t="n">
         <f aca="true">IF(I84 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E84 * F84)</f>
         <v>0</v>
@@ -3197,10 +3405,13 @@
         <v/>
       </c>
       <c r="G85" s="16" t="str">
-        <f aca="true">IF(H85="", IF(I85="","",(INDIRECT("N" &amp; ROW() - 1) - M85)),IF(I85="", "", INDIRECT("N" &amp; ROW() - 1) - M85))</f>
-        <v/>
-      </c>
-      <c r="H85" s="16"/>
+        <f aca="true">IF(H85="", IF(I85="","",(INDIRECT("M" &amp; ROW() - 1) - M85)),IF(I85="", "", INDIRECT("M" &amp; ROW() - 1) - M85))</f>
+        <v/>
+      </c>
+      <c r="H85" s="16" t="str">
+        <f aca="false">IF(D85="", "", IF(I85="-", "", E85 * IF(F85="",1,F85)))</f>
+        <v/>
+      </c>
       <c r="J85" s="9" t="n">
         <f aca="true">IF(I85 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E85 * F85)</f>
         <v>0</v>
@@ -3228,10 +3439,13 @@
         <v/>
       </c>
       <c r="G86" s="16" t="str">
-        <f aca="true">IF(H86="", IF(I86="","",(INDIRECT("N" &amp; ROW() - 1) - M86)),IF(I86="", "", INDIRECT("N" &amp; ROW() - 1) - M86))</f>
-        <v/>
-      </c>
-      <c r="H86" s="16"/>
+        <f aca="true">IF(H86="", IF(I86="","",(INDIRECT("M" &amp; ROW() - 1) - M86)),IF(I86="", "", INDIRECT("M" &amp; ROW() - 1) - M86))</f>
+        <v/>
+      </c>
+      <c r="H86" s="16" t="str">
+        <f aca="false">IF(D86="", "", IF(I86="-", "", E86 * IF(F86="",1,F86)))</f>
+        <v/>
+      </c>
       <c r="J86" s="9" t="n">
         <f aca="true">IF(I86 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E86 * F86)</f>
         <v>0</v>
@@ -3259,10 +3473,13 @@
         <v/>
       </c>
       <c r="G87" s="16" t="str">
-        <f aca="true">IF(H87="", IF(I87="","",(INDIRECT("N" &amp; ROW() - 1) - M87)),IF(I87="", "", INDIRECT("N" &amp; ROW() - 1) - M87))</f>
-        <v/>
-      </c>
-      <c r="H87" s="16"/>
+        <f aca="true">IF(H87="", IF(I87="","",(INDIRECT("M" &amp; ROW() - 1) - M87)),IF(I87="", "", INDIRECT("M" &amp; ROW() - 1) - M87))</f>
+        <v/>
+      </c>
+      <c r="H87" s="16" t="str">
+        <f aca="false">IF(D87="", "", IF(I87="-", "", E87 * IF(F87="",1,F87)))</f>
+        <v/>
+      </c>
       <c r="J87" s="9" t="n">
         <f aca="true">IF(I87 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E87 * F87)</f>
         <v>0</v>
@@ -3290,10 +3507,13 @@
         <v/>
       </c>
       <c r="G88" s="16" t="str">
-        <f aca="true">IF(H88="", IF(I88="","",(INDIRECT("N" &amp; ROW() - 1) - M88)),IF(I88="", "", INDIRECT("N" &amp; ROW() - 1) - M88))</f>
-        <v/>
-      </c>
-      <c r="H88" s="16"/>
+        <f aca="true">IF(H88="", IF(I88="","",(INDIRECT("M" &amp; ROW() - 1) - M88)),IF(I88="", "", INDIRECT("M" &amp; ROW() - 1) - M88))</f>
+        <v/>
+      </c>
+      <c r="H88" s="16" t="str">
+        <f aca="false">IF(D88="", "", IF(I88="-", "", E88 * IF(F88="",1,F88)))</f>
+        <v/>
+      </c>
       <c r="J88" s="9" t="n">
         <f aca="true">IF(I88 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E88 * F88)</f>
         <v>0</v>
@@ -3321,10 +3541,13 @@
         <v/>
       </c>
       <c r="G89" s="16" t="str">
-        <f aca="true">IF(H89="", IF(I89="","",(INDIRECT("N" &amp; ROW() - 1) - M89)),IF(I89="", "", INDIRECT("N" &amp; ROW() - 1) - M89))</f>
-        <v/>
-      </c>
-      <c r="H89" s="16"/>
+        <f aca="true">IF(H89="", IF(I89="","",(INDIRECT("M" &amp; ROW() - 1) - M89)),IF(I89="", "", INDIRECT("M" &amp; ROW() - 1) - M89))</f>
+        <v/>
+      </c>
+      <c r="H89" s="16" t="str">
+        <f aca="false">IF(D89="", "", IF(I89="-", "", E89 * IF(F89="",1,F89)))</f>
+        <v/>
+      </c>
       <c r="J89" s="9" t="n">
         <f aca="true">IF(I89 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E89 * F89)</f>
         <v>0</v>
@@ -3352,10 +3575,13 @@
         <v/>
       </c>
       <c r="G90" s="16" t="str">
-        <f aca="true">IF(H90="", IF(I90="","",(INDIRECT("N" &amp; ROW() - 1) - M90)),IF(I90="", "", INDIRECT("N" &amp; ROW() - 1) - M90))</f>
-        <v/>
-      </c>
-      <c r="H90" s="16"/>
+        <f aca="true">IF(H90="", IF(I90="","",(INDIRECT("M" &amp; ROW() - 1) - M90)),IF(I90="", "", INDIRECT("M" &amp; ROW() - 1) - M90))</f>
+        <v/>
+      </c>
+      <c r="H90" s="16" t="str">
+        <f aca="false">IF(D90="", "", IF(I90="-", "", E90 * IF(F90="",1,F90)))</f>
+        <v/>
+      </c>
       <c r="J90" s="9" t="n">
         <f aca="true">IF(I90 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E90 * F90)</f>
         <v>0</v>
@@ -3383,10 +3609,13 @@
         <v/>
       </c>
       <c r="G91" s="16" t="str">
-        <f aca="true">IF(H91="", IF(I91="","",(INDIRECT("N" &amp; ROW() - 1) - M91)),IF(I91="", "", INDIRECT("N" &amp; ROW() - 1) - M91))</f>
-        <v/>
-      </c>
-      <c r="H91" s="16"/>
+        <f aca="true">IF(H91="", IF(I91="","",(INDIRECT("M" &amp; ROW() - 1) - M91)),IF(I91="", "", INDIRECT("M" &amp; ROW() - 1) - M91))</f>
+        <v/>
+      </c>
+      <c r="H91" s="16" t="str">
+        <f aca="false">IF(D91="", "", IF(I91="-", "", E91 * IF(F91="",1,F91)))</f>
+        <v/>
+      </c>
       <c r="J91" s="9" t="n">
         <f aca="true">IF(I91 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E91 * F91)</f>
         <v>0</v>
@@ -3414,10 +3643,13 @@
         <v/>
       </c>
       <c r="G92" s="16" t="str">
-        <f aca="true">IF(H92="", IF(I92="","",(INDIRECT("N" &amp; ROW() - 1) - M92)),IF(I92="", "", INDIRECT("N" &amp; ROW() - 1) - M92))</f>
-        <v/>
-      </c>
-      <c r="H92" s="16"/>
+        <f aca="true">IF(H92="", IF(I92="","",(INDIRECT("M" &amp; ROW() - 1) - M92)),IF(I92="", "", INDIRECT("M" &amp; ROW() - 1) - M92))</f>
+        <v/>
+      </c>
+      <c r="H92" s="16" t="str">
+        <f aca="false">IF(D92="", "", IF(I92="-", "", E92 * IF(F92="",1,F92)))</f>
+        <v/>
+      </c>
       <c r="J92" s="9" t="n">
         <f aca="true">IF(I92 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E92 * F92)</f>
         <v>0</v>
@@ -3445,10 +3677,13 @@
         <v/>
       </c>
       <c r="G93" s="16" t="str">
-        <f aca="true">IF(H93="", IF(I93="","",(INDIRECT("N" &amp; ROW() - 1) - M93)),IF(I93="", "", INDIRECT("N" &amp; ROW() - 1) - M93))</f>
-        <v/>
-      </c>
-      <c r="H93" s="16"/>
+        <f aca="true">IF(H93="", IF(I93="","",(INDIRECT("M" &amp; ROW() - 1) - M93)),IF(I93="", "", INDIRECT("M" &amp; ROW() - 1) - M93))</f>
+        <v/>
+      </c>
+      <c r="H93" s="16" t="str">
+        <f aca="false">IF(D93="", "", IF(I93="-", "", E93 * IF(F93="",1,F93)))</f>
+        <v/>
+      </c>
       <c r="J93" s="9" t="n">
         <f aca="true">IF(I93 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E93 * F93)</f>
         <v>0</v>
@@ -3476,10 +3711,13 @@
         <v/>
       </c>
       <c r="G94" s="16" t="str">
-        <f aca="true">IF(H94="", IF(I94="","",(INDIRECT("N" &amp; ROW() - 1) - M94)),IF(I94="", "", INDIRECT("N" &amp; ROW() - 1) - M94))</f>
-        <v/>
-      </c>
-      <c r="H94" s="16"/>
+        <f aca="true">IF(H94="", IF(I94="","",(INDIRECT("M" &amp; ROW() - 1) - M94)),IF(I94="", "", INDIRECT("M" &amp; ROW() - 1) - M94))</f>
+        <v/>
+      </c>
+      <c r="H94" s="16" t="str">
+        <f aca="false">IF(D94="", "", IF(I94="-", "", E94 * IF(F94="",1,F94)))</f>
+        <v/>
+      </c>
       <c r="J94" s="9" t="n">
         <f aca="true">IF(I94 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E94 * F94)</f>
         <v>0</v>
@@ -3507,10 +3745,13 @@
         <v/>
       </c>
       <c r="G95" s="16" t="str">
-        <f aca="true">IF(H95="", IF(I95="","",(INDIRECT("N" &amp; ROW() - 1) - M95)),IF(I95="", "", INDIRECT("N" &amp; ROW() - 1) - M95))</f>
-        <v/>
-      </c>
-      <c r="H95" s="16"/>
+        <f aca="true">IF(H95="", IF(I95="","",(INDIRECT("M" &amp; ROW() - 1) - M95)),IF(I95="", "", INDIRECT("M" &amp; ROW() - 1) - M95))</f>
+        <v/>
+      </c>
+      <c r="H95" s="16" t="str">
+        <f aca="false">IF(D95="", "", IF(I95="-", "", E95 * IF(F95="",1,F95)))</f>
+        <v/>
+      </c>
       <c r="J95" s="9" t="n">
         <f aca="true">IF(I95 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E95 * F95)</f>
         <v>0</v>
@@ -3538,10 +3779,13 @@
         <v/>
       </c>
       <c r="G96" s="16" t="str">
-        <f aca="true">IF(H96="", IF(I96="","",(INDIRECT("N" &amp; ROW() - 1) - M96)),IF(I96="", "", INDIRECT("N" &amp; ROW() - 1) - M96))</f>
-        <v/>
-      </c>
-      <c r="H96" s="16"/>
+        <f aca="true">IF(H96="", IF(I96="","",(INDIRECT("M" &amp; ROW() - 1) - M96)),IF(I96="", "", INDIRECT("M" &amp; ROW() - 1) - M96))</f>
+        <v/>
+      </c>
+      <c r="H96" s="16" t="str">
+        <f aca="false">IF(D96="", "", IF(I96="-", "", E96 * IF(F96="",1,F96)))</f>
+        <v/>
+      </c>
       <c r="J96" s="9" t="n">
         <f aca="true">IF(I96 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E96 * F96)</f>
         <v>0</v>
@@ -3569,10 +3813,13 @@
         <v/>
       </c>
       <c r="G97" s="16" t="str">
-        <f aca="true">IF(H97="", IF(I97="","",(INDIRECT("N" &amp; ROW() - 1) - M97)),IF(I97="", "", INDIRECT("N" &amp; ROW() - 1) - M97))</f>
-        <v/>
-      </c>
-      <c r="H97" s="16"/>
+        <f aca="true">IF(H97="", IF(I97="","",(INDIRECT("M" &amp; ROW() - 1) - M97)),IF(I97="", "", INDIRECT("M" &amp; ROW() - 1) - M97))</f>
+        <v/>
+      </c>
+      <c r="H97" s="16" t="str">
+        <f aca="false">IF(D97="", "", IF(I97="-", "", E97 * IF(F97="",1,F97)))</f>
+        <v/>
+      </c>
       <c r="J97" s="9" t="n">
         <f aca="true">IF(I97 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E97 * F97)</f>
         <v>0</v>
@@ -3600,10 +3847,13 @@
         <v/>
       </c>
       <c r="G98" s="16" t="str">
-        <f aca="true">IF(H98="", IF(I98="","",(INDIRECT("N" &amp; ROW() - 1) - M98)),IF(I98="", "", INDIRECT("N" &amp; ROW() - 1) - M98))</f>
-        <v/>
-      </c>
-      <c r="H98" s="16"/>
+        <f aca="true">IF(H98="", IF(I98="","",(INDIRECT("M" &amp; ROW() - 1) - M98)),IF(I98="", "", INDIRECT("M" &amp; ROW() - 1) - M98))</f>
+        <v/>
+      </c>
+      <c r="H98" s="16" t="str">
+        <f aca="false">IF(D98="", "", IF(I98="-", "", E98 * IF(F98="",1,F98)))</f>
+        <v/>
+      </c>
       <c r="J98" s="9" t="n">
         <f aca="true">IF(I98 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E98 * F98)</f>
         <v>0</v>
@@ -3631,10 +3881,13 @@
         <v/>
       </c>
       <c r="G99" s="16" t="str">
-        <f aca="true">IF(H99="", IF(I99="","",(INDIRECT("N" &amp; ROW() - 1) - M99)),IF(I99="", "", INDIRECT("N" &amp; ROW() - 1) - M99))</f>
-        <v/>
-      </c>
-      <c r="H99" s="16"/>
+        <f aca="true">IF(H99="", IF(I99="","",(INDIRECT("M" &amp; ROW() - 1) - M99)),IF(I99="", "", INDIRECT("M" &amp; ROW() - 1) - M99))</f>
+        <v/>
+      </c>
+      <c r="H99" s="16" t="str">
+        <f aca="false">IF(D99="", "", IF(I99="-", "", E99 * IF(F99="",1,F99)))</f>
+        <v/>
+      </c>
       <c r="J99" s="9" t="n">
         <f aca="true">IF(I99 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E99 * F99)</f>
         <v>0</v>
@@ -3662,10 +3915,13 @@
         <v/>
       </c>
       <c r="G100" s="16" t="str">
-        <f aca="true">IF(H100="", IF(I100="","",(INDIRECT("N" &amp; ROW() - 1) - M100)),IF(I100="", "", INDIRECT("N" &amp; ROW() - 1) - M100))</f>
-        <v/>
-      </c>
-      <c r="H100" s="16"/>
+        <f aca="true">IF(H100="", IF(I100="","",(INDIRECT("M" &amp; ROW() - 1) - M100)),IF(I100="", "", INDIRECT("M" &amp; ROW() - 1) - M100))</f>
+        <v/>
+      </c>
+      <c r="H100" s="16" t="str">
+        <f aca="false">IF(D100="", "", IF(I100="-", "", E100 * IF(F100="",1,F100)))</f>
+        <v/>
+      </c>
       <c r="J100" s="9" t="n">
         <f aca="true">IF(I100 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E100 * F100)</f>
         <v>0</v>
@@ -3693,10 +3949,13 @@
         <v/>
       </c>
       <c r="G101" s="16" t="str">
-        <f aca="true">IF(H101="", IF(I101="","",(INDIRECT("N" &amp; ROW() - 1) - M101)),IF(I101="", "", INDIRECT("N" &amp; ROW() - 1) - M101))</f>
-        <v/>
-      </c>
-      <c r="H101" s="16"/>
+        <f aca="true">IF(H101="", IF(I101="","",(INDIRECT("M" &amp; ROW() - 1) - M101)),IF(I101="", "", INDIRECT("M" &amp; ROW() - 1) - M101))</f>
+        <v/>
+      </c>
+      <c r="H101" s="16" t="str">
+        <f aca="false">IF(D101="", "", IF(I101="-", "", E101 * IF(F101="",1,F101)))</f>
+        <v/>
+      </c>
       <c r="J101" s="9" t="n">
         <f aca="true">IF(I101 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E101 * F101)</f>
         <v>0</v>
@@ -3724,10 +3983,13 @@
         <v/>
       </c>
       <c r="G102" s="16" t="str">
-        <f aca="true">IF(H102="", IF(I102="","",(INDIRECT("N" &amp; ROW() - 1) - M102)),IF(I102="", "", INDIRECT("N" &amp; ROW() - 1) - M102))</f>
-        <v/>
-      </c>
-      <c r="H102" s="16"/>
+        <f aca="true">IF(H102="", IF(I102="","",(INDIRECT("M" &amp; ROW() - 1) - M102)),IF(I102="", "", INDIRECT("M" &amp; ROW() - 1) - M102))</f>
+        <v/>
+      </c>
+      <c r="H102" s="16" t="str">
+        <f aca="false">IF(D102="", "", IF(I102="-", "", E102 * IF(F102="",1,F102)))</f>
+        <v/>
+      </c>
       <c r="J102" s="9" t="n">
         <f aca="true">IF(I102 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E102 * F102)</f>
         <v>0</v>
@@ -3755,10 +4017,13 @@
         <v/>
       </c>
       <c r="G103" s="16" t="str">
-        <f aca="true">IF(H103="", IF(I103="","",(INDIRECT("N" &amp; ROW() - 1) - M103)),IF(I103="", "", INDIRECT("N" &amp; ROW() - 1) - M103))</f>
-        <v/>
-      </c>
-      <c r="H103" s="16"/>
+        <f aca="true">IF(H103="", IF(I103="","",(INDIRECT("M" &amp; ROW() - 1) - M103)),IF(I103="", "", INDIRECT("M" &amp; ROW() - 1) - M103))</f>
+        <v/>
+      </c>
+      <c r="H103" s="16" t="str">
+        <f aca="false">IF(D103="", "", IF(I103="-", "", E103 * IF(F103="",1,F103)))</f>
+        <v/>
+      </c>
       <c r="J103" s="9" t="n">
         <f aca="true">IF(I103 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E103 * F103)</f>
         <v>0</v>
@@ -3786,10 +4051,13 @@
         <v/>
       </c>
       <c r="G104" s="16" t="str">
-        <f aca="true">IF(H104="", IF(I104="","",(INDIRECT("N" &amp; ROW() - 1) - M104)),IF(I104="", "", INDIRECT("N" &amp; ROW() - 1) - M104))</f>
-        <v/>
-      </c>
-      <c r="H104" s="16"/>
+        <f aca="true">IF(H104="", IF(I104="","",(INDIRECT("M" &amp; ROW() - 1) - M104)),IF(I104="", "", INDIRECT("M" &amp; ROW() - 1) - M104))</f>
+        <v/>
+      </c>
+      <c r="H104" s="16" t="str">
+        <f aca="false">IF(D104="", "", IF(I104="-", "", E104 * IF(F104="",1,F104)))</f>
+        <v/>
+      </c>
       <c r="J104" s="9" t="n">
         <f aca="true">IF(I104 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E104 * F104)</f>
         <v>0</v>
@@ -3817,10 +4085,13 @@
         <v/>
       </c>
       <c r="G105" s="16" t="str">
-        <f aca="true">IF(H105="", IF(I105="","",(INDIRECT("N" &amp; ROW() - 1) - M105)),IF(I105="", "", INDIRECT("N" &amp; ROW() - 1) - M105))</f>
-        <v/>
-      </c>
-      <c r="H105" s="16"/>
+        <f aca="true">IF(H105="", IF(I105="","",(INDIRECT("M" &amp; ROW() - 1) - M105)),IF(I105="", "", INDIRECT("M" &amp; ROW() - 1) - M105))</f>
+        <v/>
+      </c>
+      <c r="H105" s="16" t="str">
+        <f aca="false">IF(D105="", "", IF(I105="-", "", E105 * IF(F105="",1,F105)))</f>
+        <v/>
+      </c>
       <c r="J105" s="9" t="n">
         <f aca="true">IF(I105 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E105 * F105)</f>
         <v>0</v>
@@ -3848,10 +4119,13 @@
         <v/>
       </c>
       <c r="G106" s="16" t="str">
-        <f aca="true">IF(H106="", IF(I106="","",(INDIRECT("N" &amp; ROW() - 1) - M106)),IF(I106="", "", INDIRECT("N" &amp; ROW() - 1) - M106))</f>
-        <v/>
-      </c>
-      <c r="H106" s="16"/>
+        <f aca="true">IF(H106="", IF(I106="","",(INDIRECT("M" &amp; ROW() - 1) - M106)),IF(I106="", "", INDIRECT("M" &amp; ROW() - 1) - M106))</f>
+        <v/>
+      </c>
+      <c r="H106" s="16" t="str">
+        <f aca="false">IF(D106="", "", IF(I106="-", "", E106 * IF(F106="",1,F106)))</f>
+        <v/>
+      </c>
       <c r="J106" s="9" t="n">
         <f aca="true">IF(I106 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E106 * F106)</f>
         <v>0</v>
@@ -3879,10 +4153,13 @@
         <v/>
       </c>
       <c r="G107" s="16" t="str">
-        <f aca="true">IF(H107="", IF(I107="","",(INDIRECT("N" &amp; ROW() - 1) - M107)),IF(I107="", "", INDIRECT("N" &amp; ROW() - 1) - M107))</f>
-        <v/>
-      </c>
-      <c r="H107" s="16"/>
+        <f aca="true">IF(H107="", IF(I107="","",(INDIRECT("M" &amp; ROW() - 1) - M107)),IF(I107="", "", INDIRECT("M" &amp; ROW() - 1) - M107))</f>
+        <v/>
+      </c>
+      <c r="H107" s="16" t="str">
+        <f aca="false">IF(D107="", "", IF(I107="-", "", E107 * IF(F107="",1,F107)))</f>
+        <v/>
+      </c>
       <c r="J107" s="9" t="n">
         <f aca="true">IF(I107 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E107 * F107)</f>
         <v>0</v>
@@ -3910,10 +4187,13 @@
         <v/>
       </c>
       <c r="G108" s="16" t="str">
-        <f aca="true">IF(H108="", IF(I108="","",(INDIRECT("N" &amp; ROW() - 1) - M108)),IF(I108="", "", INDIRECT("N" &amp; ROW() - 1) - M108))</f>
-        <v/>
-      </c>
-      <c r="H108" s="16"/>
+        <f aca="true">IF(H108="", IF(I108="","",(INDIRECT("M" &amp; ROW() - 1) - M108)),IF(I108="", "", INDIRECT("M" &amp; ROW() - 1) - M108))</f>
+        <v/>
+      </c>
+      <c r="H108" s="16" t="str">
+        <f aca="false">IF(D108="", "", IF(I108="-", "", E108 * IF(F108="",1,F108)))</f>
+        <v/>
+      </c>
       <c r="J108" s="9" t="n">
         <f aca="true">IF(I108 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E108 * F108)</f>
         <v>0</v>
@@ -3941,10 +4221,13 @@
         <v/>
       </c>
       <c r="G109" s="16" t="str">
-        <f aca="true">IF(H109="", IF(I109="","",(INDIRECT("N" &amp; ROW() - 1) - M109)),IF(I109="", "", INDIRECT("N" &amp; ROW() - 1) - M109))</f>
-        <v/>
-      </c>
-      <c r="H109" s="16"/>
+        <f aca="true">IF(H109="", IF(I109="","",(INDIRECT("M" &amp; ROW() - 1) - M109)),IF(I109="", "", INDIRECT("M" &amp; ROW() - 1) - M109))</f>
+        <v/>
+      </c>
+      <c r="H109" s="16" t="str">
+        <f aca="false">IF(D109="", "", IF(I109="-", "", E109 * IF(F109="",1,F109)))</f>
+        <v/>
+      </c>
       <c r="J109" s="9" t="n">
         <f aca="true">IF(I109 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E109 * F109)</f>
         <v>0</v>
@@ -3972,10 +4255,13 @@
         <v/>
       </c>
       <c r="G110" s="16" t="str">
-        <f aca="true">IF(H110="", IF(I110="","",(INDIRECT("N" &amp; ROW() - 1) - M110)),IF(I110="", "", INDIRECT("N" &amp; ROW() - 1) - M110))</f>
-        <v/>
-      </c>
-      <c r="H110" s="16"/>
+        <f aca="true">IF(H110="", IF(I110="","",(INDIRECT("M" &amp; ROW() - 1) - M110)),IF(I110="", "", INDIRECT("M" &amp; ROW() - 1) - M110))</f>
+        <v/>
+      </c>
+      <c r="H110" s="16" t="str">
+        <f aca="false">IF(D110="", "", IF(I110="-", "", E110 * IF(F110="",1,F110)))</f>
+        <v/>
+      </c>
       <c r="J110" s="9" t="n">
         <f aca="true">IF(I110 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E110 * F110)</f>
         <v>0</v>
@@ -4003,10 +4289,13 @@
         <v/>
       </c>
       <c r="G111" s="16" t="str">
-        <f aca="true">IF(H111="", IF(I111="","",(INDIRECT("N" &amp; ROW() - 1) - M111)),IF(I111="", "", INDIRECT("N" &amp; ROW() - 1) - M111))</f>
-        <v/>
-      </c>
-      <c r="H111" s="16"/>
+        <f aca="true">IF(H111="", IF(I111="","",(INDIRECT("M" &amp; ROW() - 1) - M111)),IF(I111="", "", INDIRECT("M" &amp; ROW() - 1) - M111))</f>
+        <v/>
+      </c>
+      <c r="H111" s="16" t="str">
+        <f aca="false">IF(D111="", "", IF(I111="-", "", E111 * IF(F111="",1,F111)))</f>
+        <v/>
+      </c>
       <c r="J111" s="9" t="n">
         <f aca="true">IF(I111 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E111 * F111)</f>
         <v>0</v>
@@ -4034,10 +4323,13 @@
         <v/>
       </c>
       <c r="G112" s="16" t="str">
-        <f aca="true">IF(H112="", IF(I112="","",(INDIRECT("N" &amp; ROW() - 1) - M112)),IF(I112="", "", INDIRECT("N" &amp; ROW() - 1) - M112))</f>
-        <v/>
-      </c>
-      <c r="H112" s="16"/>
+        <f aca="true">IF(H112="", IF(I112="","",(INDIRECT("M" &amp; ROW() - 1) - M112)),IF(I112="", "", INDIRECT("M" &amp; ROW() - 1) - M112))</f>
+        <v/>
+      </c>
+      <c r="H112" s="16" t="str">
+        <f aca="false">IF(D112="", "", IF(I112="-", "", E112 * IF(F112="",1,F112)))</f>
+        <v/>
+      </c>
       <c r="J112" s="9" t="n">
         <f aca="true">IF(I112 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E112 * F112)</f>
         <v>0</v>
@@ -4065,10 +4357,13 @@
         <v/>
       </c>
       <c r="G113" s="16" t="str">
-        <f aca="true">IF(H113="", IF(I113="","",(INDIRECT("N" &amp; ROW() - 1) - M113)),IF(I113="", "", INDIRECT("N" &amp; ROW() - 1) - M113))</f>
-        <v/>
-      </c>
-      <c r="H113" s="16"/>
+        <f aca="true">IF(H113="", IF(I113="","",(INDIRECT("M" &amp; ROW() - 1) - M113)),IF(I113="", "", INDIRECT("M" &amp; ROW() - 1) - M113))</f>
+        <v/>
+      </c>
+      <c r="H113" s="16" t="str">
+        <f aca="false">IF(D113="", "", IF(I113="-", "", E113 * IF(F113="",1,F113)))</f>
+        <v/>
+      </c>
       <c r="J113" s="9" t="n">
         <f aca="true">IF(I113 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E113 * F113)</f>
         <v>0</v>
@@ -4096,10 +4391,13 @@
         <v/>
       </c>
       <c r="G114" s="16" t="str">
-        <f aca="true">IF(H114="", IF(I114="","",(INDIRECT("N" &amp; ROW() - 1) - M114)),IF(I114="", "", INDIRECT("N" &amp; ROW() - 1) - M114))</f>
-        <v/>
-      </c>
-      <c r="H114" s="16"/>
+        <f aca="true">IF(H114="", IF(I114="","",(INDIRECT("M" &amp; ROW() - 1) - M114)),IF(I114="", "", INDIRECT("M" &amp; ROW() - 1) - M114))</f>
+        <v/>
+      </c>
+      <c r="H114" s="16" t="str">
+        <f aca="false">IF(D114="", "", IF(I114="-", "", E114 * IF(F114="",1,F114)))</f>
+        <v/>
+      </c>
       <c r="J114" s="9" t="n">
         <f aca="true">IF(I114 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E114 * F114)</f>
         <v>0</v>
@@ -4127,10 +4425,13 @@
         <v/>
       </c>
       <c r="G115" s="16" t="str">
-        <f aca="true">IF(H115="", IF(I115="","",(INDIRECT("N" &amp; ROW() - 1) - M115)),IF(I115="", "", INDIRECT("N" &amp; ROW() - 1) - M115))</f>
-        <v/>
-      </c>
-      <c r="H115" s="16"/>
+        <f aca="true">IF(H115="", IF(I115="","",(INDIRECT("M" &amp; ROW() - 1) - M115)),IF(I115="", "", INDIRECT("M" &amp; ROW() - 1) - M115))</f>
+        <v/>
+      </c>
+      <c r="H115" s="16" t="str">
+        <f aca="false">IF(D115="", "", IF(I115="-", "", E115 * IF(F115="",1,F115)))</f>
+        <v/>
+      </c>
       <c r="J115" s="9" t="n">
         <f aca="true">IF(I115 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E115 * F115)</f>
         <v>0</v>
@@ -4158,10 +4459,13 @@
         <v/>
       </c>
       <c r="G116" s="16" t="str">
-        <f aca="true">IF(H116="", IF(I116="","",(INDIRECT("N" &amp; ROW() - 1) - M116)),IF(I116="", "", INDIRECT("N" &amp; ROW() - 1) - M116))</f>
-        <v/>
-      </c>
-      <c r="H116" s="16"/>
+        <f aca="true">IF(H116="", IF(I116="","",(INDIRECT("M" &amp; ROW() - 1) - M116)),IF(I116="", "", INDIRECT("M" &amp; ROW() - 1) - M116))</f>
+        <v/>
+      </c>
+      <c r="H116" s="16" t="str">
+        <f aca="false">IF(D116="", "", IF(I116="-", "", E116 * IF(F116="",1,F116)))</f>
+        <v/>
+      </c>
       <c r="J116" s="9" t="n">
         <f aca="true">IF(I116 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E116 * F116)</f>
         <v>0</v>
@@ -4189,10 +4493,13 @@
         <v/>
       </c>
       <c r="G117" s="16" t="str">
-        <f aca="true">IF(H117="", IF(I117="","",(INDIRECT("N" &amp; ROW() - 1) - M117)),IF(I117="", "", INDIRECT("N" &amp; ROW() - 1) - M117))</f>
-        <v/>
-      </c>
-      <c r="H117" s="16"/>
+        <f aca="true">IF(H117="", IF(I117="","",(INDIRECT("M" &amp; ROW() - 1) - M117)),IF(I117="", "", INDIRECT("M" &amp; ROW() - 1) - M117))</f>
+        <v/>
+      </c>
+      <c r="H117" s="16" t="str">
+        <f aca="false">IF(D117="", "", IF(I117="-", "", E117 * IF(F117="",1,F117)))</f>
+        <v/>
+      </c>
       <c r="J117" s="9" t="n">
         <f aca="true">IF(I117 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E117 * F117)</f>
         <v>0</v>
@@ -4220,10 +4527,13 @@
         <v/>
       </c>
       <c r="G118" s="16" t="str">
-        <f aca="true">IF(H118="", IF(I118="","",(INDIRECT("N" &amp; ROW() - 1) - M118)),IF(I118="", "", INDIRECT("N" &amp; ROW() - 1) - M118))</f>
-        <v/>
-      </c>
-      <c r="H118" s="16"/>
+        <f aca="true">IF(H118="", IF(I118="","",(INDIRECT("M" &amp; ROW() - 1) - M118)),IF(I118="", "", INDIRECT("M" &amp; ROW() - 1) - M118))</f>
+        <v/>
+      </c>
+      <c r="H118" s="16" t="str">
+        <f aca="false">IF(D118="", "", IF(I118="-", "", E118 * IF(F118="",1,F118)))</f>
+        <v/>
+      </c>
       <c r="J118" s="9" t="n">
         <f aca="true">IF(I118 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E118 * F118)</f>
         <v>0</v>
@@ -4251,10 +4561,13 @@
         <v/>
       </c>
       <c r="G119" s="16" t="str">
-        <f aca="true">IF(H119="", IF(I119="","",(INDIRECT("N" &amp; ROW() - 1) - M119)),IF(I119="", "", INDIRECT("N" &amp; ROW() - 1) - M119))</f>
-        <v/>
-      </c>
-      <c r="H119" s="16"/>
+        <f aca="true">IF(H119="", IF(I119="","",(INDIRECT("M" &amp; ROW() - 1) - M119)),IF(I119="", "", INDIRECT("M" &amp; ROW() - 1) - M119))</f>
+        <v/>
+      </c>
+      <c r="H119" s="16" t="str">
+        <f aca="false">IF(D119="", "", IF(I119="-", "", E119 * IF(F119="",1,F119)))</f>
+        <v/>
+      </c>
       <c r="J119" s="9" t="n">
         <f aca="true">IF(I119 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E119 * F119)</f>
         <v>0</v>
@@ -4282,10 +4595,13 @@
         <v/>
       </c>
       <c r="G120" s="16" t="str">
-        <f aca="true">IF(H120="", IF(I120="","",(INDIRECT("N" &amp; ROW() - 1) - M120)),IF(I120="", "", INDIRECT("N" &amp; ROW() - 1) - M120))</f>
-        <v/>
-      </c>
-      <c r="H120" s="16"/>
+        <f aca="true">IF(H120="", IF(I120="","",(INDIRECT("M" &amp; ROW() - 1) - M120)),IF(I120="", "", INDIRECT("M" &amp; ROW() - 1) - M120))</f>
+        <v/>
+      </c>
+      <c r="H120" s="16" t="str">
+        <f aca="false">IF(D120="", "", IF(I120="-", "", E120 * IF(F120="",1,F120)))</f>
+        <v/>
+      </c>
       <c r="J120" s="9" t="n">
         <f aca="true">IF(I120 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E120 * F120)</f>
         <v>0</v>
@@ -4313,10 +4629,13 @@
         <v/>
       </c>
       <c r="G121" s="16" t="str">
-        <f aca="true">IF(H121="", IF(I121="","",(INDIRECT("N" &amp; ROW() - 1) - M121)),IF(I121="", "", INDIRECT("N" &amp; ROW() - 1) - M121))</f>
-        <v/>
-      </c>
-      <c r="H121" s="16"/>
+        <f aca="true">IF(H121="", IF(I121="","",(INDIRECT("M" &amp; ROW() - 1) - M121)),IF(I121="", "", INDIRECT("M" &amp; ROW() - 1) - M121))</f>
+        <v/>
+      </c>
+      <c r="H121" s="16" t="str">
+        <f aca="false">IF(D121="", "", IF(I121="-", "", E121 * IF(F121="",1,F121)))</f>
+        <v/>
+      </c>
       <c r="J121" s="9" t="n">
         <f aca="true">IF(I121 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E121 * F121)</f>
         <v>0</v>
@@ -4344,10 +4663,13 @@
         <v/>
       </c>
       <c r="G122" s="16" t="str">
-        <f aca="true">IF(H122="", IF(I122="","",(INDIRECT("N" &amp; ROW() - 1) - M122)),IF(I122="", "", INDIRECT("N" &amp; ROW() - 1) - M122))</f>
-        <v/>
-      </c>
-      <c r="H122" s="16"/>
+        <f aca="true">IF(H122="", IF(I122="","",(INDIRECT("M" &amp; ROW() - 1) - M122)),IF(I122="", "", INDIRECT("M" &amp; ROW() - 1) - M122))</f>
+        <v/>
+      </c>
+      <c r="H122" s="16" t="str">
+        <f aca="false">IF(D122="", "", IF(I122="-", "", E122 * IF(F122="",1,F122)))</f>
+        <v/>
+      </c>
       <c r="J122" s="9" t="n">
         <f aca="true">IF(I122 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E122 * F122)</f>
         <v>0</v>
@@ -4372,10 +4694,13 @@
         <v/>
       </c>
       <c r="G123" s="16" t="str">
-        <f aca="true">IF(H123="", IF(I123="","",(INDIRECT("N" &amp; ROW() - 1) - M123)),IF(I123="", "", INDIRECT("N" &amp; ROW() - 1) - M123))</f>
-        <v/>
-      </c>
-      <c r="H123" s="16"/>
+        <f aca="true">IF(H123="", IF(I123="","",(INDIRECT("M" &amp; ROW() - 1) - M123)),IF(I123="", "", INDIRECT("M" &amp; ROW() - 1) - M123))</f>
+        <v/>
+      </c>
+      <c r="H123" s="16" t="str">
+        <f aca="false">IF(D123="", "", IF(I123="-", "", E123 * IF(F123="",1,F123)))</f>
+        <v/>
+      </c>
       <c r="J123" s="9" t="n">
         <f aca="true">IF(I123 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E123 * F123)</f>
         <v>0</v>
@@ -4399,6 +4724,10 @@
         <f aca="false">IF(D124="","",VLOOKUP(D124,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G124" s="16" t="str">
+        <f aca="true">IF(H124="", IF(I124="","",(INDIRECT("M" &amp; ROW() - 1) - M124)),IF(I124="", "", INDIRECT("M" &amp; ROW() - 1) - M124))</f>
+        <v/>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="15"/>
@@ -4406,6 +4735,10 @@
         <f aca="false">IF(D125="","",VLOOKUP(D125,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G125" s="16" t="str">
+        <f aca="true">IF(H125="", IF(I125="","",(INDIRECT("M" &amp; ROW() - 1) - M125)),IF(I125="", "", INDIRECT("M" &amp; ROW() - 1) - M125))</f>
+        <v/>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="15"/>
@@ -4413,6 +4746,10 @@
         <f aca="false">IF(D126="","",VLOOKUP(D126,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G126" s="16" t="str">
+        <f aca="true">IF(H126="", IF(I126="","",(INDIRECT("M" &amp; ROW() - 1) - M126)),IF(I126="", "", INDIRECT("M" &amp; ROW() - 1) - M126))</f>
+        <v/>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="15"/>
@@ -4420,6 +4757,10 @@
         <f aca="false">IF(D127="","",VLOOKUP(D127,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G127" s="16" t="str">
+        <f aca="true">IF(H127="", IF(I127="","",(INDIRECT("M" &amp; ROW() - 1) - M127)),IF(I127="", "", INDIRECT("M" &amp; ROW() - 1) - M127))</f>
+        <v/>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="15"/>
@@ -4427,6 +4768,10 @@
         <f aca="false">IF(D128="","",VLOOKUP(D128,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G128" s="16" t="str">
+        <f aca="true">IF(H128="", IF(I128="","",(INDIRECT("M" &amp; ROW() - 1) - M128)),IF(I128="", "", INDIRECT("M" &amp; ROW() - 1) - M128))</f>
+        <v/>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="15"/>
@@ -4434,6 +4779,10 @@
         <f aca="false">IF(D129="","",VLOOKUP(D129,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G129" s="16" t="str">
+        <f aca="true">IF(H129="", IF(I129="","",(INDIRECT("M" &amp; ROW() - 1) - M129)),IF(I129="", "", INDIRECT("M" &amp; ROW() - 1) - M129))</f>
+        <v/>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="15"/>
@@ -4441,6 +4790,10 @@
         <f aca="false">IF(D130="","",VLOOKUP(D130,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G130" s="16" t="str">
+        <f aca="true">IF(H130="", IF(I130="","",(INDIRECT("M" &amp; ROW() - 1) - M130)),IF(I130="", "", INDIRECT("M" &amp; ROW() - 1) - M130))</f>
+        <v/>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="15"/>
@@ -4448,6 +4801,10 @@
         <f aca="false">IF(D131="","",VLOOKUP(D131,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G131" s="16" t="str">
+        <f aca="true">IF(H131="", IF(I131="","",(INDIRECT("M" &amp; ROW() - 1) - M131)),IF(I131="", "", INDIRECT("M" &amp; ROW() - 1) - M131))</f>
+        <v/>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="15"/>
@@ -4455,6 +4812,10 @@
         <f aca="false">IF(D132="","",VLOOKUP(D132,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G132" s="16" t="str">
+        <f aca="true">IF(H132="", IF(I132="","",(INDIRECT("M" &amp; ROW() - 1) - M132)),IF(I132="", "", INDIRECT("M" &amp; ROW() - 1) - M132))</f>
+        <v/>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="15"/>
@@ -4462,6 +4823,10 @@
         <f aca="false">IF(D133="","",VLOOKUP(D133,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G133" s="16" t="str">
+        <f aca="true">IF(H133="", IF(I133="","",(INDIRECT("M" &amp; ROW() - 1) - M133)),IF(I133="", "", INDIRECT("M" &amp; ROW() - 1) - M133))</f>
+        <v/>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="15"/>
@@ -4469,6 +4834,10 @@
         <f aca="false">IF(D134="","",VLOOKUP(D134,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G134" s="16" t="str">
+        <f aca="true">IF(H134="", IF(I134="","",(INDIRECT("M" &amp; ROW() - 1) - M134)),IF(I134="", "", INDIRECT("M" &amp; ROW() - 1) - M134))</f>
+        <v/>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="15"/>
@@ -4476,6 +4845,10 @@
         <f aca="false">IF(D135="","",VLOOKUP(D135,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G135" s="16" t="str">
+        <f aca="true">IF(H135="", IF(I135="","",(INDIRECT("M" &amp; ROW() - 1) - M135)),IF(I135="", "", INDIRECT("M" &amp; ROW() - 1) - M135))</f>
+        <v/>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="15"/>
@@ -4483,6 +4856,10 @@
         <f aca="false">IF(D136="","",VLOOKUP(D136,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G136" s="16" t="str">
+        <f aca="true">IF(H136="", IF(I136="","",(INDIRECT("M" &amp; ROW() - 1) - M136)),IF(I136="", "", INDIRECT("M" &amp; ROW() - 1) - M136))</f>
+        <v/>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="15"/>
@@ -4490,6 +4867,10 @@
         <f aca="false">IF(D137="","",VLOOKUP(D137,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G137" s="16" t="str">
+        <f aca="true">IF(H137="", IF(I137="","",(INDIRECT("M" &amp; ROW() - 1) - M137)),IF(I137="", "", INDIRECT("M" &amp; ROW() - 1) - M137))</f>
+        <v/>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="15"/>
@@ -4497,6 +4878,10 @@
         <f aca="false">IF(D138="","",VLOOKUP(D138,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G138" s="16" t="str">
+        <f aca="true">IF(H138="", IF(I138="","",(INDIRECT("M" &amp; ROW() - 1) - M138)),IF(I138="", "", INDIRECT("M" &amp; ROW() - 1) - M138))</f>
+        <v/>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="15"/>
@@ -4504,6 +4889,10 @@
         <f aca="false">IF(D139="","",VLOOKUP(D139,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G139" s="16" t="str">
+        <f aca="true">IF(H139="", IF(I139="","",(INDIRECT("M" &amp; ROW() - 1) - M139)),IF(I139="", "", INDIRECT("M" &amp; ROW() - 1) - M139))</f>
+        <v/>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="15"/>
@@ -4511,6 +4900,10 @@
         <f aca="false">IF(D140="","",VLOOKUP(D140,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G140" s="16" t="str">
+        <f aca="true">IF(H140="", IF(I140="","",(INDIRECT("M" &amp; ROW() - 1) - M140)),IF(I140="", "", INDIRECT("M" &amp; ROW() - 1) - M140))</f>
+        <v/>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="15"/>
@@ -4518,6 +4911,10 @@
         <f aca="false">IF(D141="","",VLOOKUP(D141,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G141" s="16" t="str">
+        <f aca="true">IF(H141="", IF(I141="","",(INDIRECT("M" &amp; ROW() - 1) - M141)),IF(I141="", "", INDIRECT("M" &amp; ROW() - 1) - M141))</f>
+        <v/>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="15"/>
@@ -4525,6 +4922,10 @@
         <f aca="false">IF(D142="","",VLOOKUP(D142,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G142" s="16" t="str">
+        <f aca="true">IF(H142="", IF(I142="","",(INDIRECT("M" &amp; ROW() - 1) - M142)),IF(I142="", "", INDIRECT("M" &amp; ROW() - 1) - M142))</f>
+        <v/>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="15"/>
@@ -4532,6 +4933,10 @@
         <f aca="false">IF(D143="","",VLOOKUP(D143,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G143" s="16" t="str">
+        <f aca="true">IF(H143="", IF(I143="","",(INDIRECT("M" &amp; ROW() - 1) - M143)),IF(I143="", "", INDIRECT("M" &amp; ROW() - 1) - M143))</f>
+        <v/>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="15"/>
@@ -4539,6 +4944,10 @@
         <f aca="false">IF(D144="","",VLOOKUP(D144,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G144" s="16" t="str">
+        <f aca="true">IF(H144="", IF(I144="","",(INDIRECT("M" &amp; ROW() - 1) - M144)),IF(I144="", "", INDIRECT("M" &amp; ROW() - 1) - M144))</f>
+        <v/>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="15"/>
@@ -4546,6 +4955,10 @@
         <f aca="false">IF(D145="","",VLOOKUP(D145,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G145" s="16" t="str">
+        <f aca="true">IF(H145="", IF(I145="","",(INDIRECT("M" &amp; ROW() - 1) - M145)),IF(I145="", "", INDIRECT("M" &amp; ROW() - 1) - M145))</f>
+        <v/>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="15"/>
@@ -4553,6 +4966,10 @@
         <f aca="false">IF(D146="","",VLOOKUP(D146,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G146" s="16" t="str">
+        <f aca="true">IF(H146="", IF(I146="","",(INDIRECT("M" &amp; ROW() - 1) - M146)),IF(I146="", "", INDIRECT("M" &amp; ROW() - 1) - M146))</f>
+        <v/>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="15"/>
@@ -4560,6 +4977,10 @@
         <f aca="false">IF(D147="","",VLOOKUP(D147,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G147" s="16" t="str">
+        <f aca="true">IF(H147="", IF(I147="","",(INDIRECT("M" &amp; ROW() - 1) - M147)),IF(I147="", "", INDIRECT("M" &amp; ROW() - 1) - M147))</f>
+        <v/>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="15"/>
@@ -4567,11 +4988,361 @@
         <f aca="false">IF(D148="","",VLOOKUP(D148,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
+      <c r="G148" s="16" t="str">
+        <f aca="true">IF(H148="", IF(I148="","",(INDIRECT("M" &amp; ROW() - 1) - M148)),IF(I148="", "", INDIRECT("M" &amp; ROW() - 1) - M148))</f>
+        <v/>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="15"/>
       <c r="C149" s="15" t="str">
         <f aca="false">IF(D149="","",VLOOKUP(D149,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G149" s="16" t="str">
+        <f aca="true">IF(H149="", IF(I149="","",(INDIRECT("M" &amp; ROW() - 1) - M149)),IF(I149="", "", INDIRECT("M" &amp; ROW() - 1) - M149))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G150" s="16" t="str">
+        <f aca="true">IF(H150="", IF(I150="","",(INDIRECT("M" &amp; ROW() - 1) - M150)),IF(I150="", "", INDIRECT("M" &amp; ROW() - 1) - M150))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G151" s="16" t="str">
+        <f aca="true">IF(H151="", IF(I151="","",(INDIRECT("M" &amp; ROW() - 1) - M151)),IF(I151="", "", INDIRECT("M" &amp; ROW() - 1) - M151))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G152" s="16" t="str">
+        <f aca="true">IF(H152="", IF(I152="","",(INDIRECT("M" &amp; ROW() - 1) - M152)),IF(I152="", "", INDIRECT("M" &amp; ROW() - 1) - M152))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G153" s="16" t="str">
+        <f aca="true">IF(H153="", IF(I153="","",(INDIRECT("M" &amp; ROW() - 1) - M153)),IF(I153="", "", INDIRECT("M" &amp; ROW() - 1) - M153))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G154" s="16" t="str">
+        <f aca="true">IF(H154="", IF(I154="","",(INDIRECT("M" &amp; ROW() - 1) - M154)),IF(I154="", "", INDIRECT("M" &amp; ROW() - 1) - M154))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G155" s="16" t="str">
+        <f aca="true">IF(H155="", IF(I155="","",(INDIRECT("M" &amp; ROW() - 1) - M155)),IF(I155="", "", INDIRECT("M" &amp; ROW() - 1) - M155))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G156" s="16" t="str">
+        <f aca="true">IF(H156="", IF(I156="","",(INDIRECT("M" &amp; ROW() - 1) - M156)),IF(I156="", "", INDIRECT("M" &amp; ROW() - 1) - M156))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G157" s="16" t="str">
+        <f aca="true">IF(H157="", IF(I157="","",(INDIRECT("M" &amp; ROW() - 1) - M157)),IF(I157="", "", INDIRECT("M" &amp; ROW() - 1) - M157))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G158" s="16" t="str">
+        <f aca="true">IF(H158="", IF(I158="","",(INDIRECT("M" &amp; ROW() - 1) - M158)),IF(I158="", "", INDIRECT("M" &amp; ROW() - 1) - M158))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G159" s="16" t="str">
+        <f aca="true">IF(H159="", IF(I159="","",(INDIRECT("M" &amp; ROW() - 1) - M159)),IF(I159="", "", INDIRECT("M" &amp; ROW() - 1) - M159))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G160" s="16" t="str">
+        <f aca="true">IF(H160="", IF(I160="","",(INDIRECT("M" &amp; ROW() - 1) - M160)),IF(I160="", "", INDIRECT("M" &amp; ROW() - 1) - M160))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G161" s="16" t="str">
+        <f aca="true">IF(H161="", IF(I161="","",(INDIRECT("M" &amp; ROW() - 1) - M161)),IF(I161="", "", INDIRECT("M" &amp; ROW() - 1) - M161))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="16" t="str">
+        <f aca="true">IF(H162="", IF(I162="","",(INDIRECT("M" &amp; ROW() - 1) - M162)),IF(I162="", "", INDIRECT("M" &amp; ROW() - 1) - M162))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G163" s="16" t="str">
+        <f aca="true">IF(H163="", IF(I163="","",(INDIRECT("M" &amp; ROW() - 1) - M163)),IF(I163="", "", INDIRECT("M" &amp; ROW() - 1) - M163))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G164" s="16" t="str">
+        <f aca="true">IF(H164="", IF(I164="","",(INDIRECT("M" &amp; ROW() - 1) - M164)),IF(I164="", "", INDIRECT("M" &amp; ROW() - 1) - M164))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G165" s="16" t="str">
+        <f aca="true">IF(H165="", IF(I165="","",(INDIRECT("M" &amp; ROW() - 1) - M165)),IF(I165="", "", INDIRECT("M" &amp; ROW() - 1) - M165))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G166" s="16" t="str">
+        <f aca="true">IF(H166="", IF(I166="","",(INDIRECT("M" &amp; ROW() - 1) - M166)),IF(I166="", "", INDIRECT("M" &amp; ROW() - 1) - M166))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G167" s="16" t="str">
+        <f aca="true">IF(H167="", IF(I167="","",(INDIRECT("M" &amp; ROW() - 1) - M167)),IF(I167="", "", INDIRECT("M" &amp; ROW() - 1) - M167))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G168" s="16" t="str">
+        <f aca="true">IF(H168="", IF(I168="","",(INDIRECT("M" &amp; ROW() - 1) - M168)),IF(I168="", "", INDIRECT("M" &amp; ROW() - 1) - M168))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G169" s="16" t="str">
+        <f aca="true">IF(H169="", IF(I169="","",(INDIRECT("M" &amp; ROW() - 1) - M169)),IF(I169="", "", INDIRECT("M" &amp; ROW() - 1) - M169))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G170" s="16" t="str">
+        <f aca="true">IF(H170="", IF(I170="","",(INDIRECT("M" &amp; ROW() - 1) - M170)),IF(I170="", "", INDIRECT("M" &amp; ROW() - 1) - M170))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G171" s="16" t="str">
+        <f aca="true">IF(H171="", IF(I171="","",(INDIRECT("M" &amp; ROW() - 1) - M171)),IF(I171="", "", INDIRECT("M" &amp; ROW() - 1) - M171))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G172" s="16" t="str">
+        <f aca="true">IF(H172="", IF(I172="","",(INDIRECT("M" &amp; ROW() - 1) - M172)),IF(I172="", "", INDIRECT("M" &amp; ROW() - 1) - M172))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G173" s="16" t="str">
+        <f aca="true">IF(H173="", IF(I173="","",(INDIRECT("M" &amp; ROW() - 1) - M173)),IF(I173="", "", INDIRECT("M" &amp; ROW() - 1) - M173))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G174" s="16" t="str">
+        <f aca="true">IF(H174="", IF(I174="","",(INDIRECT("M" &amp; ROW() - 1) - M174)),IF(I174="", "", INDIRECT("M" &amp; ROW() - 1) - M174))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G175" s="16" t="str">
+        <f aca="true">IF(H175="", IF(I175="","",(INDIRECT("M" &amp; ROW() - 1) - M175)),IF(I175="", "", INDIRECT("M" &amp; ROW() - 1) - M175))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G176" s="16" t="str">
+        <f aca="true">IF(H176="", IF(I176="","",(INDIRECT("M" &amp; ROW() - 1) - M176)),IF(I176="", "", INDIRECT("M" &amp; ROW() - 1) - M176))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G177" s="16" t="str">
+        <f aca="true">IF(H177="", IF(I177="","",(INDIRECT("M" &amp; ROW() - 1) - M177)),IF(I177="", "", INDIRECT("M" &amp; ROW() - 1) - M177))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G178" s="16" t="str">
+        <f aca="true">IF(H178="", IF(I178="","",(INDIRECT("M" &amp; ROW() - 1) - M178)),IF(I178="", "", INDIRECT("M" &amp; ROW() - 1) - M178))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G179" s="16" t="str">
+        <f aca="true">IF(H179="", IF(I179="","",(INDIRECT("M" &amp; ROW() - 1) - M179)),IF(I179="", "", INDIRECT("M" &amp; ROW() - 1) - M179))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G180" s="16" t="str">
+        <f aca="true">IF(H180="", IF(I180="","",(INDIRECT("M" &amp; ROW() - 1) - M180)),IF(I180="", "", INDIRECT("M" &amp; ROW() - 1) - M180))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G181" s="16" t="str">
+        <f aca="true">IF(H181="", IF(I181="","",(INDIRECT("M" &amp; ROW() - 1) - M181)),IF(I181="", "", INDIRECT("M" &amp; ROW() - 1) - M181))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G182" s="16" t="str">
+        <f aca="true">IF(H182="", IF(I182="","",(INDIRECT("M" &amp; ROW() - 1) - M182)),IF(I182="", "", INDIRECT("M" &amp; ROW() - 1) - M182))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G183" s="16" t="str">
+        <f aca="true">IF(H183="", IF(I183="","",(INDIRECT("M" &amp; ROW() - 1) - M183)),IF(I183="", "", INDIRECT("M" &amp; ROW() - 1) - M183))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G184" s="16" t="str">
+        <f aca="true">IF(H184="", IF(I184="","",(INDIRECT("M" &amp; ROW() - 1) - M184)),IF(I184="", "", INDIRECT("M" &amp; ROW() - 1) - M184))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G185" s="16" t="str">
+        <f aca="true">IF(H185="", IF(I185="","",(INDIRECT("M" &amp; ROW() - 1) - M185)),IF(I185="", "", INDIRECT("M" &amp; ROW() - 1) - M185))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G186" s="16" t="str">
+        <f aca="true">IF(H186="", IF(I186="","",(INDIRECT("M" &amp; ROW() - 1) - M186)),IF(I186="", "", INDIRECT("M" &amp; ROW() - 1) - M186))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G187" s="16" t="str">
+        <f aca="true">IF(H187="", IF(I187="","",(INDIRECT("M" &amp; ROW() - 1) - M187)),IF(I187="", "", INDIRECT("M" &amp; ROW() - 1) - M187))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G188" s="16" t="str">
+        <f aca="true">IF(H188="", IF(I188="","",(INDIRECT("M" &amp; ROW() - 1) - M188)),IF(I188="", "", INDIRECT("M" &amp; ROW() - 1) - M188))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G189" s="16" t="str">
+        <f aca="true">IF(H189="", IF(I189="","",(INDIRECT("M" &amp; ROW() - 1) - M189)),IF(I189="", "", INDIRECT("M" &amp; ROW() - 1) - M189))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G190" s="16" t="str">
+        <f aca="true">IF(H190="", IF(I190="","",(INDIRECT("M" &amp; ROW() - 1) - M190)),IF(I190="", "", INDIRECT("M" &amp; ROW() - 1) - M190))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G191" s="16" t="str">
+        <f aca="true">IF(H191="", IF(I191="","",(INDIRECT("M" &amp; ROW() - 1) - M191)),IF(I191="", "", INDIRECT("M" &amp; ROW() - 1) - M191))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G192" s="16" t="str">
+        <f aca="true">IF(H192="", IF(I192="","",(INDIRECT("M" &amp; ROW() - 1) - M192)),IF(I192="", "", INDIRECT("M" &amp; ROW() - 1) - M192))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G193" s="16" t="str">
+        <f aca="true">IF(H193="", IF(I193="","",(INDIRECT("M" &amp; ROW() - 1) - M193)),IF(I193="", "", INDIRECT("M" &amp; ROW() - 1) - M193))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G194" s="16" t="str">
+        <f aca="true">IF(H194="", IF(I194="","",(INDIRECT("M" &amp; ROW() - 1) - M194)),IF(I194="", "", INDIRECT("M" &amp; ROW() - 1) - M194))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G195" s="16" t="str">
+        <f aca="true">IF(H195="", IF(I195="","",(INDIRECT("M" &amp; ROW() - 1) - M195)),IF(I195="", "", INDIRECT("M" &amp; ROW() - 1) - M195))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G196" s="16" t="str">
+        <f aca="true">IF(H196="", IF(I196="","",(INDIRECT("M" &amp; ROW() - 1) - M196)),IF(I196="", "", INDIRECT("M" &amp; ROW() - 1) - M196))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G197" s="16" t="str">
+        <f aca="true">IF(H197="", IF(I197="","",(INDIRECT("M" &amp; ROW() - 1) - M197)),IF(I197="", "", INDIRECT("M" &amp; ROW() - 1) - M197))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G198" s="16" t="str">
+        <f aca="true">IF(H198="", IF(I198="","",(INDIRECT("M" &amp; ROW() - 1) - M198)),IF(I198="", "", INDIRECT("M" &amp; ROW() - 1) - M198))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G199" s="16" t="str">
+        <f aca="true">IF(H199="", IF(I199="","",(INDIRECT("M" &amp; ROW() - 1) - M199)),IF(I199="", "", INDIRECT("M" &amp; ROW() - 1) - M199))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G200" s="16" t="str">
+        <f aca="true">IF(H200="", IF(I200="","",(INDIRECT("M" &amp; ROW() - 1) - M200)),IF(I200="", "", INDIRECT("M" &amp; ROW() - 1) - M200))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G201" s="16" t="str">
+        <f aca="true">IF(H201="", IF(I201="","",(INDIRECT("M" &amp; ROW() - 1) - M201)),IF(I201="", "", INDIRECT("M" &amp; ROW() - 1) - M201))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G202" s="16" t="str">
+        <f aca="true">IF(H202="", IF(I202="","",(INDIRECT("M" &amp; ROW() - 1) - M202)),IF(I202="", "", INDIRECT("M" &amp; ROW() - 1) - M202))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G203" s="16" t="str">
+        <f aca="true">IF(H203="", IF(I203="","",(INDIRECT("M" &amp; ROW() - 1) - M203)),IF(I203="", "", INDIRECT("M" &amp; ROW() - 1) - M203))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G204" s="16" t="str">
+        <f aca="true">IF(H204="", IF(I204="","",(INDIRECT("M" &amp; ROW() - 1) - M204)),IF(I204="", "", INDIRECT("M" &amp; ROW() - 1) - M204))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G205" s="16" t="str">
+        <f aca="true">IF(H205="", IF(I205="","",(INDIRECT("M" &amp; ROW() - 1) - M205)),IF(I205="", "", INDIRECT("M" &amp; ROW() - 1) - M205))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G206" s="16" t="str">
+        <f aca="true">IF(H206="", IF(I206="","",(INDIRECT("M" &amp; ROW() - 1) - M206)),IF(I206="", "", INDIRECT("M" &amp; ROW() - 1) - M206))</f>
         <v/>
       </c>
     </row>
@@ -4586,151 +5357,18 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B123">
+  <conditionalFormatting sqref="G3:G206">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
+      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3)  &lt; - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
+      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3)  &gt;= - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3) &lt; 0)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G124:H1048576">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(H124="",0, G124)  &lt; - 0.05* IF(H124="",0,H124)</formula>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3)  &lt;= 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H124="",0, G124)  &gt;= - 0.05* IF(H124="",0,H124), IF(H124="",0, G124) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H124="",0, G124)  &lt;= 0.05* IF(H124="",0,H124), IF(H124="",0, G124) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>IF(H124="",0,G124)  &gt; 0.05* IF(H124="",0,H124)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B122">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B122">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H2">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>SUMIF(G3:G123,"&gt;0")-SUMIF(G3:G123,"&lt;0") &gt; 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H2">
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(H2="",0, G2)  &lt; - 0.05* IF(H2="",0,H2)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H2="",0, G2)  &gt;= - 0.05* IF(H2="",0,H2), IF(H2="",0, G2) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H2="",0, G2)  &lt;= 0.05* IF(H2="",0,H2), IF(H2="",0, G2) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>IF(H2="",0,G2)  &gt; 0.05* IF(H2="",0,H2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B122">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B122">
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B122">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B122">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B122">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B122">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H123">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(H3="",0, G3)  &lt; - 0.05* IF(H3="",0,H3)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H3="",0, G3)  &lt;= 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>IF(H3="",0,G3)  &gt; 0.05* IF(H3="",0,H3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H123">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(H3="",0, G3)  &lt; - 0.05* IF(H3="",0,H3)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H3="",0, G3)  &lt;= 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>IF(H3="",0,G3)  &gt; 0.05* IF(H3="",0,H3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H123">
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(H3="",0, G3)  &lt; - 0.05* IF(H3="",0,H3)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(H3="",0, G3)  &lt;= 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>IF(H3="",0,G3)  &gt; 0.05* IF(H3="",0,H3)</formula>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0,G3)  &gt; 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/app/data/static/templates/constructor_adygea.xlsx
+++ b/app/data/static/templates/constructor_adygea.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Нормативные остатки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неучтенные остатки</t>
   </si>
   <si>
     <t xml:space="preserve">План производства</t>
@@ -114,7 +117,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -143,6 +146,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="7"/>
@@ -227,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,6 +254,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,15 +281,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,15 +289,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,33 +453,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="17" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="18" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="9.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -485,32 +498,35 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O2" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -543,9 +559,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="9" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="10" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="4"/>
@@ -556,75 +572,75 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="H1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="14" t="n">
+      <c r="L2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="15" t="str">
+      <c r="B3" s="16" t="str">
         <f aca="false">IF(D3="","",VLOOKUP(D3,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C3" s="16" t="str">
         <f aca="false">IF(D3="","",VLOOKUP(D3,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G3" s="16" t="str">
+      <c r="G3" s="17" t="str">
         <f aca="true">IF(H3="", IF(I3="","",(INDIRECT("M" &amp; ROW() - 1) - M3)),IF(I3="", "", INDIRECT("M" &amp; ROW() - 1) - M3))</f>
         <v/>
       </c>
-      <c r="H3" s="16" t="str">
+      <c r="H3" s="17" t="str">
         <f aca="false">IF(D3="", "", IF(I3="-", "", E3 * IF(F3="",1,F3)))</f>
         <v/>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="10" t="n">
         <f aca="true">IF(I3 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E3 * F3)</f>
         <v>0</v>
       </c>
@@ -642,23 +658,23 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15" t="str">
+      <c r="B4" s="16" t="str">
         <f aca="false">IF(D4="","",VLOOKUP(D4,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="16" t="str">
         <f aca="false">IF(D4="","",VLOOKUP(D4,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G4" s="16" t="str">
+      <c r="G4" s="17" t="str">
         <f aca="true">IF(H4="", IF(I4="","",(INDIRECT("M" &amp; ROW() - 1) - M4)),IF(I4="", "", INDIRECT("M" &amp; ROW() - 1) - M4))</f>
         <v/>
       </c>
-      <c r="H4" s="16" t="str">
+      <c r="H4" s="17" t="str">
         <f aca="false">IF(D4="", "", IF(I4="-", "", E4 * IF(F4="",1,F4)))</f>
         <v/>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="10" t="n">
         <f aca="true">IF(I4 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E4 * F4)</f>
         <v>0</v>
       </c>
@@ -676,23 +692,23 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="15" t="str">
+      <c r="B5" s="16" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="16" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G5" s="16" t="str">
+      <c r="G5" s="17" t="str">
         <f aca="true">IF(H5="", IF(I5="","",(INDIRECT("M" &amp; ROW() - 1) - M5)),IF(I5="", "", INDIRECT("M" &amp; ROW() - 1) - M5))</f>
         <v/>
       </c>
-      <c r="H5" s="16" t="str">
+      <c r="H5" s="17" t="str">
         <f aca="false">IF(D5="", "", IF(I5="-", "", E5 * IF(F5="",1,F5)))</f>
         <v/>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="10" t="n">
         <f aca="true">IF(I5 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E5 * F5)</f>
         <v>0</v>
       </c>
@@ -710,23 +726,23 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15" t="str">
+      <c r="B6" s="16" t="str">
         <f aca="false">IF(D6="","",VLOOKUP(D6,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="16" t="str">
         <f aca="false">IF(D6="","",VLOOKUP(D6,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G6" s="16" t="str">
+      <c r="G6" s="17" t="str">
         <f aca="true">IF(H6="", IF(I6="","",(INDIRECT("M" &amp; ROW() - 1) - M6)),IF(I6="", "", INDIRECT("M" &amp; ROW() - 1) - M6))</f>
         <v/>
       </c>
-      <c r="H6" s="16" t="str">
+      <c r="H6" s="17" t="str">
         <f aca="false">IF(D6="", "", IF(I6="-", "", E6 * IF(F6="",1,F6)))</f>
         <v/>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="10" t="n">
         <f aca="true">IF(I6 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E6 * F6)</f>
         <v>0</v>
       </c>
@@ -744,23 +760,23 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="16" t="str">
         <f aca="false">IF(D7="","",VLOOKUP(D7,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="16" t="str">
         <f aca="false">IF(D7="","",VLOOKUP(D7,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="17" t="str">
         <f aca="true">IF(H7="", IF(I7="","",(INDIRECT("M" &amp; ROW() - 1) - M7)),IF(I7="", "", INDIRECT("M" &amp; ROW() - 1) - M7))</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="17" t="str">
         <f aca="false">IF(D7="", "", IF(I7="-", "", E7 * IF(F7="",1,F7)))</f>
         <v/>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="10" t="n">
         <f aca="true">IF(I7 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E7 * F7)</f>
         <v>0</v>
       </c>
@@ -778,23 +794,23 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="16" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="16" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="17" t="str">
         <f aca="true">IF(H8="", IF(I8="","",(INDIRECT("M" &amp; ROW() - 1) - M8)),IF(I8="", "", INDIRECT("M" &amp; ROW() - 1) - M8))</f>
         <v/>
       </c>
-      <c r="H8" s="16" t="str">
+      <c r="H8" s="17" t="str">
         <f aca="false">IF(D8="", "", IF(I8="-", "", E8 * IF(F8="",1,F8)))</f>
         <v/>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="10" t="n">
         <f aca="true">IF(I8 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E8 * F8)</f>
         <v>0</v>
       </c>
@@ -812,23 +828,23 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="16" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="16" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="17" t="str">
         <f aca="true">IF(H9="", IF(I9="","",(INDIRECT("M" &amp; ROW() - 1) - M9)),IF(I9="", "", INDIRECT("M" &amp; ROW() - 1) - M9))</f>
         <v/>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="17" t="str">
         <f aca="false">IF(D9="", "", IF(I9="-", "", E9 * IF(F9="",1,F9)))</f>
         <v/>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="10" t="n">
         <f aca="true">IF(I9 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E9 * F9)</f>
         <v>0</v>
       </c>
@@ -846,23 +862,23 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="16" t="str">
         <f aca="false">IF(D10="","",VLOOKUP(D10,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="16" t="str">
         <f aca="false">IF(D10="","",VLOOKUP(D10,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="17" t="str">
         <f aca="true">IF(H10="", IF(I10="","",(INDIRECT("M" &amp; ROW() - 1) - M10)),IF(I10="", "", INDIRECT("M" &amp; ROW() - 1) - M10))</f>
         <v/>
       </c>
-      <c r="H10" s="16" t="str">
+      <c r="H10" s="17" t="str">
         <f aca="false">IF(D10="", "", IF(I10="-", "", E10 * IF(F10="",1,F10)))</f>
         <v/>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="10" t="n">
         <f aca="true">IF(I10 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E10 * F10)</f>
         <v>0</v>
       </c>
@@ -880,23 +896,23 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="16" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="16" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="17" t="str">
         <f aca="true">IF(H11="", IF(I11="","",(INDIRECT("M" &amp; ROW() - 1) - M11)),IF(I11="", "", INDIRECT("M" &amp; ROW() - 1) - M11))</f>
         <v/>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="17" t="str">
         <f aca="false">IF(D11="", "", IF(I11="-", "", E11 * IF(F11="",1,F11)))</f>
         <v/>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="10" t="n">
         <f aca="true">IF(I11 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E11 * F11)</f>
         <v>0</v>
       </c>
@@ -914,23 +930,23 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="16" t="str">
         <f aca="false">IF(D12="","",VLOOKUP(D12,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="16" t="str">
         <f aca="false">IF(D12="","",VLOOKUP(D12,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="17" t="str">
         <f aca="true">IF(H12="", IF(I12="","",(INDIRECT("M" &amp; ROW() - 1) - M12)),IF(I12="", "", INDIRECT("M" &amp; ROW() - 1) - M12))</f>
         <v/>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="17" t="str">
         <f aca="false">IF(D12="", "", IF(I12="-", "", E12 * IF(F12="",1,F12)))</f>
         <v/>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="10" t="n">
         <f aca="true">IF(I12 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E12 * F12)</f>
         <v>0</v>
       </c>
@@ -948,23 +964,23 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="16" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="16" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="17" t="str">
         <f aca="true">IF(H13="", IF(I13="","",(INDIRECT("M" &amp; ROW() - 1) - M13)),IF(I13="", "", INDIRECT("M" &amp; ROW() - 1) - M13))</f>
         <v/>
       </c>
-      <c r="H13" s="16" t="str">
+      <c r="H13" s="17" t="str">
         <f aca="false">IF(D13="", "", IF(I13="-", "", E13 * IF(F13="",1,F13)))</f>
         <v/>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="10" t="n">
         <f aca="true">IF(I13 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E13 * F13)</f>
         <v>0</v>
       </c>
@@ -982,23 +998,23 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="16" t="str">
         <f aca="false">IF(D14="","",VLOOKUP(D14,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="16" t="str">
         <f aca="false">IF(D14="","",VLOOKUP(D14,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="17" t="str">
         <f aca="true">IF(H14="", IF(I14="","",(INDIRECT("M" &amp; ROW() - 1) - M14)),IF(I14="", "", INDIRECT("M" &amp; ROW() - 1) - M14))</f>
         <v/>
       </c>
-      <c r="H14" s="16" t="str">
+      <c r="H14" s="17" t="str">
         <f aca="false">IF(D14="", "", IF(I14="-", "", E14 * IF(F14="",1,F14)))</f>
         <v/>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J14" s="10" t="n">
         <f aca="true">IF(I14 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E14 * F14)</f>
         <v>0</v>
       </c>
@@ -1016,23 +1032,23 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="16" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="16" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="17" t="str">
         <f aca="true">IF(H15="", IF(I15="","",(INDIRECT("M" &amp; ROW() - 1) - M15)),IF(I15="", "", INDIRECT("M" &amp; ROW() - 1) - M15))</f>
         <v/>
       </c>
-      <c r="H15" s="16" t="str">
+      <c r="H15" s="17" t="str">
         <f aca="false">IF(D15="", "", IF(I15="-", "", E15 * IF(F15="",1,F15)))</f>
         <v/>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="10" t="n">
         <f aca="true">IF(I15 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E15 * F15)</f>
         <v>0</v>
       </c>
@@ -1050,23 +1066,23 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="16" t="str">
         <f aca="false">IF(D16="","",VLOOKUP(D16,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="16" t="str">
         <f aca="false">IF(D16="","",VLOOKUP(D16,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="17" t="str">
         <f aca="true">IF(H16="", IF(I16="","",(INDIRECT("M" &amp; ROW() - 1) - M16)),IF(I16="", "", INDIRECT("M" &amp; ROW() - 1) - M16))</f>
         <v/>
       </c>
-      <c r="H16" s="16" t="str">
+      <c r="H16" s="17" t="str">
         <f aca="false">IF(D16="", "", IF(I16="-", "", E16 * IF(F16="",1,F16)))</f>
         <v/>
       </c>
-      <c r="J16" s="9" t="n">
+      <c r="J16" s="10" t="n">
         <f aca="true">IF(I16 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E16 * F16)</f>
         <v>0</v>
       </c>
@@ -1084,23 +1100,23 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="16" t="str">
         <f aca="false">IF(D17="","",VLOOKUP(D17,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="16" t="str">
         <f aca="false">IF(D17="","",VLOOKUP(D17,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="17" t="str">
         <f aca="true">IF(H17="", IF(I17="","",(INDIRECT("M" &amp; ROW() - 1) - M17)),IF(I17="", "", INDIRECT("M" &amp; ROW() - 1) - M17))</f>
         <v/>
       </c>
-      <c r="H17" s="16" t="str">
+      <c r="H17" s="17" t="str">
         <f aca="false">IF(D17="", "", IF(I17="-", "", E17 * IF(F17="",1,F17)))</f>
         <v/>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J17" s="10" t="n">
         <f aca="true">IF(I17 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E17 * F17)</f>
         <v>0</v>
       </c>
@@ -1118,23 +1134,23 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="16" t="str">
         <f aca="false">IF(D18="","",VLOOKUP(D18,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="16" t="str">
         <f aca="false">IF(D18="","",VLOOKUP(D18,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="17" t="str">
         <f aca="true">IF(H18="", IF(I18="","",(INDIRECT("M" &amp; ROW() - 1) - M18)),IF(I18="", "", INDIRECT("M" &amp; ROW() - 1) - M18))</f>
         <v/>
       </c>
-      <c r="H18" s="16" t="str">
+      <c r="H18" s="17" t="str">
         <f aca="false">IF(D18="", "", IF(I18="-", "", E18 * IF(F18="",1,F18)))</f>
         <v/>
       </c>
-      <c r="J18" s="9" t="n">
+      <c r="J18" s="10" t="n">
         <f aca="true">IF(I18 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E18 * F18)</f>
         <v>0</v>
       </c>
@@ -1152,23 +1168,23 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="16" t="str">
         <f aca="false">IF(D19="","",VLOOKUP(D19,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="16" t="str">
         <f aca="false">IF(D19="","",VLOOKUP(D19,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="17" t="str">
         <f aca="true">IF(H19="", IF(I19="","",(INDIRECT("M" &amp; ROW() - 1) - M19)),IF(I19="", "", INDIRECT("M" &amp; ROW() - 1) - M19))</f>
         <v/>
       </c>
-      <c r="H19" s="16" t="str">
+      <c r="H19" s="17" t="str">
         <f aca="false">IF(D19="", "", IF(I19="-", "", E19 * IF(F19="",1,F19)))</f>
         <v/>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="10" t="n">
         <f aca="true">IF(I19 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E19 * F19)</f>
         <v>0</v>
       </c>
@@ -1186,23 +1202,23 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="16" t="str">
         <f aca="false">IF(D20="","",VLOOKUP(D20,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="16" t="str">
         <f aca="false">IF(D20="","",VLOOKUP(D20,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="17" t="str">
         <f aca="true">IF(H20="", IF(I20="","",(INDIRECT("M" &amp; ROW() - 1) - M20)),IF(I20="", "", INDIRECT("M" &amp; ROW() - 1) - M20))</f>
         <v/>
       </c>
-      <c r="H20" s="16" t="str">
+      <c r="H20" s="17" t="str">
         <f aca="false">IF(D20="", "", IF(I20="-", "", E20 * IF(F20="",1,F20)))</f>
         <v/>
       </c>
-      <c r="J20" s="9" t="n">
+      <c r="J20" s="10" t="n">
         <f aca="true">IF(I20 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E20 * F20)</f>
         <v>0</v>
       </c>
@@ -1220,23 +1236,23 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="16" t="str">
         <f aca="false">IF(D21="","",VLOOKUP(D21,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="16" t="str">
         <f aca="false">IF(D21="","",VLOOKUP(D21,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="17" t="str">
         <f aca="true">IF(H21="", IF(I21="","",(INDIRECT("M" &amp; ROW() - 1) - M21)),IF(I21="", "", INDIRECT("M" &amp; ROW() - 1) - M21))</f>
         <v/>
       </c>
-      <c r="H21" s="16" t="str">
+      <c r="H21" s="17" t="str">
         <f aca="false">IF(D21="", "", IF(I21="-", "", E21 * IF(F21="",1,F21)))</f>
         <v/>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J21" s="10" t="n">
         <f aca="true">IF(I21 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E21 * F21)</f>
         <v>0</v>
       </c>
@@ -1254,23 +1270,23 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="16" t="str">
         <f aca="false">IF(D22="","",VLOOKUP(D22,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="16" t="str">
         <f aca="false">IF(D22="","",VLOOKUP(D22,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="17" t="str">
         <f aca="true">IF(H22="", IF(I22="","",(INDIRECT("M" &amp; ROW() - 1) - M22)),IF(I22="", "", INDIRECT("M" &amp; ROW() - 1) - M22))</f>
         <v/>
       </c>
-      <c r="H22" s="16" t="str">
+      <c r="H22" s="17" t="str">
         <f aca="false">IF(D22="", "", IF(I22="-", "", E22 * IF(F22="",1,F22)))</f>
         <v/>
       </c>
-      <c r="J22" s="9" t="n">
+      <c r="J22" s="10" t="n">
         <f aca="true">IF(I22 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E22 * F22)</f>
         <v>0</v>
       </c>
@@ -1288,23 +1304,23 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="16" t="str">
         <f aca="false">IF(D23="","",VLOOKUP(D23,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="16" t="str">
         <f aca="false">IF(D23="","",VLOOKUP(D23,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="17" t="str">
         <f aca="true">IF(H23="", IF(I23="","",(INDIRECT("M" &amp; ROW() - 1) - M23)),IF(I23="", "", INDIRECT("M" &amp; ROW() - 1) - M23))</f>
         <v/>
       </c>
-      <c r="H23" s="16" t="str">
+      <c r="H23" s="17" t="str">
         <f aca="false">IF(D23="", "", IF(I23="-", "", E23 * IF(F23="",1,F23)))</f>
         <v/>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="10" t="n">
         <f aca="true">IF(I23 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E23 * F23)</f>
         <v>0</v>
       </c>
@@ -1322,23 +1338,23 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="16" t="str">
         <f aca="false">IF(D24="","",VLOOKUP(D24,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="16" t="str">
         <f aca="false">IF(D24="","",VLOOKUP(D24,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="17" t="str">
         <f aca="true">IF(H24="", IF(I24="","",(INDIRECT("M" &amp; ROW() - 1) - M24)),IF(I24="", "", INDIRECT("M" &amp; ROW() - 1) - M24))</f>
         <v/>
       </c>
-      <c r="H24" s="16" t="str">
+      <c r="H24" s="17" t="str">
         <f aca="false">IF(D24="", "", IF(I24="-", "", E24 * IF(F24="",1,F24)))</f>
         <v/>
       </c>
-      <c r="J24" s="9" t="n">
+      <c r="J24" s="10" t="n">
         <f aca="true">IF(I24 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E24 * F24)</f>
         <v>0</v>
       </c>
@@ -1356,23 +1372,23 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15" t="str">
+      <c r="B25" s="16" t="str">
         <f aca="false">IF(D25="","",VLOOKUP(D25,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="16" t="str">
         <f aca="false">IF(D25="","",VLOOKUP(D25,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="17" t="str">
         <f aca="true">IF(H25="", IF(I25="","",(INDIRECT("M" &amp; ROW() - 1) - M25)),IF(I25="", "", INDIRECT("M" &amp; ROW() - 1) - M25))</f>
         <v/>
       </c>
-      <c r="H25" s="16" t="str">
+      <c r="H25" s="17" t="str">
         <f aca="false">IF(D25="", "", IF(I25="-", "", E25 * IF(F25="",1,F25)))</f>
         <v/>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J25" s="10" t="n">
         <f aca="true">IF(I25 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E25 * F25)</f>
         <v>0</v>
       </c>
@@ -1390,23 +1406,23 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="15" t="str">
+      <c r="B26" s="16" t="str">
         <f aca="false">IF(D26="","",VLOOKUP(D26,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="16" t="str">
         <f aca="false">IF(D26="","",VLOOKUP(D26,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="17" t="str">
         <f aca="true">IF(H26="", IF(I26="","",(INDIRECT("M" &amp; ROW() - 1) - M26)),IF(I26="", "", INDIRECT("M" &amp; ROW() - 1) - M26))</f>
         <v/>
       </c>
-      <c r="H26" s="16" t="str">
+      <c r="H26" s="17" t="str">
         <f aca="false">IF(D26="", "", IF(I26="-", "", E26 * IF(F26="",1,F26)))</f>
         <v/>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J26" s="10" t="n">
         <f aca="true">IF(I26 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E26 * F26)</f>
         <v>0</v>
       </c>
@@ -1424,23 +1440,23 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15" t="str">
+      <c r="B27" s="16" t="str">
         <f aca="false">IF(D27="","",VLOOKUP(D27,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="16" t="str">
         <f aca="false">IF(D27="","",VLOOKUP(D27,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="17" t="str">
         <f aca="true">IF(H27="", IF(I27="","",(INDIRECT("M" &amp; ROW() - 1) - M27)),IF(I27="", "", INDIRECT("M" &amp; ROW() - 1) - M27))</f>
         <v/>
       </c>
-      <c r="H27" s="16" t="str">
+      <c r="H27" s="17" t="str">
         <f aca="false">IF(D27="", "", IF(I27="-", "", E27 * IF(F27="",1,F27)))</f>
         <v/>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J27" s="10" t="n">
         <f aca="true">IF(I27 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E27 * F27)</f>
         <v>0</v>
       </c>
@@ -1458,23 +1474,23 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15" t="str">
+      <c r="B28" s="16" t="str">
         <f aca="false">IF(D28="","",VLOOKUP(D28,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="16" t="str">
         <f aca="false">IF(D28="","",VLOOKUP(D28,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="17" t="str">
         <f aca="true">IF(H28="", IF(I28="","",(INDIRECT("M" &amp; ROW() - 1) - M28)),IF(I28="", "", INDIRECT("M" &amp; ROW() - 1) - M28))</f>
         <v/>
       </c>
-      <c r="H28" s="16" t="str">
+      <c r="H28" s="17" t="str">
         <f aca="false">IF(D28="", "", IF(I28="-", "", E28 * IF(F28="",1,F28)))</f>
         <v/>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="10" t="n">
         <f aca="true">IF(I28 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E28 * F28)</f>
         <v>0</v>
       </c>
@@ -1492,23 +1508,23 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15" t="str">
+      <c r="B29" s="16" t="str">
         <f aca="false">IF(D29="","",VLOOKUP(D29,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="16" t="str">
         <f aca="false">IF(D29="","",VLOOKUP(D29,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="17" t="str">
         <f aca="true">IF(H29="", IF(I29="","",(INDIRECT("M" &amp; ROW() - 1) - M29)),IF(I29="", "", INDIRECT("M" &amp; ROW() - 1) - M29))</f>
         <v/>
       </c>
-      <c r="H29" s="16" t="str">
+      <c r="H29" s="17" t="str">
         <f aca="false">IF(D29="", "", IF(I29="-", "", E29 * IF(F29="",1,F29)))</f>
         <v/>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J29" s="10" t="n">
         <f aca="true">IF(I29 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E29 * F29)</f>
         <v>0</v>
       </c>
@@ -1526,23 +1542,23 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15" t="str">
+      <c r="B30" s="16" t="str">
         <f aca="false">IF(D30="","",VLOOKUP(D30,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="16" t="str">
         <f aca="false">IF(D30="","",VLOOKUP(D30,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G30" s="16" t="str">
+      <c r="G30" s="17" t="str">
         <f aca="true">IF(H30="", IF(I30="","",(INDIRECT("M" &amp; ROW() - 1) - M30)),IF(I30="", "", INDIRECT("M" &amp; ROW() - 1) - M30))</f>
         <v/>
       </c>
-      <c r="H30" s="16" t="str">
+      <c r="H30" s="17" t="str">
         <f aca="false">IF(D30="", "", IF(I30="-", "", E30 * IF(F30="",1,F30)))</f>
         <v/>
       </c>
-      <c r="J30" s="9" t="n">
+      <c r="J30" s="10" t="n">
         <f aca="true">IF(I30 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E30 * F30)</f>
         <v>0</v>
       </c>
@@ -1560,23 +1576,23 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15" t="str">
+      <c r="B31" s="16" t="str">
         <f aca="false">IF(D31="","",VLOOKUP(D31,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="C31" s="16" t="str">
         <f aca="false">IF(D31="","",VLOOKUP(D31,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G31" s="16" t="str">
+      <c r="G31" s="17" t="str">
         <f aca="true">IF(H31="", IF(I31="","",(INDIRECT("M" &amp; ROW() - 1) - M31)),IF(I31="", "", INDIRECT("M" &amp; ROW() - 1) - M31))</f>
         <v/>
       </c>
-      <c r="H31" s="16" t="str">
+      <c r="H31" s="17" t="str">
         <f aca="false">IF(D31="", "", IF(I31="-", "", E31 * IF(F31="",1,F31)))</f>
         <v/>
       </c>
-      <c r="J31" s="9" t="n">
+      <c r="J31" s="10" t="n">
         <f aca="true">IF(I31 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E31 * F31)</f>
         <v>0</v>
       </c>
@@ -1594,23 +1610,23 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15" t="str">
+      <c r="B32" s="16" t="str">
         <f aca="false">IF(D32="","",VLOOKUP(D32,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C32" s="16" t="str">
         <f aca="false">IF(D32="","",VLOOKUP(D32,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G32" s="16" t="str">
+      <c r="G32" s="17" t="str">
         <f aca="true">IF(H32="", IF(I32="","",(INDIRECT("M" &amp; ROW() - 1) - M32)),IF(I32="", "", INDIRECT("M" &amp; ROW() - 1) - M32))</f>
         <v/>
       </c>
-      <c r="H32" s="16" t="str">
+      <c r="H32" s="17" t="str">
         <f aca="false">IF(D32="", "", IF(I32="-", "", E32 * IF(F32="",1,F32)))</f>
         <v/>
       </c>
-      <c r="J32" s="9" t="n">
+      <c r="J32" s="10" t="n">
         <f aca="true">IF(I32 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E32 * F32)</f>
         <v>0</v>
       </c>
@@ -1628,23 +1644,23 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15" t="str">
+      <c r="B33" s="16" t="str">
         <f aca="false">IF(D33="","",VLOOKUP(D33,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="16" t="str">
         <f aca="false">IF(D33="","",VLOOKUP(D33,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G33" s="16" t="str">
+      <c r="G33" s="17" t="str">
         <f aca="true">IF(H33="", IF(I33="","",(INDIRECT("M" &amp; ROW() - 1) - M33)),IF(I33="", "", INDIRECT("M" &amp; ROW() - 1) - M33))</f>
         <v/>
       </c>
-      <c r="H33" s="16" t="str">
+      <c r="H33" s="17" t="str">
         <f aca="false">IF(D33="", "", IF(I33="-", "", E33 * IF(F33="",1,F33)))</f>
         <v/>
       </c>
-      <c r="J33" s="9" t="n">
+      <c r="J33" s="10" t="n">
         <f aca="true">IF(I33 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E33 * F33)</f>
         <v>0</v>
       </c>
@@ -1662,23 +1678,23 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15" t="str">
+      <c r="B34" s="16" t="str">
         <f aca="false">IF(D34="","",VLOOKUP(D34,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="16" t="str">
         <f aca="false">IF(D34="","",VLOOKUP(D34,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G34" s="16" t="str">
+      <c r="G34" s="17" t="str">
         <f aca="true">IF(H34="", IF(I34="","",(INDIRECT("M" &amp; ROW() - 1) - M34)),IF(I34="", "", INDIRECT("M" &amp; ROW() - 1) - M34))</f>
         <v/>
       </c>
-      <c r="H34" s="16" t="str">
+      <c r="H34" s="17" t="str">
         <f aca="false">IF(D34="", "", IF(I34="-", "", E34 * IF(F34="",1,F34)))</f>
         <v/>
       </c>
-      <c r="J34" s="9" t="n">
+      <c r="J34" s="10" t="n">
         <f aca="true">IF(I34 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E34 * F34)</f>
         <v>0</v>
       </c>
@@ -1696,23 +1712,23 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="15" t="str">
+      <c r="B35" s="16" t="str">
         <f aca="false">IF(D35="","",VLOOKUP(D35,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="C35" s="16" t="str">
         <f aca="false">IF(D35="","",VLOOKUP(D35,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G35" s="16" t="str">
+      <c r="G35" s="17" t="str">
         <f aca="true">IF(H35="", IF(I35="","",(INDIRECT("M" &amp; ROW() - 1) - M35)),IF(I35="", "", INDIRECT("M" &amp; ROW() - 1) - M35))</f>
         <v/>
       </c>
-      <c r="H35" s="16" t="str">
+      <c r="H35" s="17" t="str">
         <f aca="false">IF(D35="", "", IF(I35="-", "", E35 * IF(F35="",1,F35)))</f>
         <v/>
       </c>
-      <c r="J35" s="9" t="n">
+      <c r="J35" s="10" t="n">
         <f aca="true">IF(I35 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E35 * F35)</f>
         <v>0</v>
       </c>
@@ -1730,23 +1746,23 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="15" t="str">
+      <c r="B36" s="16" t="str">
         <f aca="false">IF(D36="","",VLOOKUP(D36,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C36" s="15" t="str">
+      <c r="C36" s="16" t="str">
         <f aca="false">IF(D36="","",VLOOKUP(D36,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G36" s="16" t="str">
+      <c r="G36" s="17" t="str">
         <f aca="true">IF(H36="", IF(I36="","",(INDIRECT("M" &amp; ROW() - 1) - M36)),IF(I36="", "", INDIRECT("M" &amp; ROW() - 1) - M36))</f>
         <v/>
       </c>
-      <c r="H36" s="16" t="str">
+      <c r="H36" s="17" t="str">
         <f aca="false">IF(D36="", "", IF(I36="-", "", E36 * IF(F36="",1,F36)))</f>
         <v/>
       </c>
-      <c r="J36" s="9" t="n">
+      <c r="J36" s="10" t="n">
         <f aca="true">IF(I36 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E36 * F36)</f>
         <v>0</v>
       </c>
@@ -1764,23 +1780,23 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="16" t="str">
         <f aca="false">IF(D37="","",VLOOKUP(D37,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="16" t="str">
         <f aca="false">IF(D37="","",VLOOKUP(D37,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G37" s="16" t="str">
+      <c r="G37" s="17" t="str">
         <f aca="true">IF(H37="", IF(I37="","",(INDIRECT("M" &amp; ROW() - 1) - M37)),IF(I37="", "", INDIRECT("M" &amp; ROW() - 1) - M37))</f>
         <v/>
       </c>
-      <c r="H37" s="16" t="str">
+      <c r="H37" s="17" t="str">
         <f aca="false">IF(D37="", "", IF(I37="-", "", E37 * IF(F37="",1,F37)))</f>
         <v/>
       </c>
-      <c r="J37" s="9" t="n">
+      <c r="J37" s="10" t="n">
         <f aca="true">IF(I37 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E37 * F37)</f>
         <v>0</v>
       </c>
@@ -1798,23 +1814,23 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="15" t="str">
+      <c r="B38" s="16" t="str">
         <f aca="false">IF(D38="","",VLOOKUP(D38,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C38" s="15" t="str">
+      <c r="C38" s="16" t="str">
         <f aca="false">IF(D38="","",VLOOKUP(D38,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G38" s="16" t="str">
+      <c r="G38" s="17" t="str">
         <f aca="true">IF(H38="", IF(I38="","",(INDIRECT("M" &amp; ROW() - 1) - M38)),IF(I38="", "", INDIRECT("M" &amp; ROW() - 1) - M38))</f>
         <v/>
       </c>
-      <c r="H38" s="16" t="str">
+      <c r="H38" s="17" t="str">
         <f aca="false">IF(D38="", "", IF(I38="-", "", E38 * IF(F38="",1,F38)))</f>
         <v/>
       </c>
-      <c r="J38" s="9" t="n">
+      <c r="J38" s="10" t="n">
         <f aca="true">IF(I38 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E38 * F38)</f>
         <v>0</v>
       </c>
@@ -1832,23 +1848,23 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15" t="str">
+      <c r="B39" s="16" t="str">
         <f aca="false">IF(D39="","",VLOOKUP(D39,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C39" s="15" t="str">
+      <c r="C39" s="16" t="str">
         <f aca="false">IF(D39="","",VLOOKUP(D39,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G39" s="16" t="str">
+      <c r="G39" s="17" t="str">
         <f aca="true">IF(H39="", IF(I39="","",(INDIRECT("M" &amp; ROW() - 1) - M39)),IF(I39="", "", INDIRECT("M" &amp; ROW() - 1) - M39))</f>
         <v/>
       </c>
-      <c r="H39" s="16" t="str">
+      <c r="H39" s="17" t="str">
         <f aca="false">IF(D39="", "", IF(I39="-", "", E39 * IF(F39="",1,F39)))</f>
         <v/>
       </c>
-      <c r="J39" s="9" t="n">
+      <c r="J39" s="10" t="n">
         <f aca="true">IF(I39 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E39 * F39)</f>
         <v>0</v>
       </c>
@@ -1866,23 +1882,23 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="15" t="str">
+      <c r="B40" s="16" t="str">
         <f aca="false">IF(D40="","",VLOOKUP(D40,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C40" s="15" t="str">
+      <c r="C40" s="16" t="str">
         <f aca="false">IF(D40="","",VLOOKUP(D40,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G40" s="16" t="str">
+      <c r="G40" s="17" t="str">
         <f aca="true">IF(H40="", IF(I40="","",(INDIRECT("M" &amp; ROW() - 1) - M40)),IF(I40="", "", INDIRECT("M" &amp; ROW() - 1) - M40))</f>
         <v/>
       </c>
-      <c r="H40" s="16" t="str">
+      <c r="H40" s="17" t="str">
         <f aca="false">IF(D40="", "", IF(I40="-", "", E40 * IF(F40="",1,F40)))</f>
         <v/>
       </c>
-      <c r="J40" s="9" t="n">
+      <c r="J40" s="10" t="n">
         <f aca="true">IF(I40 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E40 * F40)</f>
         <v>0</v>
       </c>
@@ -1900,23 +1916,23 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="15" t="str">
+      <c r="B41" s="16" t="str">
         <f aca="false">IF(D41="","",VLOOKUP(D41,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C41" s="15" t="str">
+      <c r="C41" s="16" t="str">
         <f aca="false">IF(D41="","",VLOOKUP(D41,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G41" s="16" t="str">
+      <c r="G41" s="17" t="str">
         <f aca="true">IF(H41="", IF(I41="","",(INDIRECT("M" &amp; ROW() - 1) - M41)),IF(I41="", "", INDIRECT("M" &amp; ROW() - 1) - M41))</f>
         <v/>
       </c>
-      <c r="H41" s="16" t="str">
+      <c r="H41" s="17" t="str">
         <f aca="false">IF(D41="", "", IF(I41="-", "", E41 * IF(F41="",1,F41)))</f>
         <v/>
       </c>
-      <c r="J41" s="9" t="n">
+      <c r="J41" s="10" t="n">
         <f aca="true">IF(I41 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E41 * F41)</f>
         <v>0</v>
       </c>
@@ -1934,23 +1950,23 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="15" t="str">
+      <c r="B42" s="16" t="str">
         <f aca="false">IF(D42="","",VLOOKUP(D42,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C42" s="15" t="str">
+      <c r="C42" s="16" t="str">
         <f aca="false">IF(D42="","",VLOOKUP(D42,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G42" s="16" t="str">
+      <c r="G42" s="17" t="str">
         <f aca="true">IF(H42="", IF(I42="","",(INDIRECT("M" &amp; ROW() - 1) - M42)),IF(I42="", "", INDIRECT("M" &amp; ROW() - 1) - M42))</f>
         <v/>
       </c>
-      <c r="H42" s="16" t="str">
+      <c r="H42" s="17" t="str">
         <f aca="false">IF(D42="", "", IF(I42="-", "", E42 * IF(F42="",1,F42)))</f>
         <v/>
       </c>
-      <c r="J42" s="9" t="n">
+      <c r="J42" s="10" t="n">
         <f aca="true">IF(I42 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E42 * F42)</f>
         <v>0</v>
       </c>
@@ -1968,23 +1984,23 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="15" t="str">
+      <c r="B43" s="16" t="str">
         <f aca="false">IF(D43="","",VLOOKUP(D43,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C43" s="15" t="str">
+      <c r="C43" s="16" t="str">
         <f aca="false">IF(D43="","",VLOOKUP(D43,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G43" s="16" t="str">
+      <c r="G43" s="17" t="str">
         <f aca="true">IF(H43="", IF(I43="","",(INDIRECT("M" &amp; ROW() - 1) - M43)),IF(I43="", "", INDIRECT("M" &amp; ROW() - 1) - M43))</f>
         <v/>
       </c>
-      <c r="H43" s="16" t="str">
+      <c r="H43" s="17" t="str">
         <f aca="false">IF(D43="", "", IF(I43="-", "", E43 * IF(F43="",1,F43)))</f>
         <v/>
       </c>
-      <c r="J43" s="9" t="n">
+      <c r="J43" s="10" t="n">
         <f aca="true">IF(I43 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E43 * F43)</f>
         <v>0</v>
       </c>
@@ -2002,23 +2018,23 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="15" t="str">
+      <c r="B44" s="16" t="str">
         <f aca="false">IF(D44="","",VLOOKUP(D44,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C44" s="15" t="str">
+      <c r="C44" s="16" t="str">
         <f aca="false">IF(D44="","",VLOOKUP(D44,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G44" s="16" t="str">
+      <c r="G44" s="17" t="str">
         <f aca="true">IF(H44="", IF(I44="","",(INDIRECT("M" &amp; ROW() - 1) - M44)),IF(I44="", "", INDIRECT("M" &amp; ROW() - 1) - M44))</f>
         <v/>
       </c>
-      <c r="H44" s="16" t="str">
+      <c r="H44" s="17" t="str">
         <f aca="false">IF(D44="", "", IF(I44="-", "", E44 * IF(F44="",1,F44)))</f>
         <v/>
       </c>
-      <c r="J44" s="9" t="n">
+      <c r="J44" s="10" t="n">
         <f aca="true">IF(I44 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E44 * F44)</f>
         <v>0</v>
       </c>
@@ -2036,23 +2052,23 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="15" t="str">
+      <c r="B45" s="16" t="str">
         <f aca="false">IF(D45="","",VLOOKUP(D45,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C45" s="15" t="str">
+      <c r="C45" s="16" t="str">
         <f aca="false">IF(D45="","",VLOOKUP(D45,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G45" s="16" t="str">
+      <c r="G45" s="17" t="str">
         <f aca="true">IF(H45="", IF(I45="","",(INDIRECT("M" &amp; ROW() - 1) - M45)),IF(I45="", "", INDIRECT("M" &amp; ROW() - 1) - M45))</f>
         <v/>
       </c>
-      <c r="H45" s="16" t="str">
+      <c r="H45" s="17" t="str">
         <f aca="false">IF(D45="", "", IF(I45="-", "", E45 * IF(F45="",1,F45)))</f>
         <v/>
       </c>
-      <c r="J45" s="9" t="n">
+      <c r="J45" s="10" t="n">
         <f aca="true">IF(I45 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E45 * F45)</f>
         <v>0</v>
       </c>
@@ -2070,23 +2086,23 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="15" t="str">
+      <c r="B46" s="16" t="str">
         <f aca="false">IF(D46="","",VLOOKUP(D46,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C46" s="15" t="str">
+      <c r="C46" s="16" t="str">
         <f aca="false">IF(D46="","",VLOOKUP(D46,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G46" s="16" t="str">
+      <c r="G46" s="17" t="str">
         <f aca="true">IF(H46="", IF(I46="","",(INDIRECT("M" &amp; ROW() - 1) - M46)),IF(I46="", "", INDIRECT("M" &amp; ROW() - 1) - M46))</f>
         <v/>
       </c>
-      <c r="H46" s="16" t="str">
+      <c r="H46" s="17" t="str">
         <f aca="false">IF(D46="", "", IF(I46="-", "", E46 * IF(F46="",1,F46)))</f>
         <v/>
       </c>
-      <c r="J46" s="9" t="n">
+      <c r="J46" s="10" t="n">
         <f aca="true">IF(I46 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E46 * F46)</f>
         <v>0</v>
       </c>
@@ -2104,23 +2120,23 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="15" t="str">
+      <c r="B47" s="16" t="str">
         <f aca="false">IF(D47="","",VLOOKUP(D47,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C47" s="15" t="str">
+      <c r="C47" s="16" t="str">
         <f aca="false">IF(D47="","",VLOOKUP(D47,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G47" s="16" t="str">
+      <c r="G47" s="17" t="str">
         <f aca="true">IF(H47="", IF(I47="","",(INDIRECT("M" &amp; ROW() - 1) - M47)),IF(I47="", "", INDIRECT("M" &amp; ROW() - 1) - M47))</f>
         <v/>
       </c>
-      <c r="H47" s="16" t="str">
+      <c r="H47" s="17" t="str">
         <f aca="false">IF(D47="", "", IF(I47="-", "", E47 * IF(F47="",1,F47)))</f>
         <v/>
       </c>
-      <c r="J47" s="9" t="n">
+      <c r="J47" s="10" t="n">
         <f aca="true">IF(I47 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E47 * F47)</f>
         <v>0</v>
       </c>
@@ -2138,23 +2154,23 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="15" t="str">
+      <c r="B48" s="16" t="str">
         <f aca="false">IF(D48="","",VLOOKUP(D48,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C48" s="15" t="str">
+      <c r="C48" s="16" t="str">
         <f aca="false">IF(D48="","",VLOOKUP(D48,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G48" s="16" t="str">
+      <c r="G48" s="17" t="str">
         <f aca="true">IF(H48="", IF(I48="","",(INDIRECT("M" &amp; ROW() - 1) - M48)),IF(I48="", "", INDIRECT("M" &amp; ROW() - 1) - M48))</f>
         <v/>
       </c>
-      <c r="H48" s="16" t="str">
+      <c r="H48" s="17" t="str">
         <f aca="false">IF(D48="", "", IF(I48="-", "", E48 * IF(F48="",1,F48)))</f>
         <v/>
       </c>
-      <c r="J48" s="9" t="n">
+      <c r="J48" s="10" t="n">
         <f aca="true">IF(I48 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E48 * F48)</f>
         <v>0</v>
       </c>
@@ -2172,23 +2188,23 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="15" t="str">
+      <c r="B49" s="16" t="str">
         <f aca="false">IF(D49="","",VLOOKUP(D49,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C49" s="15" t="str">
+      <c r="C49" s="16" t="str">
         <f aca="false">IF(D49="","",VLOOKUP(D49,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G49" s="16" t="str">
+      <c r="G49" s="17" t="str">
         <f aca="true">IF(H49="", IF(I49="","",(INDIRECT("M" &amp; ROW() - 1) - M49)),IF(I49="", "", INDIRECT("M" &amp; ROW() - 1) - M49))</f>
         <v/>
       </c>
-      <c r="H49" s="16" t="str">
+      <c r="H49" s="17" t="str">
         <f aca="false">IF(D49="", "", IF(I49="-", "", E49 * IF(F49="",1,F49)))</f>
         <v/>
       </c>
-      <c r="J49" s="9" t="n">
+      <c r="J49" s="10" t="n">
         <f aca="true">IF(I49 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E49 * F49)</f>
         <v>0</v>
       </c>
@@ -2206,23 +2222,23 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="15" t="str">
+      <c r="B50" s="16" t="str">
         <f aca="false">IF(D50="","",VLOOKUP(D50,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C50" s="15" t="str">
+      <c r="C50" s="16" t="str">
         <f aca="false">IF(D50="","",VLOOKUP(D50,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G50" s="16" t="str">
+      <c r="G50" s="17" t="str">
         <f aca="true">IF(H50="", IF(I50="","",(INDIRECT("M" &amp; ROW() - 1) - M50)),IF(I50="", "", INDIRECT("M" &amp; ROW() - 1) - M50))</f>
         <v/>
       </c>
-      <c r="H50" s="16" t="str">
+      <c r="H50" s="17" t="str">
         <f aca="false">IF(D50="", "", IF(I50="-", "", E50 * IF(F50="",1,F50)))</f>
         <v/>
       </c>
-      <c r="J50" s="9" t="n">
+      <c r="J50" s="10" t="n">
         <f aca="true">IF(I50 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E50 * F50)</f>
         <v>0</v>
       </c>
@@ -2240,23 +2256,23 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="15" t="str">
+      <c r="B51" s="16" t="str">
         <f aca="false">IF(D51="","",VLOOKUP(D51,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C51" s="15" t="str">
+      <c r="C51" s="16" t="str">
         <f aca="false">IF(D51="","",VLOOKUP(D51,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G51" s="16" t="str">
+      <c r="G51" s="17" t="str">
         <f aca="true">IF(H51="", IF(I51="","",(INDIRECT("M" &amp; ROW() - 1) - M51)),IF(I51="", "", INDIRECT("M" &amp; ROW() - 1) - M51))</f>
         <v/>
       </c>
-      <c r="H51" s="16" t="str">
+      <c r="H51" s="17" t="str">
         <f aca="false">IF(D51="", "", IF(I51="-", "", E51 * IF(F51="",1,F51)))</f>
         <v/>
       </c>
-      <c r="J51" s="9" t="n">
+      <c r="J51" s="10" t="n">
         <f aca="true">IF(I51 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E51 * F51)</f>
         <v>0</v>
       </c>
@@ -2274,23 +2290,23 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="15" t="str">
+      <c r="B52" s="16" t="str">
         <f aca="false">IF(D52="","",VLOOKUP(D52,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C52" s="15" t="str">
+      <c r="C52" s="16" t="str">
         <f aca="false">IF(D52="","",VLOOKUP(D52,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G52" s="16" t="str">
+      <c r="G52" s="17" t="str">
         <f aca="true">IF(H52="", IF(I52="","",(INDIRECT("M" &amp; ROW() - 1) - M52)),IF(I52="", "", INDIRECT("M" &amp; ROW() - 1) - M52))</f>
         <v/>
       </c>
-      <c r="H52" s="16" t="str">
+      <c r="H52" s="17" t="str">
         <f aca="false">IF(D52="", "", IF(I52="-", "", E52 * IF(F52="",1,F52)))</f>
         <v/>
       </c>
-      <c r="J52" s="9" t="n">
+      <c r="J52" s="10" t="n">
         <f aca="true">IF(I52 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E52 * F52)</f>
         <v>0</v>
       </c>
@@ -2308,23 +2324,23 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="15" t="str">
+      <c r="B53" s="16" t="str">
         <f aca="false">IF(D53="","",VLOOKUP(D53,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C53" s="15" t="str">
+      <c r="C53" s="16" t="str">
         <f aca="false">IF(D53="","",VLOOKUP(D53,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G53" s="16" t="str">
+      <c r="G53" s="17" t="str">
         <f aca="true">IF(H53="", IF(I53="","",(INDIRECT("M" &amp; ROW() - 1) - M53)),IF(I53="", "", INDIRECT("M" &amp; ROW() - 1) - M53))</f>
         <v/>
       </c>
-      <c r="H53" s="16" t="str">
+      <c r="H53" s="17" t="str">
         <f aca="false">IF(D53="", "", IF(I53="-", "", E53 * IF(F53="",1,F53)))</f>
         <v/>
       </c>
-      <c r="J53" s="9" t="n">
+      <c r="J53" s="10" t="n">
         <f aca="true">IF(I53 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E53 * F53)</f>
         <v>0</v>
       </c>
@@ -2342,23 +2358,23 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="15" t="str">
+      <c r="B54" s="16" t="str">
         <f aca="false">IF(D54="","",VLOOKUP(D54,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C54" s="15" t="str">
+      <c r="C54" s="16" t="str">
         <f aca="false">IF(D54="","",VLOOKUP(D54,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G54" s="16" t="str">
+      <c r="G54" s="17" t="str">
         <f aca="true">IF(H54="", IF(I54="","",(INDIRECT("M" &amp; ROW() - 1) - M54)),IF(I54="", "", INDIRECT("M" &amp; ROW() - 1) - M54))</f>
         <v/>
       </c>
-      <c r="H54" s="16" t="str">
+      <c r="H54" s="17" t="str">
         <f aca="false">IF(D54="", "", IF(I54="-", "", E54 * IF(F54="",1,F54)))</f>
         <v/>
       </c>
-      <c r="J54" s="9" t="n">
+      <c r="J54" s="10" t="n">
         <f aca="true">IF(I54 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E54 * F54)</f>
         <v>0</v>
       </c>
@@ -2376,23 +2392,23 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="15" t="str">
+      <c r="B55" s="16" t="str">
         <f aca="false">IF(D55="","",VLOOKUP(D55,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C55" s="15" t="str">
+      <c r="C55" s="16" t="str">
         <f aca="false">IF(D55="","",VLOOKUP(D55,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G55" s="16" t="str">
+      <c r="G55" s="17" t="str">
         <f aca="true">IF(H55="", IF(I55="","",(INDIRECT("M" &amp; ROW() - 1) - M55)),IF(I55="", "", INDIRECT("M" &amp; ROW() - 1) - M55))</f>
         <v/>
       </c>
-      <c r="H55" s="16" t="str">
+      <c r="H55" s="17" t="str">
         <f aca="false">IF(D55="", "", IF(I55="-", "", E55 * IF(F55="",1,F55)))</f>
         <v/>
       </c>
-      <c r="J55" s="9" t="n">
+      <c r="J55" s="10" t="n">
         <f aca="true">IF(I55 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E55 * F55)</f>
         <v>0</v>
       </c>
@@ -2410,23 +2426,23 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="15" t="str">
+      <c r="B56" s="16" t="str">
         <f aca="false">IF(D56="","",VLOOKUP(D56,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C56" s="15" t="str">
+      <c r="C56" s="16" t="str">
         <f aca="false">IF(D56="","",VLOOKUP(D56,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G56" s="16" t="str">
+      <c r="G56" s="17" t="str">
         <f aca="true">IF(H56="", IF(I56="","",(INDIRECT("M" &amp; ROW() - 1) - M56)),IF(I56="", "", INDIRECT("M" &amp; ROW() - 1) - M56))</f>
         <v/>
       </c>
-      <c r="H56" s="16" t="str">
+      <c r="H56" s="17" t="str">
         <f aca="false">IF(D56="", "", IF(I56="-", "", E56 * IF(F56="",1,F56)))</f>
         <v/>
       </c>
-      <c r="J56" s="9" t="n">
+      <c r="J56" s="10" t="n">
         <f aca="true">IF(I56 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E56 * F56)</f>
         <v>0</v>
       </c>
@@ -2444,23 +2460,23 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="15" t="str">
+      <c r="B57" s="16" t="str">
         <f aca="false">IF(D57="","",VLOOKUP(D57,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C57" s="15" t="str">
+      <c r="C57" s="16" t="str">
         <f aca="false">IF(D57="","",VLOOKUP(D57,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G57" s="16" t="str">
+      <c r="G57" s="17" t="str">
         <f aca="true">IF(H57="", IF(I57="","",(INDIRECT("M" &amp; ROW() - 1) - M57)),IF(I57="", "", INDIRECT("M" &amp; ROW() - 1) - M57))</f>
         <v/>
       </c>
-      <c r="H57" s="16" t="str">
+      <c r="H57" s="17" t="str">
         <f aca="false">IF(D57="", "", IF(I57="-", "", E57 * IF(F57="",1,F57)))</f>
         <v/>
       </c>
-      <c r="J57" s="9" t="n">
+      <c r="J57" s="10" t="n">
         <f aca="true">IF(I57 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E57 * F57)</f>
         <v>0</v>
       </c>
@@ -2478,23 +2494,23 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="15" t="str">
+      <c r="B58" s="16" t="str">
         <f aca="false">IF(D58="","",VLOOKUP(D58,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C58" s="15" t="str">
+      <c r="C58" s="16" t="str">
         <f aca="false">IF(D58="","",VLOOKUP(D58,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G58" s="16" t="str">
+      <c r="G58" s="17" t="str">
         <f aca="true">IF(H58="", IF(I58="","",(INDIRECT("M" &amp; ROW() - 1) - M58)),IF(I58="", "", INDIRECT("M" &amp; ROW() - 1) - M58))</f>
         <v/>
       </c>
-      <c r="H58" s="16" t="str">
+      <c r="H58" s="17" t="str">
         <f aca="false">IF(D58="", "", IF(I58="-", "", E58 * IF(F58="",1,F58)))</f>
         <v/>
       </c>
-      <c r="J58" s="9" t="n">
+      <c r="J58" s="10" t="n">
         <f aca="true">IF(I58 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E58 * F58)</f>
         <v>0</v>
       </c>
@@ -2512,23 +2528,23 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="15" t="str">
+      <c r="B59" s="16" t="str">
         <f aca="false">IF(D59="","",VLOOKUP(D59,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C59" s="15" t="str">
+      <c r="C59" s="16" t="str">
         <f aca="false">IF(D59="","",VLOOKUP(D59,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G59" s="16" t="str">
+      <c r="G59" s="17" t="str">
         <f aca="true">IF(H59="", IF(I59="","",(INDIRECT("M" &amp; ROW() - 1) - M59)),IF(I59="", "", INDIRECT("M" &amp; ROW() - 1) - M59))</f>
         <v/>
       </c>
-      <c r="H59" s="16" t="str">
+      <c r="H59" s="17" t="str">
         <f aca="false">IF(D59="", "", IF(I59="-", "", E59 * IF(F59="",1,F59)))</f>
         <v/>
       </c>
-      <c r="J59" s="9" t="n">
+      <c r="J59" s="10" t="n">
         <f aca="true">IF(I59 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E59 * F59)</f>
         <v>0</v>
       </c>
@@ -2546,23 +2562,23 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="15" t="str">
+      <c r="B60" s="16" t="str">
         <f aca="false">IF(D60="","",VLOOKUP(D60,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C60" s="15" t="str">
+      <c r="C60" s="16" t="str">
         <f aca="false">IF(D60="","",VLOOKUP(D60,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G60" s="16" t="str">
+      <c r="G60" s="17" t="str">
         <f aca="true">IF(H60="", IF(I60="","",(INDIRECT("M" &amp; ROW() - 1) - M60)),IF(I60="", "", INDIRECT("M" &amp; ROW() - 1) - M60))</f>
         <v/>
       </c>
-      <c r="H60" s="16" t="str">
+      <c r="H60" s="17" t="str">
         <f aca="false">IF(D60="", "", IF(I60="-", "", E60 * IF(F60="",1,F60)))</f>
         <v/>
       </c>
-      <c r="J60" s="9" t="n">
+      <c r="J60" s="10" t="n">
         <f aca="true">IF(I60 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E60 * F60)</f>
         <v>0</v>
       </c>
@@ -2580,23 +2596,23 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="15" t="str">
+      <c r="B61" s="16" t="str">
         <f aca="false">IF(D61="","",VLOOKUP(D61,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C61" s="15" t="str">
+      <c r="C61" s="16" t="str">
         <f aca="false">IF(D61="","",VLOOKUP(D61,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G61" s="16" t="str">
+      <c r="G61" s="17" t="str">
         <f aca="true">IF(H61="", IF(I61="","",(INDIRECT("M" &amp; ROW() - 1) - M61)),IF(I61="", "", INDIRECT("M" &amp; ROW() - 1) - M61))</f>
         <v/>
       </c>
-      <c r="H61" s="16" t="str">
+      <c r="H61" s="17" t="str">
         <f aca="false">IF(D61="", "", IF(I61="-", "", E61 * IF(F61="",1,F61)))</f>
         <v/>
       </c>
-      <c r="J61" s="9" t="n">
+      <c r="J61" s="10" t="n">
         <f aca="true">IF(I61 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E61 * F61)</f>
         <v>0</v>
       </c>
@@ -2614,23 +2630,23 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="15" t="str">
+      <c r="B62" s="16" t="str">
         <f aca="false">IF(D62="","",VLOOKUP(D62,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C62" s="15" t="str">
+      <c r="C62" s="16" t="str">
         <f aca="false">IF(D62="","",VLOOKUP(D62,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G62" s="16" t="str">
+      <c r="G62" s="17" t="str">
         <f aca="true">IF(H62="", IF(I62="","",(INDIRECT("M" &amp; ROW() - 1) - M62)),IF(I62="", "", INDIRECT("M" &amp; ROW() - 1) - M62))</f>
         <v/>
       </c>
-      <c r="H62" s="16" t="str">
+      <c r="H62" s="17" t="str">
         <f aca="false">IF(D62="", "", IF(I62="-", "", E62 * IF(F62="",1,F62)))</f>
         <v/>
       </c>
-      <c r="J62" s="9" t="n">
+      <c r="J62" s="10" t="n">
         <f aca="true">IF(I62 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E62 * F62)</f>
         <v>0</v>
       </c>
@@ -2648,23 +2664,23 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="15" t="str">
+      <c r="B63" s="16" t="str">
         <f aca="false">IF(D63="","",VLOOKUP(D63,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C63" s="15" t="str">
+      <c r="C63" s="16" t="str">
         <f aca="false">IF(D63="","",VLOOKUP(D63,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G63" s="16" t="str">
+      <c r="G63" s="17" t="str">
         <f aca="true">IF(H63="", IF(I63="","",(INDIRECT("M" &amp; ROW() - 1) - M63)),IF(I63="", "", INDIRECT("M" &amp; ROW() - 1) - M63))</f>
         <v/>
       </c>
-      <c r="H63" s="16" t="str">
+      <c r="H63" s="17" t="str">
         <f aca="false">IF(D63="", "", IF(I63="-", "", E63 * IF(F63="",1,F63)))</f>
         <v/>
       </c>
-      <c r="J63" s="9" t="n">
+      <c r="J63" s="10" t="n">
         <f aca="true">IF(I63 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E63 * F63)</f>
         <v>0</v>
       </c>
@@ -2682,23 +2698,23 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="15" t="str">
+      <c r="B64" s="16" t="str">
         <f aca="false">IF(D64="","",VLOOKUP(D64,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C64" s="15" t="str">
+      <c r="C64" s="16" t="str">
         <f aca="false">IF(D64="","",VLOOKUP(D64,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G64" s="16" t="str">
+      <c r="G64" s="17" t="str">
         <f aca="true">IF(H64="", IF(I64="","",(INDIRECT("M" &amp; ROW() - 1) - M64)),IF(I64="", "", INDIRECT("M" &amp; ROW() - 1) - M64))</f>
         <v/>
       </c>
-      <c r="H64" s="16" t="str">
+      <c r="H64" s="17" t="str">
         <f aca="false">IF(D64="", "", IF(I64="-", "", E64 * IF(F64="",1,F64)))</f>
         <v/>
       </c>
-      <c r="J64" s="9" t="n">
+      <c r="J64" s="10" t="n">
         <f aca="true">IF(I64 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E64 * F64)</f>
         <v>0</v>
       </c>
@@ -2716,23 +2732,23 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="15" t="str">
+      <c r="B65" s="16" t="str">
         <f aca="false">IF(D65="","",VLOOKUP(D65,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C65" s="15" t="str">
+      <c r="C65" s="16" t="str">
         <f aca="false">IF(D65="","",VLOOKUP(D65,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G65" s="16" t="str">
+      <c r="G65" s="17" t="str">
         <f aca="true">IF(H65="", IF(I65="","",(INDIRECT("M" &amp; ROW() - 1) - M65)),IF(I65="", "", INDIRECT("M" &amp; ROW() - 1) - M65))</f>
         <v/>
       </c>
-      <c r="H65" s="16" t="str">
+      <c r="H65" s="17" t="str">
         <f aca="false">IF(D65="", "", IF(I65="-", "", E65 * IF(F65="",1,F65)))</f>
         <v/>
       </c>
-      <c r="J65" s="9" t="n">
+      <c r="J65" s="10" t="n">
         <f aca="true">IF(I65 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E65 * F65)</f>
         <v>0</v>
       </c>
@@ -2750,23 +2766,23 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="15" t="str">
+      <c r="B66" s="16" t="str">
         <f aca="false">IF(D66="","",VLOOKUP(D66,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C66" s="15" t="str">
+      <c r="C66" s="16" t="str">
         <f aca="false">IF(D66="","",VLOOKUP(D66,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G66" s="16" t="str">
+      <c r="G66" s="17" t="str">
         <f aca="true">IF(H66="", IF(I66="","",(INDIRECT("M" &amp; ROW() - 1) - M66)),IF(I66="", "", INDIRECT("M" &amp; ROW() - 1) - M66))</f>
         <v/>
       </c>
-      <c r="H66" s="16" t="str">
+      <c r="H66" s="17" t="str">
         <f aca="false">IF(D66="", "", IF(I66="-", "", E66 * IF(F66="",1,F66)))</f>
         <v/>
       </c>
-      <c r="J66" s="9" t="n">
+      <c r="J66" s="10" t="n">
         <f aca="true">IF(I66 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E66 * F66)</f>
         <v>0</v>
       </c>
@@ -2784,23 +2800,23 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="15" t="str">
+      <c r="B67" s="16" t="str">
         <f aca="false">IF(D67="","",VLOOKUP(D67,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C67" s="15" t="str">
+      <c r="C67" s="16" t="str">
         <f aca="false">IF(D67="","",VLOOKUP(D67,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G67" s="16" t="str">
+      <c r="G67" s="17" t="str">
         <f aca="true">IF(H67="", IF(I67="","",(INDIRECT("M" &amp; ROW() - 1) - M67)),IF(I67="", "", INDIRECT("M" &amp; ROW() - 1) - M67))</f>
         <v/>
       </c>
-      <c r="H67" s="16" t="str">
+      <c r="H67" s="17" t="str">
         <f aca="false">IF(D67="", "", IF(I67="-", "", E67 * IF(F67="",1,F67)))</f>
         <v/>
       </c>
-      <c r="J67" s="9" t="n">
+      <c r="J67" s="10" t="n">
         <f aca="true">IF(I67 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E67 * F67)</f>
         <v>0</v>
       </c>
@@ -2818,23 +2834,23 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="15" t="str">
+      <c r="B68" s="16" t="str">
         <f aca="false">IF(D68="","",VLOOKUP(D68,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C68" s="15" t="str">
+      <c r="C68" s="16" t="str">
         <f aca="false">IF(D68="","",VLOOKUP(D68,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G68" s="16" t="str">
+      <c r="G68" s="17" t="str">
         <f aca="true">IF(H68="", IF(I68="","",(INDIRECT("M" &amp; ROW() - 1) - M68)),IF(I68="", "", INDIRECT("M" &amp; ROW() - 1) - M68))</f>
         <v/>
       </c>
-      <c r="H68" s="16" t="str">
+      <c r="H68" s="17" t="str">
         <f aca="false">IF(D68="", "", IF(I68="-", "", E68 * IF(F68="",1,F68)))</f>
         <v/>
       </c>
-      <c r="J68" s="9" t="n">
+      <c r="J68" s="10" t="n">
         <f aca="true">IF(I68 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E68 * F68)</f>
         <v>0</v>
       </c>
@@ -2852,23 +2868,23 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="15" t="str">
+      <c r="B69" s="16" t="str">
         <f aca="false">IF(D69="","",VLOOKUP(D69,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C69" s="15" t="str">
+      <c r="C69" s="16" t="str">
         <f aca="false">IF(D69="","",VLOOKUP(D69,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G69" s="16" t="str">
+      <c r="G69" s="17" t="str">
         <f aca="true">IF(H69="", IF(I69="","",(INDIRECT("M" &amp; ROW() - 1) - M69)),IF(I69="", "", INDIRECT("M" &amp; ROW() - 1) - M69))</f>
         <v/>
       </c>
-      <c r="H69" s="16" t="str">
+      <c r="H69" s="17" t="str">
         <f aca="false">IF(D69="", "", IF(I69="-", "", E69 * IF(F69="",1,F69)))</f>
         <v/>
       </c>
-      <c r="J69" s="9" t="n">
+      <c r="J69" s="10" t="n">
         <f aca="true">IF(I69 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E69 * F69)</f>
         <v>0</v>
       </c>
@@ -2886,23 +2902,23 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="15" t="str">
+      <c r="B70" s="16" t="str">
         <f aca="false">IF(D70="","",VLOOKUP(D70,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C70" s="15" t="str">
+      <c r="C70" s="16" t="str">
         <f aca="false">IF(D70="","",VLOOKUP(D70,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G70" s="16" t="str">
+      <c r="G70" s="17" t="str">
         <f aca="true">IF(H70="", IF(I70="","",(INDIRECT("M" &amp; ROW() - 1) - M70)),IF(I70="", "", INDIRECT("M" &amp; ROW() - 1) - M70))</f>
         <v/>
       </c>
-      <c r="H70" s="16" t="str">
+      <c r="H70" s="17" t="str">
         <f aca="false">IF(D70="", "", IF(I70="-", "", E70 * IF(F70="",1,F70)))</f>
         <v/>
       </c>
-      <c r="J70" s="9" t="n">
+      <c r="J70" s="10" t="n">
         <f aca="true">IF(I70 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E70 * F70)</f>
         <v>0</v>
       </c>
@@ -2920,23 +2936,23 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="15" t="str">
+      <c r="B71" s="16" t="str">
         <f aca="false">IF(D71="","",VLOOKUP(D71,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C71" s="15" t="str">
+      <c r="C71" s="16" t="str">
         <f aca="false">IF(D71="","",VLOOKUP(D71,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G71" s="16" t="str">
+      <c r="G71" s="17" t="str">
         <f aca="true">IF(H71="", IF(I71="","",(INDIRECT("M" &amp; ROW() - 1) - M71)),IF(I71="", "", INDIRECT("M" &amp; ROW() - 1) - M71))</f>
         <v/>
       </c>
-      <c r="H71" s="16" t="str">
+      <c r="H71" s="17" t="str">
         <f aca="false">IF(D71="", "", IF(I71="-", "", E71 * IF(F71="",1,F71)))</f>
         <v/>
       </c>
-      <c r="J71" s="9" t="n">
+      <c r="J71" s="10" t="n">
         <f aca="true">IF(I71 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E71 * F71)</f>
         <v>0</v>
       </c>
@@ -2954,23 +2970,23 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="15" t="str">
+      <c r="B72" s="16" t="str">
         <f aca="false">IF(D72="","",VLOOKUP(D72,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C72" s="15" t="str">
+      <c r="C72" s="16" t="str">
         <f aca="false">IF(D72="","",VLOOKUP(D72,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G72" s="16" t="str">
+      <c r="G72" s="17" t="str">
         <f aca="true">IF(H72="", IF(I72="","",(INDIRECT("M" &amp; ROW() - 1) - M72)),IF(I72="", "", INDIRECT("M" &amp; ROW() - 1) - M72))</f>
         <v/>
       </c>
-      <c r="H72" s="16" t="str">
+      <c r="H72" s="17" t="str">
         <f aca="false">IF(D72="", "", IF(I72="-", "", E72 * IF(F72="",1,F72)))</f>
         <v/>
       </c>
-      <c r="J72" s="9" t="n">
+      <c r="J72" s="10" t="n">
         <f aca="true">IF(I72 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E72 * F72)</f>
         <v>0</v>
       </c>
@@ -2988,23 +3004,23 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="15" t="str">
+      <c r="B73" s="16" t="str">
         <f aca="false">IF(D73="","",VLOOKUP(D73,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C73" s="15" t="str">
+      <c r="C73" s="16" t="str">
         <f aca="false">IF(D73="","",VLOOKUP(D73,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G73" s="16" t="str">
+      <c r="G73" s="17" t="str">
         <f aca="true">IF(H73="", IF(I73="","",(INDIRECT("M" &amp; ROW() - 1) - M73)),IF(I73="", "", INDIRECT("M" &amp; ROW() - 1) - M73))</f>
         <v/>
       </c>
-      <c r="H73" s="16" t="str">
+      <c r="H73" s="17" t="str">
         <f aca="false">IF(D73="", "", IF(I73="-", "", E73 * IF(F73="",1,F73)))</f>
         <v/>
       </c>
-      <c r="J73" s="9" t="n">
+      <c r="J73" s="10" t="n">
         <f aca="true">IF(I73 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E73 * F73)</f>
         <v>0</v>
       </c>
@@ -3022,23 +3038,23 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="15" t="str">
+      <c r="B74" s="16" t="str">
         <f aca="false">IF(D74="","",VLOOKUP(D74,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C74" s="15" t="str">
+      <c r="C74" s="16" t="str">
         <f aca="false">IF(D74="","",VLOOKUP(D74,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G74" s="16" t="str">
+      <c r="G74" s="17" t="str">
         <f aca="true">IF(H74="", IF(I74="","",(INDIRECT("M" &amp; ROW() - 1) - M74)),IF(I74="", "", INDIRECT("M" &amp; ROW() - 1) - M74))</f>
         <v/>
       </c>
-      <c r="H74" s="16" t="str">
+      <c r="H74" s="17" t="str">
         <f aca="false">IF(D74="", "", IF(I74="-", "", E74 * IF(F74="",1,F74)))</f>
         <v/>
       </c>
-      <c r="J74" s="9" t="n">
+      <c r="J74" s="10" t="n">
         <f aca="true">IF(I74 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E74 * F74)</f>
         <v>0</v>
       </c>
@@ -3056,23 +3072,23 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="15" t="str">
+      <c r="B75" s="16" t="str">
         <f aca="false">IF(D75="","",VLOOKUP(D75,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C75" s="15" t="str">
+      <c r="C75" s="16" t="str">
         <f aca="false">IF(D75="","",VLOOKUP(D75,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G75" s="16" t="str">
+      <c r="G75" s="17" t="str">
         <f aca="true">IF(H75="", IF(I75="","",(INDIRECT("M" &amp; ROW() - 1) - M75)),IF(I75="", "", INDIRECT("M" &amp; ROW() - 1) - M75))</f>
         <v/>
       </c>
-      <c r="H75" s="16" t="str">
+      <c r="H75" s="17" t="str">
         <f aca="false">IF(D75="", "", IF(I75="-", "", E75 * IF(F75="",1,F75)))</f>
         <v/>
       </c>
-      <c r="J75" s="9" t="n">
+      <c r="J75" s="10" t="n">
         <f aca="true">IF(I75 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E75 * F75)</f>
         <v>0</v>
       </c>
@@ -3090,23 +3106,23 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="15" t="str">
+      <c r="B76" s="16" t="str">
         <f aca="false">IF(D76="","",VLOOKUP(D76,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C76" s="15" t="str">
+      <c r="C76" s="16" t="str">
         <f aca="false">IF(D76="","",VLOOKUP(D76,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G76" s="16" t="str">
+      <c r="G76" s="17" t="str">
         <f aca="true">IF(H76="", IF(I76="","",(INDIRECT("M" &amp; ROW() - 1) - M76)),IF(I76="", "", INDIRECT("M" &amp; ROW() - 1) - M76))</f>
         <v/>
       </c>
-      <c r="H76" s="16" t="str">
+      <c r="H76" s="17" t="str">
         <f aca="false">IF(D76="", "", IF(I76="-", "", E76 * IF(F76="",1,F76)))</f>
         <v/>
       </c>
-      <c r="J76" s="9" t="n">
+      <c r="J76" s="10" t="n">
         <f aca="true">IF(I76 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E76 * F76)</f>
         <v>0</v>
       </c>
@@ -3124,23 +3140,23 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="15" t="str">
+      <c r="B77" s="16" t="str">
         <f aca="false">IF(D77="","",VLOOKUP(D77,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C77" s="15" t="str">
+      <c r="C77" s="16" t="str">
         <f aca="false">IF(D77="","",VLOOKUP(D77,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G77" s="16" t="str">
+      <c r="G77" s="17" t="str">
         <f aca="true">IF(H77="", IF(I77="","",(INDIRECT("M" &amp; ROW() - 1) - M77)),IF(I77="", "", INDIRECT("M" &amp; ROW() - 1) - M77))</f>
         <v/>
       </c>
-      <c r="H77" s="16" t="str">
+      <c r="H77" s="17" t="str">
         <f aca="false">IF(D77="", "", IF(I77="-", "", E77 * IF(F77="",1,F77)))</f>
         <v/>
       </c>
-      <c r="J77" s="9" t="n">
+      <c r="J77" s="10" t="n">
         <f aca="true">IF(I77 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E77 * F77)</f>
         <v>0</v>
       </c>
@@ -3158,23 +3174,23 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="15" t="str">
+      <c r="B78" s="16" t="str">
         <f aca="false">IF(D78="","",VLOOKUP(D78,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C78" s="15" t="str">
+      <c r="C78" s="16" t="str">
         <f aca="false">IF(D78="","",VLOOKUP(D78,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G78" s="16" t="str">
+      <c r="G78" s="17" t="str">
         <f aca="true">IF(H78="", IF(I78="","",(INDIRECT("M" &amp; ROW() - 1) - M78)),IF(I78="", "", INDIRECT("M" &amp; ROW() - 1) - M78))</f>
         <v/>
       </c>
-      <c r="H78" s="16" t="str">
+      <c r="H78" s="17" t="str">
         <f aca="false">IF(D78="", "", IF(I78="-", "", E78 * IF(F78="",1,F78)))</f>
         <v/>
       </c>
-      <c r="J78" s="9" t="n">
+      <c r="J78" s="10" t="n">
         <f aca="true">IF(I78 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E78 * F78)</f>
         <v>0</v>
       </c>
@@ -3192,23 +3208,23 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="15" t="str">
+      <c r="B79" s="16" t="str">
         <f aca="false">IF(D79="","",VLOOKUP(D79,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C79" s="15" t="str">
+      <c r="C79" s="16" t="str">
         <f aca="false">IF(D79="","",VLOOKUP(D79,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G79" s="16" t="str">
+      <c r="G79" s="17" t="str">
         <f aca="true">IF(H79="", IF(I79="","",(INDIRECT("M" &amp; ROW() - 1) - M79)),IF(I79="", "", INDIRECT("M" &amp; ROW() - 1) - M79))</f>
         <v/>
       </c>
-      <c r="H79" s="16" t="str">
+      <c r="H79" s="17" t="str">
         <f aca="false">IF(D79="", "", IF(I79="-", "", E79 * IF(F79="",1,F79)))</f>
         <v/>
       </c>
-      <c r="J79" s="9" t="n">
+      <c r="J79" s="10" t="n">
         <f aca="true">IF(I79 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E79 * F79)</f>
         <v>0</v>
       </c>
@@ -3226,23 +3242,23 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="15" t="str">
+      <c r="B80" s="16" t="str">
         <f aca="false">IF(D80="","",VLOOKUP(D80,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C80" s="15" t="str">
+      <c r="C80" s="16" t="str">
         <f aca="false">IF(D80="","",VLOOKUP(D80,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G80" s="16" t="str">
+      <c r="G80" s="17" t="str">
         <f aca="true">IF(H80="", IF(I80="","",(INDIRECT("M" &amp; ROW() - 1) - M80)),IF(I80="", "", INDIRECT("M" &amp; ROW() - 1) - M80))</f>
         <v/>
       </c>
-      <c r="H80" s="16" t="str">
+      <c r="H80" s="17" t="str">
         <f aca="false">IF(D80="", "", IF(I80="-", "", E80 * IF(F80="",1,F80)))</f>
         <v/>
       </c>
-      <c r="J80" s="9" t="n">
+      <c r="J80" s="10" t="n">
         <f aca="true">IF(I80 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E80 * F80)</f>
         <v>0</v>
       </c>
@@ -3260,23 +3276,23 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="15" t="str">
+      <c r="B81" s="16" t="str">
         <f aca="false">IF(D81="","",VLOOKUP(D81,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C81" s="15" t="str">
+      <c r="C81" s="16" t="str">
         <f aca="false">IF(D81="","",VLOOKUP(D81,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G81" s="16" t="str">
+      <c r="G81" s="17" t="str">
         <f aca="true">IF(H81="", IF(I81="","",(INDIRECT("M" &amp; ROW() - 1) - M81)),IF(I81="", "", INDIRECT("M" &amp; ROW() - 1) - M81))</f>
         <v/>
       </c>
-      <c r="H81" s="16" t="str">
+      <c r="H81" s="17" t="str">
         <f aca="false">IF(D81="", "", IF(I81="-", "", E81 * IF(F81="",1,F81)))</f>
         <v/>
       </c>
-      <c r="J81" s="9" t="n">
+      <c r="J81" s="10" t="n">
         <f aca="true">IF(I81 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E81 * F81)</f>
         <v>0</v>
       </c>
@@ -3294,23 +3310,23 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="15" t="str">
+      <c r="B82" s="16" t="str">
         <f aca="false">IF(D82="","",VLOOKUP(D82,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C82" s="15" t="str">
+      <c r="C82" s="16" t="str">
         <f aca="false">IF(D82="","",VLOOKUP(D82,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G82" s="16" t="str">
+      <c r="G82" s="17" t="str">
         <f aca="true">IF(H82="", IF(I82="","",(INDIRECT("M" &amp; ROW() - 1) - M82)),IF(I82="", "", INDIRECT("M" &amp; ROW() - 1) - M82))</f>
         <v/>
       </c>
-      <c r="H82" s="16" t="str">
+      <c r="H82" s="17" t="str">
         <f aca="false">IF(D82="", "", IF(I82="-", "", E82 * IF(F82="",1,F82)))</f>
         <v/>
       </c>
-      <c r="J82" s="9" t="n">
+      <c r="J82" s="10" t="n">
         <f aca="true">IF(I82 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E82 * F82)</f>
         <v>0</v>
       </c>
@@ -3328,23 +3344,23 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="15" t="str">
+      <c r="B83" s="16" t="str">
         <f aca="false">IF(D83="","",VLOOKUP(D83,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C83" s="15" t="str">
+      <c r="C83" s="16" t="str">
         <f aca="false">IF(D83="","",VLOOKUP(D83,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G83" s="16" t="str">
+      <c r="G83" s="17" t="str">
         <f aca="true">IF(H83="", IF(I83="","",(INDIRECT("M" &amp; ROW() - 1) - M83)),IF(I83="", "", INDIRECT("M" &amp; ROW() - 1) - M83))</f>
         <v/>
       </c>
-      <c r="H83" s="16" t="str">
+      <c r="H83" s="17" t="str">
         <f aca="false">IF(D83="", "", IF(I83="-", "", E83 * IF(F83="",1,F83)))</f>
         <v/>
       </c>
-      <c r="J83" s="9" t="n">
+      <c r="J83" s="10" t="n">
         <f aca="true">IF(I83 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E83 * F83)</f>
         <v>0</v>
       </c>
@@ -3362,23 +3378,23 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="15" t="str">
+      <c r="B84" s="16" t="str">
         <f aca="false">IF(D84="","",VLOOKUP(D84,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C84" s="15" t="str">
+      <c r="C84" s="16" t="str">
         <f aca="false">IF(D84="","",VLOOKUP(D84,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G84" s="16" t="str">
+      <c r="G84" s="17" t="str">
         <f aca="true">IF(H84="", IF(I84="","",(INDIRECT("M" &amp; ROW() - 1) - M84)),IF(I84="", "", INDIRECT("M" &amp; ROW() - 1) - M84))</f>
         <v/>
       </c>
-      <c r="H84" s="16" t="str">
+      <c r="H84" s="17" t="str">
         <f aca="false">IF(D84="", "", IF(I84="-", "", E84 * IF(F84="",1,F84)))</f>
         <v/>
       </c>
-      <c r="J84" s="9" t="n">
+      <c r="J84" s="10" t="n">
         <f aca="true">IF(I84 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E84 * F84)</f>
         <v>0</v>
       </c>
@@ -3396,23 +3412,23 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="15" t="str">
+      <c r="B85" s="16" t="str">
         <f aca="false">IF(D85="","",VLOOKUP(D85,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C85" s="15" t="str">
+      <c r="C85" s="16" t="str">
         <f aca="false">IF(D85="","",VLOOKUP(D85,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G85" s="16" t="str">
+      <c r="G85" s="17" t="str">
         <f aca="true">IF(H85="", IF(I85="","",(INDIRECT("M" &amp; ROW() - 1) - M85)),IF(I85="", "", INDIRECT("M" &amp; ROW() - 1) - M85))</f>
         <v/>
       </c>
-      <c r="H85" s="16" t="str">
+      <c r="H85" s="17" t="str">
         <f aca="false">IF(D85="", "", IF(I85="-", "", E85 * IF(F85="",1,F85)))</f>
         <v/>
       </c>
-      <c r="J85" s="9" t="n">
+      <c r="J85" s="10" t="n">
         <f aca="true">IF(I85 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E85 * F85)</f>
         <v>0</v>
       </c>
@@ -3430,23 +3446,23 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="15" t="str">
+      <c r="B86" s="16" t="str">
         <f aca="false">IF(D86="","",VLOOKUP(D86,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C86" s="15" t="str">
+      <c r="C86" s="16" t="str">
         <f aca="false">IF(D86="","",VLOOKUP(D86,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G86" s="16" t="str">
+      <c r="G86" s="17" t="str">
         <f aca="true">IF(H86="", IF(I86="","",(INDIRECT("M" &amp; ROW() - 1) - M86)),IF(I86="", "", INDIRECT("M" &amp; ROW() - 1) - M86))</f>
         <v/>
       </c>
-      <c r="H86" s="16" t="str">
+      <c r="H86" s="17" t="str">
         <f aca="false">IF(D86="", "", IF(I86="-", "", E86 * IF(F86="",1,F86)))</f>
         <v/>
       </c>
-      <c r="J86" s="9" t="n">
+      <c r="J86" s="10" t="n">
         <f aca="true">IF(I86 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E86 * F86)</f>
         <v>0</v>
       </c>
@@ -3464,23 +3480,23 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="15" t="str">
+      <c r="B87" s="16" t="str">
         <f aca="false">IF(D87="","",VLOOKUP(D87,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C87" s="15" t="str">
+      <c r="C87" s="16" t="str">
         <f aca="false">IF(D87="","",VLOOKUP(D87,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G87" s="16" t="str">
+      <c r="G87" s="17" t="str">
         <f aca="true">IF(H87="", IF(I87="","",(INDIRECT("M" &amp; ROW() - 1) - M87)),IF(I87="", "", INDIRECT("M" &amp; ROW() - 1) - M87))</f>
         <v/>
       </c>
-      <c r="H87" s="16" t="str">
+      <c r="H87" s="17" t="str">
         <f aca="false">IF(D87="", "", IF(I87="-", "", E87 * IF(F87="",1,F87)))</f>
         <v/>
       </c>
-      <c r="J87" s="9" t="n">
+      <c r="J87" s="10" t="n">
         <f aca="true">IF(I87 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E87 * F87)</f>
         <v>0</v>
       </c>
@@ -3498,23 +3514,23 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="15" t="str">
+      <c r="B88" s="16" t="str">
         <f aca="false">IF(D88="","",VLOOKUP(D88,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C88" s="15" t="str">
+      <c r="C88" s="16" t="str">
         <f aca="false">IF(D88="","",VLOOKUP(D88,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G88" s="16" t="str">
+      <c r="G88" s="17" t="str">
         <f aca="true">IF(H88="", IF(I88="","",(INDIRECT("M" &amp; ROW() - 1) - M88)),IF(I88="", "", INDIRECT("M" &amp; ROW() - 1) - M88))</f>
         <v/>
       </c>
-      <c r="H88" s="16" t="str">
+      <c r="H88" s="17" t="str">
         <f aca="false">IF(D88="", "", IF(I88="-", "", E88 * IF(F88="",1,F88)))</f>
         <v/>
       </c>
-      <c r="J88" s="9" t="n">
+      <c r="J88" s="10" t="n">
         <f aca="true">IF(I88 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E88 * F88)</f>
         <v>0</v>
       </c>
@@ -3532,23 +3548,23 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="15" t="str">
+      <c r="B89" s="16" t="str">
         <f aca="false">IF(D89="","",VLOOKUP(D89,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C89" s="15" t="str">
+      <c r="C89" s="16" t="str">
         <f aca="false">IF(D89="","",VLOOKUP(D89,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G89" s="16" t="str">
+      <c r="G89" s="17" t="str">
         <f aca="true">IF(H89="", IF(I89="","",(INDIRECT("M" &amp; ROW() - 1) - M89)),IF(I89="", "", INDIRECT("M" &amp; ROW() - 1) - M89))</f>
         <v/>
       </c>
-      <c r="H89" s="16" t="str">
+      <c r="H89" s="17" t="str">
         <f aca="false">IF(D89="", "", IF(I89="-", "", E89 * IF(F89="",1,F89)))</f>
         <v/>
       </c>
-      <c r="J89" s="9" t="n">
+      <c r="J89" s="10" t="n">
         <f aca="true">IF(I89 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E89 * F89)</f>
         <v>0</v>
       </c>
@@ -3566,23 +3582,23 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="15" t="str">
+      <c r="B90" s="16" t="str">
         <f aca="false">IF(D90="","",VLOOKUP(D90,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C90" s="15" t="str">
+      <c r="C90" s="16" t="str">
         <f aca="false">IF(D90="","",VLOOKUP(D90,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G90" s="16" t="str">
+      <c r="G90" s="17" t="str">
         <f aca="true">IF(H90="", IF(I90="","",(INDIRECT("M" &amp; ROW() - 1) - M90)),IF(I90="", "", INDIRECT("M" &amp; ROW() - 1) - M90))</f>
         <v/>
       </c>
-      <c r="H90" s="16" t="str">
+      <c r="H90" s="17" t="str">
         <f aca="false">IF(D90="", "", IF(I90="-", "", E90 * IF(F90="",1,F90)))</f>
         <v/>
       </c>
-      <c r="J90" s="9" t="n">
+      <c r="J90" s="10" t="n">
         <f aca="true">IF(I90 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E90 * F90)</f>
         <v>0</v>
       </c>
@@ -3600,23 +3616,23 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="15" t="str">
+      <c r="B91" s="16" t="str">
         <f aca="false">IF(D91="","",VLOOKUP(D91,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C91" s="15" t="str">
+      <c r="C91" s="16" t="str">
         <f aca="false">IF(D91="","",VLOOKUP(D91,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G91" s="16" t="str">
+      <c r="G91" s="17" t="str">
         <f aca="true">IF(H91="", IF(I91="","",(INDIRECT("M" &amp; ROW() - 1) - M91)),IF(I91="", "", INDIRECT("M" &amp; ROW() - 1) - M91))</f>
         <v/>
       </c>
-      <c r="H91" s="16" t="str">
+      <c r="H91" s="17" t="str">
         <f aca="false">IF(D91="", "", IF(I91="-", "", E91 * IF(F91="",1,F91)))</f>
         <v/>
       </c>
-      <c r="J91" s="9" t="n">
+      <c r="J91" s="10" t="n">
         <f aca="true">IF(I91 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E91 * F91)</f>
         <v>0</v>
       </c>
@@ -3634,23 +3650,23 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="15" t="str">
+      <c r="B92" s="16" t="str">
         <f aca="false">IF(D92="","",VLOOKUP(D92,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C92" s="15" t="str">
+      <c r="C92" s="16" t="str">
         <f aca="false">IF(D92="","",VLOOKUP(D92,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G92" s="16" t="str">
+      <c r="G92" s="17" t="str">
         <f aca="true">IF(H92="", IF(I92="","",(INDIRECT("M" &amp; ROW() - 1) - M92)),IF(I92="", "", INDIRECT("M" &amp; ROW() - 1) - M92))</f>
         <v/>
       </c>
-      <c r="H92" s="16" t="str">
+      <c r="H92" s="17" t="str">
         <f aca="false">IF(D92="", "", IF(I92="-", "", E92 * IF(F92="",1,F92)))</f>
         <v/>
       </c>
-      <c r="J92" s="9" t="n">
+      <c r="J92" s="10" t="n">
         <f aca="true">IF(I92 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E92 * F92)</f>
         <v>0</v>
       </c>
@@ -3668,23 +3684,23 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="15" t="str">
+      <c r="B93" s="16" t="str">
         <f aca="false">IF(D93="","",VLOOKUP(D93,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C93" s="15" t="str">
+      <c r="C93" s="16" t="str">
         <f aca="false">IF(D93="","",VLOOKUP(D93,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G93" s="16" t="str">
+      <c r="G93" s="17" t="str">
         <f aca="true">IF(H93="", IF(I93="","",(INDIRECT("M" &amp; ROW() - 1) - M93)),IF(I93="", "", INDIRECT("M" &amp; ROW() - 1) - M93))</f>
         <v/>
       </c>
-      <c r="H93" s="16" t="str">
+      <c r="H93" s="17" t="str">
         <f aca="false">IF(D93="", "", IF(I93="-", "", E93 * IF(F93="",1,F93)))</f>
         <v/>
       </c>
-      <c r="J93" s="9" t="n">
+      <c r="J93" s="10" t="n">
         <f aca="true">IF(I93 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E93 * F93)</f>
         <v>0</v>
       </c>
@@ -3702,23 +3718,23 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="15" t="str">
+      <c r="B94" s="16" t="str">
         <f aca="false">IF(D94="","",VLOOKUP(D94,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C94" s="15" t="str">
+      <c r="C94" s="16" t="str">
         <f aca="false">IF(D94="","",VLOOKUP(D94,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G94" s="16" t="str">
+      <c r="G94" s="17" t="str">
         <f aca="true">IF(H94="", IF(I94="","",(INDIRECT("M" &amp; ROW() - 1) - M94)),IF(I94="", "", INDIRECT("M" &amp; ROW() - 1) - M94))</f>
         <v/>
       </c>
-      <c r="H94" s="16" t="str">
+      <c r="H94" s="17" t="str">
         <f aca="false">IF(D94="", "", IF(I94="-", "", E94 * IF(F94="",1,F94)))</f>
         <v/>
       </c>
-      <c r="J94" s="9" t="n">
+      <c r="J94" s="10" t="n">
         <f aca="true">IF(I94 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E94 * F94)</f>
         <v>0</v>
       </c>
@@ -3736,23 +3752,23 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="15" t="str">
+      <c r="B95" s="16" t="str">
         <f aca="false">IF(D95="","",VLOOKUP(D95,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C95" s="15" t="str">
+      <c r="C95" s="16" t="str">
         <f aca="false">IF(D95="","",VLOOKUP(D95,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G95" s="16" t="str">
+      <c r="G95" s="17" t="str">
         <f aca="true">IF(H95="", IF(I95="","",(INDIRECT("M" &amp; ROW() - 1) - M95)),IF(I95="", "", INDIRECT("M" &amp; ROW() - 1) - M95))</f>
         <v/>
       </c>
-      <c r="H95" s="16" t="str">
+      <c r="H95" s="17" t="str">
         <f aca="false">IF(D95="", "", IF(I95="-", "", E95 * IF(F95="",1,F95)))</f>
         <v/>
       </c>
-      <c r="J95" s="9" t="n">
+      <c r="J95" s="10" t="n">
         <f aca="true">IF(I95 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E95 * F95)</f>
         <v>0</v>
       </c>
@@ -3770,23 +3786,23 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="15" t="str">
+      <c r="B96" s="16" t="str">
         <f aca="false">IF(D96="","",VLOOKUP(D96,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C96" s="15" t="str">
+      <c r="C96" s="16" t="str">
         <f aca="false">IF(D96="","",VLOOKUP(D96,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G96" s="16" t="str">
+      <c r="G96" s="17" t="str">
         <f aca="true">IF(H96="", IF(I96="","",(INDIRECT("M" &amp; ROW() - 1) - M96)),IF(I96="", "", INDIRECT("M" &amp; ROW() - 1) - M96))</f>
         <v/>
       </c>
-      <c r="H96" s="16" t="str">
+      <c r="H96" s="17" t="str">
         <f aca="false">IF(D96="", "", IF(I96="-", "", E96 * IF(F96="",1,F96)))</f>
         <v/>
       </c>
-      <c r="J96" s="9" t="n">
+      <c r="J96" s="10" t="n">
         <f aca="true">IF(I96 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E96 * F96)</f>
         <v>0</v>
       </c>
@@ -3804,23 +3820,23 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="15" t="str">
+      <c r="B97" s="16" t="str">
         <f aca="false">IF(D97="","",VLOOKUP(D97,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C97" s="15" t="str">
+      <c r="C97" s="16" t="str">
         <f aca="false">IF(D97="","",VLOOKUP(D97,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G97" s="16" t="str">
+      <c r="G97" s="17" t="str">
         <f aca="true">IF(H97="", IF(I97="","",(INDIRECT("M" &amp; ROW() - 1) - M97)),IF(I97="", "", INDIRECT("M" &amp; ROW() - 1) - M97))</f>
         <v/>
       </c>
-      <c r="H97" s="16" t="str">
+      <c r="H97" s="17" t="str">
         <f aca="false">IF(D97="", "", IF(I97="-", "", E97 * IF(F97="",1,F97)))</f>
         <v/>
       </c>
-      <c r="J97" s="9" t="n">
+      <c r="J97" s="10" t="n">
         <f aca="true">IF(I97 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E97 * F97)</f>
         <v>0</v>
       </c>
@@ -3838,23 +3854,23 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="15" t="str">
+      <c r="B98" s="16" t="str">
         <f aca="false">IF(D98="","",VLOOKUP(D98,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C98" s="15" t="str">
+      <c r="C98" s="16" t="str">
         <f aca="false">IF(D98="","",VLOOKUP(D98,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G98" s="16" t="str">
+      <c r="G98" s="17" t="str">
         <f aca="true">IF(H98="", IF(I98="","",(INDIRECT("M" &amp; ROW() - 1) - M98)),IF(I98="", "", INDIRECT("M" &amp; ROW() - 1) - M98))</f>
         <v/>
       </c>
-      <c r="H98" s="16" t="str">
+      <c r="H98" s="17" t="str">
         <f aca="false">IF(D98="", "", IF(I98="-", "", E98 * IF(F98="",1,F98)))</f>
         <v/>
       </c>
-      <c r="J98" s="9" t="n">
+      <c r="J98" s="10" t="n">
         <f aca="true">IF(I98 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E98 * F98)</f>
         <v>0</v>
       </c>
@@ -3872,23 +3888,23 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="15" t="str">
+      <c r="B99" s="16" t="str">
         <f aca="false">IF(D99="","",VLOOKUP(D99,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C99" s="15" t="str">
+      <c r="C99" s="16" t="str">
         <f aca="false">IF(D99="","",VLOOKUP(D99,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G99" s="16" t="str">
+      <c r="G99" s="17" t="str">
         <f aca="true">IF(H99="", IF(I99="","",(INDIRECT("M" &amp; ROW() - 1) - M99)),IF(I99="", "", INDIRECT("M" &amp; ROW() - 1) - M99))</f>
         <v/>
       </c>
-      <c r="H99" s="16" t="str">
+      <c r="H99" s="17" t="str">
         <f aca="false">IF(D99="", "", IF(I99="-", "", E99 * IF(F99="",1,F99)))</f>
         <v/>
       </c>
-      <c r="J99" s="9" t="n">
+      <c r="J99" s="10" t="n">
         <f aca="true">IF(I99 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E99 * F99)</f>
         <v>0</v>
       </c>
@@ -3906,23 +3922,23 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="15" t="str">
+      <c r="B100" s="16" t="str">
         <f aca="false">IF(D100="","",VLOOKUP(D100,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C100" s="15" t="str">
+      <c r="C100" s="16" t="str">
         <f aca="false">IF(D100="","",VLOOKUP(D100,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G100" s="16" t="str">
+      <c r="G100" s="17" t="str">
         <f aca="true">IF(H100="", IF(I100="","",(INDIRECT("M" &amp; ROW() - 1) - M100)),IF(I100="", "", INDIRECT("M" &amp; ROW() - 1) - M100))</f>
         <v/>
       </c>
-      <c r="H100" s="16" t="str">
+      <c r="H100" s="17" t="str">
         <f aca="false">IF(D100="", "", IF(I100="-", "", E100 * IF(F100="",1,F100)))</f>
         <v/>
       </c>
-      <c r="J100" s="9" t="n">
+      <c r="J100" s="10" t="n">
         <f aca="true">IF(I100 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E100 * F100)</f>
         <v>0</v>
       </c>
@@ -3940,23 +3956,23 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="15" t="str">
+      <c r="B101" s="16" t="str">
         <f aca="false">IF(D101="","",VLOOKUP(D101,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C101" s="15" t="str">
+      <c r="C101" s="16" t="str">
         <f aca="false">IF(D101="","",VLOOKUP(D101,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G101" s="16" t="str">
+      <c r="G101" s="17" t="str">
         <f aca="true">IF(H101="", IF(I101="","",(INDIRECT("M" &amp; ROW() - 1) - M101)),IF(I101="", "", INDIRECT("M" &amp; ROW() - 1) - M101))</f>
         <v/>
       </c>
-      <c r="H101" s="16" t="str">
+      <c r="H101" s="17" t="str">
         <f aca="false">IF(D101="", "", IF(I101="-", "", E101 * IF(F101="",1,F101)))</f>
         <v/>
       </c>
-      <c r="J101" s="9" t="n">
+      <c r="J101" s="10" t="n">
         <f aca="true">IF(I101 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E101 * F101)</f>
         <v>0</v>
       </c>
@@ -3974,23 +3990,23 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="15" t="str">
+      <c r="B102" s="16" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C102" s="15" t="str">
+      <c r="C102" s="16" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G102" s="16" t="str">
+      <c r="G102" s="17" t="str">
         <f aca="true">IF(H102="", IF(I102="","",(INDIRECT("M" &amp; ROW() - 1) - M102)),IF(I102="", "", INDIRECT("M" &amp; ROW() - 1) - M102))</f>
         <v/>
       </c>
-      <c r="H102" s="16" t="str">
+      <c r="H102" s="17" t="str">
         <f aca="false">IF(D102="", "", IF(I102="-", "", E102 * IF(F102="",1,F102)))</f>
         <v/>
       </c>
-      <c r="J102" s="9" t="n">
+      <c r="J102" s="10" t="n">
         <f aca="true">IF(I102 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E102 * F102)</f>
         <v>0</v>
       </c>
@@ -4008,23 +4024,23 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="15" t="str">
+      <c r="B103" s="16" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C103" s="15" t="str">
+      <c r="C103" s="16" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G103" s="16" t="str">
+      <c r="G103" s="17" t="str">
         <f aca="true">IF(H103="", IF(I103="","",(INDIRECT("M" &amp; ROW() - 1) - M103)),IF(I103="", "", INDIRECT("M" &amp; ROW() - 1) - M103))</f>
         <v/>
       </c>
-      <c r="H103" s="16" t="str">
+      <c r="H103" s="17" t="str">
         <f aca="false">IF(D103="", "", IF(I103="-", "", E103 * IF(F103="",1,F103)))</f>
         <v/>
       </c>
-      <c r="J103" s="9" t="n">
+      <c r="J103" s="10" t="n">
         <f aca="true">IF(I103 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E103 * F103)</f>
         <v>0</v>
       </c>
@@ -4042,23 +4058,23 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="15" t="str">
+      <c r="B104" s="16" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C104" s="15" t="str">
+      <c r="C104" s="16" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G104" s="16" t="str">
+      <c r="G104" s="17" t="str">
         <f aca="true">IF(H104="", IF(I104="","",(INDIRECT("M" &amp; ROW() - 1) - M104)),IF(I104="", "", INDIRECT("M" &amp; ROW() - 1) - M104))</f>
         <v/>
       </c>
-      <c r="H104" s="16" t="str">
+      <c r="H104" s="17" t="str">
         <f aca="false">IF(D104="", "", IF(I104="-", "", E104 * IF(F104="",1,F104)))</f>
         <v/>
       </c>
-      <c r="J104" s="9" t="n">
+      <c r="J104" s="10" t="n">
         <f aca="true">IF(I104 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E104 * F104)</f>
         <v>0</v>
       </c>
@@ -4076,23 +4092,23 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="15" t="str">
+      <c r="B105" s="16" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C105" s="15" t="str">
+      <c r="C105" s="16" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G105" s="16" t="str">
+      <c r="G105" s="17" t="str">
         <f aca="true">IF(H105="", IF(I105="","",(INDIRECT("M" &amp; ROW() - 1) - M105)),IF(I105="", "", INDIRECT("M" &amp; ROW() - 1) - M105))</f>
         <v/>
       </c>
-      <c r="H105" s="16" t="str">
+      <c r="H105" s="17" t="str">
         <f aca="false">IF(D105="", "", IF(I105="-", "", E105 * IF(F105="",1,F105)))</f>
         <v/>
       </c>
-      <c r="J105" s="9" t="n">
+      <c r="J105" s="10" t="n">
         <f aca="true">IF(I105 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E105 * F105)</f>
         <v>0</v>
       </c>
@@ -4110,23 +4126,23 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="15" t="str">
+      <c r="B106" s="16" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C106" s="15" t="str">
+      <c r="C106" s="16" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G106" s="16" t="str">
+      <c r="G106" s="17" t="str">
         <f aca="true">IF(H106="", IF(I106="","",(INDIRECT("M" &amp; ROW() - 1) - M106)),IF(I106="", "", INDIRECT("M" &amp; ROW() - 1) - M106))</f>
         <v/>
       </c>
-      <c r="H106" s="16" t="str">
+      <c r="H106" s="17" t="str">
         <f aca="false">IF(D106="", "", IF(I106="-", "", E106 * IF(F106="",1,F106)))</f>
         <v/>
       </c>
-      <c r="J106" s="9" t="n">
+      <c r="J106" s="10" t="n">
         <f aca="true">IF(I106 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E106 * F106)</f>
         <v>0</v>
       </c>
@@ -4144,23 +4160,23 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="15" t="str">
+      <c r="B107" s="16" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C107" s="15" t="str">
+      <c r="C107" s="16" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G107" s="16" t="str">
+      <c r="G107" s="17" t="str">
         <f aca="true">IF(H107="", IF(I107="","",(INDIRECT("M" &amp; ROW() - 1) - M107)),IF(I107="", "", INDIRECT("M" &amp; ROW() - 1) - M107))</f>
         <v/>
       </c>
-      <c r="H107" s="16" t="str">
+      <c r="H107" s="17" t="str">
         <f aca="false">IF(D107="", "", IF(I107="-", "", E107 * IF(F107="",1,F107)))</f>
         <v/>
       </c>
-      <c r="J107" s="9" t="n">
+      <c r="J107" s="10" t="n">
         <f aca="true">IF(I107 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E107 * F107)</f>
         <v>0</v>
       </c>
@@ -4178,23 +4194,23 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="15" t="str">
+      <c r="B108" s="16" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C108" s="15" t="str">
+      <c r="C108" s="16" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G108" s="16" t="str">
+      <c r="G108" s="17" t="str">
         <f aca="true">IF(H108="", IF(I108="","",(INDIRECT("M" &amp; ROW() - 1) - M108)),IF(I108="", "", INDIRECT("M" &amp; ROW() - 1) - M108))</f>
         <v/>
       </c>
-      <c r="H108" s="16" t="str">
+      <c r="H108" s="17" t="str">
         <f aca="false">IF(D108="", "", IF(I108="-", "", E108 * IF(F108="",1,F108)))</f>
         <v/>
       </c>
-      <c r="J108" s="9" t="n">
+      <c r="J108" s="10" t="n">
         <f aca="true">IF(I108 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E108 * F108)</f>
         <v>0</v>
       </c>
@@ -4212,23 +4228,23 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="15" t="str">
+      <c r="B109" s="16" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C109" s="15" t="str">
+      <c r="C109" s="16" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G109" s="16" t="str">
+      <c r="G109" s="17" t="str">
         <f aca="true">IF(H109="", IF(I109="","",(INDIRECT("M" &amp; ROW() - 1) - M109)),IF(I109="", "", INDIRECT("M" &amp; ROW() - 1) - M109))</f>
         <v/>
       </c>
-      <c r="H109" s="16" t="str">
+      <c r="H109" s="17" t="str">
         <f aca="false">IF(D109="", "", IF(I109="-", "", E109 * IF(F109="",1,F109)))</f>
         <v/>
       </c>
-      <c r="J109" s="9" t="n">
+      <c r="J109" s="10" t="n">
         <f aca="true">IF(I109 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E109 * F109)</f>
         <v>0</v>
       </c>
@@ -4246,23 +4262,23 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="15" t="str">
+      <c r="B110" s="16" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C110" s="15" t="str">
+      <c r="C110" s="16" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G110" s="16" t="str">
+      <c r="G110" s="17" t="str">
         <f aca="true">IF(H110="", IF(I110="","",(INDIRECT("M" &amp; ROW() - 1) - M110)),IF(I110="", "", INDIRECT("M" &amp; ROW() - 1) - M110))</f>
         <v/>
       </c>
-      <c r="H110" s="16" t="str">
+      <c r="H110" s="17" t="str">
         <f aca="false">IF(D110="", "", IF(I110="-", "", E110 * IF(F110="",1,F110)))</f>
         <v/>
       </c>
-      <c r="J110" s="9" t="n">
+      <c r="J110" s="10" t="n">
         <f aca="true">IF(I110 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E110 * F110)</f>
         <v>0</v>
       </c>
@@ -4280,23 +4296,23 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="15" t="str">
+      <c r="B111" s="16" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C111" s="15" t="str">
+      <c r="C111" s="16" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G111" s="16" t="str">
+      <c r="G111" s="17" t="str">
         <f aca="true">IF(H111="", IF(I111="","",(INDIRECT("M" &amp; ROW() - 1) - M111)),IF(I111="", "", INDIRECT("M" &amp; ROW() - 1) - M111))</f>
         <v/>
       </c>
-      <c r="H111" s="16" t="str">
+      <c r="H111" s="17" t="str">
         <f aca="false">IF(D111="", "", IF(I111="-", "", E111 * IF(F111="",1,F111)))</f>
         <v/>
       </c>
-      <c r="J111" s="9" t="n">
+      <c r="J111" s="10" t="n">
         <f aca="true">IF(I111 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E111 * F111)</f>
         <v>0</v>
       </c>
@@ -4314,23 +4330,23 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="15" t="str">
+      <c r="B112" s="16" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C112" s="15" t="str">
+      <c r="C112" s="16" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G112" s="16" t="str">
+      <c r="G112" s="17" t="str">
         <f aca="true">IF(H112="", IF(I112="","",(INDIRECT("M" &amp; ROW() - 1) - M112)),IF(I112="", "", INDIRECT("M" &amp; ROW() - 1) - M112))</f>
         <v/>
       </c>
-      <c r="H112" s="16" t="str">
+      <c r="H112" s="17" t="str">
         <f aca="false">IF(D112="", "", IF(I112="-", "", E112 * IF(F112="",1,F112)))</f>
         <v/>
       </c>
-      <c r="J112" s="9" t="n">
+      <c r="J112" s="10" t="n">
         <f aca="true">IF(I112 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E112 * F112)</f>
         <v>0</v>
       </c>
@@ -4348,23 +4364,23 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="15" t="str">
+      <c r="B113" s="16" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C113" s="15" t="str">
+      <c r="C113" s="16" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G113" s="16" t="str">
+      <c r="G113" s="17" t="str">
         <f aca="true">IF(H113="", IF(I113="","",(INDIRECT("M" &amp; ROW() - 1) - M113)),IF(I113="", "", INDIRECT("M" &amp; ROW() - 1) - M113))</f>
         <v/>
       </c>
-      <c r="H113" s="16" t="str">
+      <c r="H113" s="17" t="str">
         <f aca="false">IF(D113="", "", IF(I113="-", "", E113 * IF(F113="",1,F113)))</f>
         <v/>
       </c>
-      <c r="J113" s="9" t="n">
+      <c r="J113" s="10" t="n">
         <f aca="true">IF(I113 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E113 * F113)</f>
         <v>0</v>
       </c>
@@ -4382,23 +4398,23 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="15" t="str">
+      <c r="B114" s="16" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C114" s="15" t="str">
+      <c r="C114" s="16" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G114" s="16" t="str">
+      <c r="G114" s="17" t="str">
         <f aca="true">IF(H114="", IF(I114="","",(INDIRECT("M" &amp; ROW() - 1) - M114)),IF(I114="", "", INDIRECT("M" &amp; ROW() - 1) - M114))</f>
         <v/>
       </c>
-      <c r="H114" s="16" t="str">
+      <c r="H114" s="17" t="str">
         <f aca="false">IF(D114="", "", IF(I114="-", "", E114 * IF(F114="",1,F114)))</f>
         <v/>
       </c>
-      <c r="J114" s="9" t="n">
+      <c r="J114" s="10" t="n">
         <f aca="true">IF(I114 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E114 * F114)</f>
         <v>0</v>
       </c>
@@ -4416,23 +4432,23 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="15" t="str">
+      <c r="B115" s="16" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C115" s="15" t="str">
+      <c r="C115" s="16" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G115" s="16" t="str">
+      <c r="G115" s="17" t="str">
         <f aca="true">IF(H115="", IF(I115="","",(INDIRECT("M" &amp; ROW() - 1) - M115)),IF(I115="", "", INDIRECT("M" &amp; ROW() - 1) - M115))</f>
         <v/>
       </c>
-      <c r="H115" s="16" t="str">
+      <c r="H115" s="17" t="str">
         <f aca="false">IF(D115="", "", IF(I115="-", "", E115 * IF(F115="",1,F115)))</f>
         <v/>
       </c>
-      <c r="J115" s="9" t="n">
+      <c r="J115" s="10" t="n">
         <f aca="true">IF(I115 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E115 * F115)</f>
         <v>0</v>
       </c>
@@ -4450,23 +4466,23 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="15" t="str">
+      <c r="B116" s="16" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C116" s="15" t="str">
+      <c r="C116" s="16" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G116" s="16" t="str">
+      <c r="G116" s="17" t="str">
         <f aca="true">IF(H116="", IF(I116="","",(INDIRECT("M" &amp; ROW() - 1) - M116)),IF(I116="", "", INDIRECT("M" &amp; ROW() - 1) - M116))</f>
         <v/>
       </c>
-      <c r="H116" s="16" t="str">
+      <c r="H116" s="17" t="str">
         <f aca="false">IF(D116="", "", IF(I116="-", "", E116 * IF(F116="",1,F116)))</f>
         <v/>
       </c>
-      <c r="J116" s="9" t="n">
+      <c r="J116" s="10" t="n">
         <f aca="true">IF(I116 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E116 * F116)</f>
         <v>0</v>
       </c>
@@ -4484,23 +4500,23 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="15" t="str">
+      <c r="B117" s="16" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C117" s="15" t="str">
+      <c r="C117" s="16" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G117" s="16" t="str">
+      <c r="G117" s="17" t="str">
         <f aca="true">IF(H117="", IF(I117="","",(INDIRECT("M" &amp; ROW() - 1) - M117)),IF(I117="", "", INDIRECT("M" &amp; ROW() - 1) - M117))</f>
         <v/>
       </c>
-      <c r="H117" s="16" t="str">
+      <c r="H117" s="17" t="str">
         <f aca="false">IF(D117="", "", IF(I117="-", "", E117 * IF(F117="",1,F117)))</f>
         <v/>
       </c>
-      <c r="J117" s="9" t="n">
+      <c r="J117" s="10" t="n">
         <f aca="true">IF(I117 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E117 * F117)</f>
         <v>0</v>
       </c>
@@ -4518,23 +4534,23 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="15" t="str">
+      <c r="B118" s="16" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C118" s="15" t="str">
+      <c r="C118" s="16" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G118" s="16" t="str">
+      <c r="G118" s="17" t="str">
         <f aca="true">IF(H118="", IF(I118="","",(INDIRECT("M" &amp; ROW() - 1) - M118)),IF(I118="", "", INDIRECT("M" &amp; ROW() - 1) - M118))</f>
         <v/>
       </c>
-      <c r="H118" s="16" t="str">
+      <c r="H118" s="17" t="str">
         <f aca="false">IF(D118="", "", IF(I118="-", "", E118 * IF(F118="",1,F118)))</f>
         <v/>
       </c>
-      <c r="J118" s="9" t="n">
+      <c r="J118" s="10" t="n">
         <f aca="true">IF(I118 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E118 * F118)</f>
         <v>0</v>
       </c>
@@ -4552,23 +4568,23 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="15" t="str">
+      <c r="B119" s="16" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C119" s="15" t="str">
+      <c r="C119" s="16" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G119" s="16" t="str">
+      <c r="G119" s="17" t="str">
         <f aca="true">IF(H119="", IF(I119="","",(INDIRECT("M" &amp; ROW() - 1) - M119)),IF(I119="", "", INDIRECT("M" &amp; ROW() - 1) - M119))</f>
         <v/>
       </c>
-      <c r="H119" s="16" t="str">
+      <c r="H119" s="17" t="str">
         <f aca="false">IF(D119="", "", IF(I119="-", "", E119 * IF(F119="",1,F119)))</f>
         <v/>
       </c>
-      <c r="J119" s="9" t="n">
+      <c r="J119" s="10" t="n">
         <f aca="true">IF(I119 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E119 * F119)</f>
         <v>0</v>
       </c>
@@ -4586,23 +4602,23 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="15" t="str">
+      <c r="B120" s="16" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C120" s="15" t="str">
+      <c r="C120" s="16" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G120" s="16" t="str">
+      <c r="G120" s="17" t="str">
         <f aca="true">IF(H120="", IF(I120="","",(INDIRECT("M" &amp; ROW() - 1) - M120)),IF(I120="", "", INDIRECT("M" &amp; ROW() - 1) - M120))</f>
         <v/>
       </c>
-      <c r="H120" s="16" t="str">
+      <c r="H120" s="17" t="str">
         <f aca="false">IF(D120="", "", IF(I120="-", "", E120 * IF(F120="",1,F120)))</f>
         <v/>
       </c>
-      <c r="J120" s="9" t="n">
+      <c r="J120" s="10" t="n">
         <f aca="true">IF(I120 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E120 * F120)</f>
         <v>0</v>
       </c>
@@ -4620,23 +4636,23 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="15" t="str">
+      <c r="B121" s="16" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C121" s="15" t="str">
+      <c r="C121" s="16" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G121" s="16" t="str">
+      <c r="G121" s="17" t="str">
         <f aca="true">IF(H121="", IF(I121="","",(INDIRECT("M" &amp; ROW() - 1) - M121)),IF(I121="", "", INDIRECT("M" &amp; ROW() - 1) - M121))</f>
         <v/>
       </c>
-      <c r="H121" s="16" t="str">
+      <c r="H121" s="17" t="str">
         <f aca="false">IF(D121="", "", IF(I121="-", "", E121 * IF(F121="",1,F121)))</f>
         <v/>
       </c>
-      <c r="J121" s="9" t="n">
+      <c r="J121" s="10" t="n">
         <f aca="true">IF(I121 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E121 * F121)</f>
         <v>0</v>
       </c>
@@ -4654,23 +4670,23 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="15" t="str">
+      <c r="B122" s="16" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C122" s="15" t="str">
+      <c r="C122" s="16" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G122" s="16" t="str">
+      <c r="G122" s="17" t="str">
         <f aca="true">IF(H122="", IF(I122="","",(INDIRECT("M" &amp; ROW() - 1) - M122)),IF(I122="", "", INDIRECT("M" &amp; ROW() - 1) - M122))</f>
         <v/>
       </c>
-      <c r="H122" s="16" t="str">
+      <c r="H122" s="17" t="str">
         <f aca="false">IF(D122="", "", IF(I122="-", "", E122 * IF(F122="",1,F122)))</f>
         <v/>
       </c>
-      <c r="J122" s="9" t="n">
+      <c r="J122" s="10" t="n">
         <f aca="true">IF(I122 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E122 * F122)</f>
         <v>0</v>
       </c>
@@ -4688,20 +4704,20 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="15"/>
-      <c r="C123" s="15" t="str">
+      <c r="B123" s="16"/>
+      <c r="C123" s="16" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G123" s="16" t="str">
+      <c r="G123" s="17" t="str">
         <f aca="true">IF(H123="", IF(I123="","",(INDIRECT("M" &amp; ROW() - 1) - M123)),IF(I123="", "", INDIRECT("M" &amp; ROW() - 1) - M123))</f>
         <v/>
       </c>
-      <c r="H123" s="16" t="str">
+      <c r="H123" s="17" t="str">
         <f aca="false">IF(D123="", "", IF(I123="-", "", E123 * IF(F123="",1,F123)))</f>
         <v/>
       </c>
-      <c r="J123" s="9" t="n">
+      <c r="J123" s="10" t="n">
         <f aca="true">IF(I123 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E123 * F123)</f>
         <v>0</v>
       </c>
@@ -4719,629 +4735,629 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="15"/>
-      <c r="C124" s="15" t="str">
+      <c r="B124" s="16"/>
+      <c r="C124" s="16" t="str">
         <f aca="false">IF(D124="","",VLOOKUP(D124,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G124" s="16" t="str">
+      <c r="G124" s="17" t="str">
         <f aca="true">IF(H124="", IF(I124="","",(INDIRECT("M" &amp; ROW() - 1) - M124)),IF(I124="", "", INDIRECT("M" &amp; ROW() - 1) - M124))</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="15"/>
-      <c r="C125" s="15" t="str">
+      <c r="B125" s="16"/>
+      <c r="C125" s="16" t="str">
         <f aca="false">IF(D125="","",VLOOKUP(D125,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G125" s="16" t="str">
+      <c r="G125" s="17" t="str">
         <f aca="true">IF(H125="", IF(I125="","",(INDIRECT("M" &amp; ROW() - 1) - M125)),IF(I125="", "", INDIRECT("M" &amp; ROW() - 1) - M125))</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="15"/>
-      <c r="C126" s="15" t="str">
+      <c r="B126" s="16"/>
+      <c r="C126" s="16" t="str">
         <f aca="false">IF(D126="","",VLOOKUP(D126,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G126" s="16" t="str">
+      <c r="G126" s="17" t="str">
         <f aca="true">IF(H126="", IF(I126="","",(INDIRECT("M" &amp; ROW() - 1) - M126)),IF(I126="", "", INDIRECT("M" &amp; ROW() - 1) - M126))</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="15"/>
-      <c r="C127" s="15" t="str">
+      <c r="B127" s="16"/>
+      <c r="C127" s="16" t="str">
         <f aca="false">IF(D127="","",VLOOKUP(D127,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G127" s="16" t="str">
+      <c r="G127" s="17" t="str">
         <f aca="true">IF(H127="", IF(I127="","",(INDIRECT("M" &amp; ROW() - 1) - M127)),IF(I127="", "", INDIRECT("M" &amp; ROW() - 1) - M127))</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="15"/>
-      <c r="C128" s="15" t="str">
+      <c r="B128" s="16"/>
+      <c r="C128" s="16" t="str">
         <f aca="false">IF(D128="","",VLOOKUP(D128,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G128" s="16" t="str">
+      <c r="G128" s="17" t="str">
         <f aca="true">IF(H128="", IF(I128="","",(INDIRECT("M" &amp; ROW() - 1) - M128)),IF(I128="", "", INDIRECT("M" &amp; ROW() - 1) - M128))</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="15"/>
-      <c r="C129" s="15" t="str">
+      <c r="B129" s="16"/>
+      <c r="C129" s="16" t="str">
         <f aca="false">IF(D129="","",VLOOKUP(D129,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G129" s="16" t="str">
+      <c r="G129" s="17" t="str">
         <f aca="true">IF(H129="", IF(I129="","",(INDIRECT("M" &amp; ROW() - 1) - M129)),IF(I129="", "", INDIRECT("M" &amp; ROW() - 1) - M129))</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="15"/>
-      <c r="C130" s="15" t="str">
+      <c r="B130" s="16"/>
+      <c r="C130" s="16" t="str">
         <f aca="false">IF(D130="","",VLOOKUP(D130,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G130" s="16" t="str">
+      <c r="G130" s="17" t="str">
         <f aca="true">IF(H130="", IF(I130="","",(INDIRECT("M" &amp; ROW() - 1) - M130)),IF(I130="", "", INDIRECT("M" &amp; ROW() - 1) - M130))</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="15"/>
-      <c r="C131" s="15" t="str">
+      <c r="B131" s="16"/>
+      <c r="C131" s="16" t="str">
         <f aca="false">IF(D131="","",VLOOKUP(D131,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G131" s="16" t="str">
+      <c r="G131" s="17" t="str">
         <f aca="true">IF(H131="", IF(I131="","",(INDIRECT("M" &amp; ROW() - 1) - M131)),IF(I131="", "", INDIRECT("M" &amp; ROW() - 1) - M131))</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="15"/>
-      <c r="C132" s="15" t="str">
+      <c r="B132" s="16"/>
+      <c r="C132" s="16" t="str">
         <f aca="false">IF(D132="","",VLOOKUP(D132,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G132" s="16" t="str">
+      <c r="G132" s="17" t="str">
         <f aca="true">IF(H132="", IF(I132="","",(INDIRECT("M" &amp; ROW() - 1) - M132)),IF(I132="", "", INDIRECT("M" &amp; ROW() - 1) - M132))</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="15"/>
-      <c r="C133" s="15" t="str">
+      <c r="B133" s="16"/>
+      <c r="C133" s="16" t="str">
         <f aca="false">IF(D133="","",VLOOKUP(D133,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G133" s="16" t="str">
+      <c r="G133" s="17" t="str">
         <f aca="true">IF(H133="", IF(I133="","",(INDIRECT("M" &amp; ROW() - 1) - M133)),IF(I133="", "", INDIRECT("M" &amp; ROW() - 1) - M133))</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="15"/>
-      <c r="C134" s="15" t="str">
+      <c r="B134" s="16"/>
+      <c r="C134" s="16" t="str">
         <f aca="false">IF(D134="","",VLOOKUP(D134,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G134" s="16" t="str">
+      <c r="G134" s="17" t="str">
         <f aca="true">IF(H134="", IF(I134="","",(INDIRECT("M" &amp; ROW() - 1) - M134)),IF(I134="", "", INDIRECT("M" &amp; ROW() - 1) - M134))</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="15"/>
-      <c r="C135" s="15" t="str">
+      <c r="B135" s="16"/>
+      <c r="C135" s="16" t="str">
         <f aca="false">IF(D135="","",VLOOKUP(D135,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G135" s="16" t="str">
+      <c r="G135" s="17" t="str">
         <f aca="true">IF(H135="", IF(I135="","",(INDIRECT("M" &amp; ROW() - 1) - M135)),IF(I135="", "", INDIRECT("M" &amp; ROW() - 1) - M135))</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="15"/>
-      <c r="C136" s="15" t="str">
+      <c r="B136" s="16"/>
+      <c r="C136" s="16" t="str">
         <f aca="false">IF(D136="","",VLOOKUP(D136,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G136" s="16" t="str">
+      <c r="G136" s="17" t="str">
         <f aca="true">IF(H136="", IF(I136="","",(INDIRECT("M" &amp; ROW() - 1) - M136)),IF(I136="", "", INDIRECT("M" &amp; ROW() - 1) - M136))</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="15"/>
-      <c r="C137" s="15" t="str">
+      <c r="B137" s="16"/>
+      <c r="C137" s="16" t="str">
         <f aca="false">IF(D137="","",VLOOKUP(D137,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G137" s="16" t="str">
+      <c r="G137" s="17" t="str">
         <f aca="true">IF(H137="", IF(I137="","",(INDIRECT("M" &amp; ROW() - 1) - M137)),IF(I137="", "", INDIRECT("M" &amp; ROW() - 1) - M137))</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="15"/>
-      <c r="C138" s="15" t="str">
+      <c r="B138" s="16"/>
+      <c r="C138" s="16" t="str">
         <f aca="false">IF(D138="","",VLOOKUP(D138,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G138" s="16" t="str">
+      <c r="G138" s="17" t="str">
         <f aca="true">IF(H138="", IF(I138="","",(INDIRECT("M" &amp; ROW() - 1) - M138)),IF(I138="", "", INDIRECT("M" &amp; ROW() - 1) - M138))</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="15"/>
-      <c r="C139" s="15" t="str">
+      <c r="B139" s="16"/>
+      <c r="C139" s="16" t="str">
         <f aca="false">IF(D139="","",VLOOKUP(D139,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G139" s="16" t="str">
+      <c r="G139" s="17" t="str">
         <f aca="true">IF(H139="", IF(I139="","",(INDIRECT("M" &amp; ROW() - 1) - M139)),IF(I139="", "", INDIRECT("M" &amp; ROW() - 1) - M139))</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="15"/>
-      <c r="C140" s="15" t="str">
+      <c r="B140" s="16"/>
+      <c r="C140" s="16" t="str">
         <f aca="false">IF(D140="","",VLOOKUP(D140,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G140" s="16" t="str">
+      <c r="G140" s="17" t="str">
         <f aca="true">IF(H140="", IF(I140="","",(INDIRECT("M" &amp; ROW() - 1) - M140)),IF(I140="", "", INDIRECT("M" &amp; ROW() - 1) - M140))</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="15"/>
-      <c r="C141" s="15" t="str">
+      <c r="B141" s="16"/>
+      <c r="C141" s="16" t="str">
         <f aca="false">IF(D141="","",VLOOKUP(D141,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G141" s="16" t="str">
+      <c r="G141" s="17" t="str">
         <f aca="true">IF(H141="", IF(I141="","",(INDIRECT("M" &amp; ROW() - 1) - M141)),IF(I141="", "", INDIRECT("M" &amp; ROW() - 1) - M141))</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="15"/>
-      <c r="C142" s="15" t="str">
+      <c r="B142" s="16"/>
+      <c r="C142" s="16" t="str">
         <f aca="false">IF(D142="","",VLOOKUP(D142,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G142" s="16" t="str">
+      <c r="G142" s="17" t="str">
         <f aca="true">IF(H142="", IF(I142="","",(INDIRECT("M" &amp; ROW() - 1) - M142)),IF(I142="", "", INDIRECT("M" &amp; ROW() - 1) - M142))</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="15"/>
-      <c r="C143" s="15" t="str">
+      <c r="B143" s="16"/>
+      <c r="C143" s="16" t="str">
         <f aca="false">IF(D143="","",VLOOKUP(D143,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G143" s="16" t="str">
+      <c r="G143" s="17" t="str">
         <f aca="true">IF(H143="", IF(I143="","",(INDIRECT("M" &amp; ROW() - 1) - M143)),IF(I143="", "", INDIRECT("M" &amp; ROW() - 1) - M143))</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="15"/>
-      <c r="C144" s="15" t="str">
+      <c r="B144" s="16"/>
+      <c r="C144" s="16" t="str">
         <f aca="false">IF(D144="","",VLOOKUP(D144,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G144" s="16" t="str">
+      <c r="G144" s="17" t="str">
         <f aca="true">IF(H144="", IF(I144="","",(INDIRECT("M" &amp; ROW() - 1) - M144)),IF(I144="", "", INDIRECT("M" &amp; ROW() - 1) - M144))</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="15"/>
-      <c r="C145" s="15" t="str">
+      <c r="B145" s="16"/>
+      <c r="C145" s="16" t="str">
         <f aca="false">IF(D145="","",VLOOKUP(D145,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G145" s="16" t="str">
+      <c r="G145" s="17" t="str">
         <f aca="true">IF(H145="", IF(I145="","",(INDIRECT("M" &amp; ROW() - 1) - M145)),IF(I145="", "", INDIRECT("M" &amp; ROW() - 1) - M145))</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="15"/>
-      <c r="C146" s="15" t="str">
+      <c r="B146" s="16"/>
+      <c r="C146" s="16" t="str">
         <f aca="false">IF(D146="","",VLOOKUP(D146,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G146" s="16" t="str">
+      <c r="G146" s="17" t="str">
         <f aca="true">IF(H146="", IF(I146="","",(INDIRECT("M" &amp; ROW() - 1) - M146)),IF(I146="", "", INDIRECT("M" &amp; ROW() - 1) - M146))</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="15"/>
-      <c r="C147" s="15" t="str">
+      <c r="B147" s="16"/>
+      <c r="C147" s="16" t="str">
         <f aca="false">IF(D147="","",VLOOKUP(D147,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G147" s="16" t="str">
+      <c r="G147" s="17" t="str">
         <f aca="true">IF(H147="", IF(I147="","",(INDIRECT("M" &amp; ROW() - 1) - M147)),IF(I147="", "", INDIRECT("M" &amp; ROW() - 1) - M147))</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="15"/>
-      <c r="C148" s="15" t="str">
+      <c r="B148" s="16"/>
+      <c r="C148" s="16" t="str">
         <f aca="false">IF(D148="","",VLOOKUP(D148,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G148" s="16" t="str">
+      <c r="G148" s="17" t="str">
         <f aca="true">IF(H148="", IF(I148="","",(INDIRECT("M" &amp; ROW() - 1) - M148)),IF(I148="", "", INDIRECT("M" &amp; ROW() - 1) - M148))</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="15"/>
-      <c r="C149" s="15" t="str">
+      <c r="B149" s="16"/>
+      <c r="C149" s="16" t="str">
         <f aca="false">IF(D149="","",VLOOKUP(D149,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G149" s="16" t="str">
+      <c r="G149" s="17" t="str">
         <f aca="true">IF(H149="", IF(I149="","",(INDIRECT("M" &amp; ROW() - 1) - M149)),IF(I149="", "", INDIRECT("M" &amp; ROW() - 1) - M149))</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G150" s="16" t="str">
+      <c r="G150" s="17" t="str">
         <f aca="true">IF(H150="", IF(I150="","",(INDIRECT("M" &amp; ROW() - 1) - M150)),IF(I150="", "", INDIRECT("M" &amp; ROW() - 1) - M150))</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G151" s="16" t="str">
+      <c r="G151" s="17" t="str">
         <f aca="true">IF(H151="", IF(I151="","",(INDIRECT("M" &amp; ROW() - 1) - M151)),IF(I151="", "", INDIRECT("M" &amp; ROW() - 1) - M151))</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G152" s="16" t="str">
+      <c r="G152" s="17" t="str">
         <f aca="true">IF(H152="", IF(I152="","",(INDIRECT("M" &amp; ROW() - 1) - M152)),IF(I152="", "", INDIRECT("M" &amp; ROW() - 1) - M152))</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G153" s="16" t="str">
+      <c r="G153" s="17" t="str">
         <f aca="true">IF(H153="", IF(I153="","",(INDIRECT("M" &amp; ROW() - 1) - M153)),IF(I153="", "", INDIRECT("M" &amp; ROW() - 1) - M153))</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G154" s="16" t="str">
+      <c r="G154" s="17" t="str">
         <f aca="true">IF(H154="", IF(I154="","",(INDIRECT("M" &amp; ROW() - 1) - M154)),IF(I154="", "", INDIRECT("M" &amp; ROW() - 1) - M154))</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G155" s="16" t="str">
+      <c r="G155" s="17" t="str">
         <f aca="true">IF(H155="", IF(I155="","",(INDIRECT("M" &amp; ROW() - 1) - M155)),IF(I155="", "", INDIRECT("M" &amp; ROW() - 1) - M155))</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G156" s="16" t="str">
+      <c r="G156" s="17" t="str">
         <f aca="true">IF(H156="", IF(I156="","",(INDIRECT("M" &amp; ROW() - 1) - M156)),IF(I156="", "", INDIRECT("M" &amp; ROW() - 1) - M156))</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G157" s="16" t="str">
+      <c r="G157" s="17" t="str">
         <f aca="true">IF(H157="", IF(I157="","",(INDIRECT("M" &amp; ROW() - 1) - M157)),IF(I157="", "", INDIRECT("M" &amp; ROW() - 1) - M157))</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G158" s="16" t="str">
+      <c r="G158" s="17" t="str">
         <f aca="true">IF(H158="", IF(I158="","",(INDIRECT("M" &amp; ROW() - 1) - M158)),IF(I158="", "", INDIRECT("M" &amp; ROW() - 1) - M158))</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G159" s="16" t="str">
+      <c r="G159" s="17" t="str">
         <f aca="true">IF(H159="", IF(I159="","",(INDIRECT("M" &amp; ROW() - 1) - M159)),IF(I159="", "", INDIRECT("M" &amp; ROW() - 1) - M159))</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G160" s="16" t="str">
+      <c r="G160" s="17" t="str">
         <f aca="true">IF(H160="", IF(I160="","",(INDIRECT("M" &amp; ROW() - 1) - M160)),IF(I160="", "", INDIRECT("M" &amp; ROW() - 1) - M160))</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G161" s="16" t="str">
+      <c r="G161" s="17" t="str">
         <f aca="true">IF(H161="", IF(I161="","",(INDIRECT("M" &amp; ROW() - 1) - M161)),IF(I161="", "", INDIRECT("M" &amp; ROW() - 1) - M161))</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G162" s="16" t="str">
+      <c r="G162" s="17" t="str">
         <f aca="true">IF(H162="", IF(I162="","",(INDIRECT("M" &amp; ROW() - 1) - M162)),IF(I162="", "", INDIRECT("M" &amp; ROW() - 1) - M162))</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G163" s="16" t="str">
+      <c r="G163" s="17" t="str">
         <f aca="true">IF(H163="", IF(I163="","",(INDIRECT("M" &amp; ROW() - 1) - M163)),IF(I163="", "", INDIRECT("M" &amp; ROW() - 1) - M163))</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G164" s="16" t="str">
+      <c r="G164" s="17" t="str">
         <f aca="true">IF(H164="", IF(I164="","",(INDIRECT("M" &amp; ROW() - 1) - M164)),IF(I164="", "", INDIRECT("M" &amp; ROW() - 1) - M164))</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G165" s="16" t="str">
+      <c r="G165" s="17" t="str">
         <f aca="true">IF(H165="", IF(I165="","",(INDIRECT("M" &amp; ROW() - 1) - M165)),IF(I165="", "", INDIRECT("M" &amp; ROW() - 1) - M165))</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G166" s="16" t="str">
+      <c r="G166" s="17" t="str">
         <f aca="true">IF(H166="", IF(I166="","",(INDIRECT("M" &amp; ROW() - 1) - M166)),IF(I166="", "", INDIRECT("M" &amp; ROW() - 1) - M166))</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G167" s="16" t="str">
+      <c r="G167" s="17" t="str">
         <f aca="true">IF(H167="", IF(I167="","",(INDIRECT("M" &amp; ROW() - 1) - M167)),IF(I167="", "", INDIRECT("M" &amp; ROW() - 1) - M167))</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G168" s="16" t="str">
+      <c r="G168" s="17" t="str">
         <f aca="true">IF(H168="", IF(I168="","",(INDIRECT("M" &amp; ROW() - 1) - M168)),IF(I168="", "", INDIRECT("M" &amp; ROW() - 1) - M168))</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G169" s="16" t="str">
+      <c r="G169" s="17" t="str">
         <f aca="true">IF(H169="", IF(I169="","",(INDIRECT("M" &amp; ROW() - 1) - M169)),IF(I169="", "", INDIRECT("M" &amp; ROW() - 1) - M169))</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G170" s="16" t="str">
+      <c r="G170" s="17" t="str">
         <f aca="true">IF(H170="", IF(I170="","",(INDIRECT("M" &amp; ROW() - 1) - M170)),IF(I170="", "", INDIRECT("M" &amp; ROW() - 1) - M170))</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G171" s="16" t="str">
+      <c r="G171" s="17" t="str">
         <f aca="true">IF(H171="", IF(I171="","",(INDIRECT("M" &amp; ROW() - 1) - M171)),IF(I171="", "", INDIRECT("M" &amp; ROW() - 1) - M171))</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G172" s="16" t="str">
+      <c r="G172" s="17" t="str">
         <f aca="true">IF(H172="", IF(I172="","",(INDIRECT("M" &amp; ROW() - 1) - M172)),IF(I172="", "", INDIRECT("M" &amp; ROW() - 1) - M172))</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G173" s="16" t="str">
+      <c r="G173" s="17" t="str">
         <f aca="true">IF(H173="", IF(I173="","",(INDIRECT("M" &amp; ROW() - 1) - M173)),IF(I173="", "", INDIRECT("M" &amp; ROW() - 1) - M173))</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G174" s="16" t="str">
+      <c r="G174" s="17" t="str">
         <f aca="true">IF(H174="", IF(I174="","",(INDIRECT("M" &amp; ROW() - 1) - M174)),IF(I174="", "", INDIRECT("M" &amp; ROW() - 1) - M174))</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G175" s="16" t="str">
+      <c r="G175" s="17" t="str">
         <f aca="true">IF(H175="", IF(I175="","",(INDIRECT("M" &amp; ROW() - 1) - M175)),IF(I175="", "", INDIRECT("M" &amp; ROW() - 1) - M175))</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G176" s="16" t="str">
+      <c r="G176" s="17" t="str">
         <f aca="true">IF(H176="", IF(I176="","",(INDIRECT("M" &amp; ROW() - 1) - M176)),IF(I176="", "", INDIRECT("M" &amp; ROW() - 1) - M176))</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G177" s="16" t="str">
+      <c r="G177" s="17" t="str">
         <f aca="true">IF(H177="", IF(I177="","",(INDIRECT("M" &amp; ROW() - 1) - M177)),IF(I177="", "", INDIRECT("M" &amp; ROW() - 1) - M177))</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G178" s="16" t="str">
+      <c r="G178" s="17" t="str">
         <f aca="true">IF(H178="", IF(I178="","",(INDIRECT("M" &amp; ROW() - 1) - M178)),IF(I178="", "", INDIRECT("M" &amp; ROW() - 1) - M178))</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G179" s="16" t="str">
+      <c r="G179" s="17" t="str">
         <f aca="true">IF(H179="", IF(I179="","",(INDIRECT("M" &amp; ROW() - 1) - M179)),IF(I179="", "", INDIRECT("M" &amp; ROW() - 1) - M179))</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G180" s="16" t="str">
+      <c r="G180" s="17" t="str">
         <f aca="true">IF(H180="", IF(I180="","",(INDIRECT("M" &amp; ROW() - 1) - M180)),IF(I180="", "", INDIRECT("M" &amp; ROW() - 1) - M180))</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G181" s="16" t="str">
+      <c r="G181" s="17" t="str">
         <f aca="true">IF(H181="", IF(I181="","",(INDIRECT("M" &amp; ROW() - 1) - M181)),IF(I181="", "", INDIRECT("M" &amp; ROW() - 1) - M181))</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G182" s="16" t="str">
+      <c r="G182" s="17" t="str">
         <f aca="true">IF(H182="", IF(I182="","",(INDIRECT("M" &amp; ROW() - 1) - M182)),IF(I182="", "", INDIRECT("M" &amp; ROW() - 1) - M182))</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G183" s="16" t="str">
+      <c r="G183" s="17" t="str">
         <f aca="true">IF(H183="", IF(I183="","",(INDIRECT("M" &amp; ROW() - 1) - M183)),IF(I183="", "", INDIRECT("M" &amp; ROW() - 1) - M183))</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G184" s="16" t="str">
+      <c r="G184" s="17" t="str">
         <f aca="true">IF(H184="", IF(I184="","",(INDIRECT("M" &amp; ROW() - 1) - M184)),IF(I184="", "", INDIRECT("M" &amp; ROW() - 1) - M184))</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G185" s="16" t="str">
+      <c r="G185" s="17" t="str">
         <f aca="true">IF(H185="", IF(I185="","",(INDIRECT("M" &amp; ROW() - 1) - M185)),IF(I185="", "", INDIRECT("M" &amp; ROW() - 1) - M185))</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G186" s="16" t="str">
+      <c r="G186" s="17" t="str">
         <f aca="true">IF(H186="", IF(I186="","",(INDIRECT("M" &amp; ROW() - 1) - M186)),IF(I186="", "", INDIRECT("M" &amp; ROW() - 1) - M186))</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G187" s="16" t="str">
+      <c r="G187" s="17" t="str">
         <f aca="true">IF(H187="", IF(I187="","",(INDIRECT("M" &amp; ROW() - 1) - M187)),IF(I187="", "", INDIRECT("M" &amp; ROW() - 1) - M187))</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G188" s="16" t="str">
+      <c r="G188" s="17" t="str">
         <f aca="true">IF(H188="", IF(I188="","",(INDIRECT("M" &amp; ROW() - 1) - M188)),IF(I188="", "", INDIRECT("M" &amp; ROW() - 1) - M188))</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G189" s="16" t="str">
+      <c r="G189" s="17" t="str">
         <f aca="true">IF(H189="", IF(I189="","",(INDIRECT("M" &amp; ROW() - 1) - M189)),IF(I189="", "", INDIRECT("M" &amp; ROW() - 1) - M189))</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G190" s="16" t="str">
+      <c r="G190" s="17" t="str">
         <f aca="true">IF(H190="", IF(I190="","",(INDIRECT("M" &amp; ROW() - 1) - M190)),IF(I190="", "", INDIRECT("M" &amp; ROW() - 1) - M190))</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G191" s="16" t="str">
+      <c r="G191" s="17" t="str">
         <f aca="true">IF(H191="", IF(I191="","",(INDIRECT("M" &amp; ROW() - 1) - M191)),IF(I191="", "", INDIRECT("M" &amp; ROW() - 1) - M191))</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G192" s="16" t="str">
+      <c r="G192" s="17" t="str">
         <f aca="true">IF(H192="", IF(I192="","",(INDIRECT("M" &amp; ROW() - 1) - M192)),IF(I192="", "", INDIRECT("M" &amp; ROW() - 1) - M192))</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G193" s="16" t="str">
+      <c r="G193" s="17" t="str">
         <f aca="true">IF(H193="", IF(I193="","",(INDIRECT("M" &amp; ROW() - 1) - M193)),IF(I193="", "", INDIRECT("M" &amp; ROW() - 1) - M193))</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G194" s="16" t="str">
+      <c r="G194" s="17" t="str">
         <f aca="true">IF(H194="", IF(I194="","",(INDIRECT("M" &amp; ROW() - 1) - M194)),IF(I194="", "", INDIRECT("M" &amp; ROW() - 1) - M194))</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G195" s="16" t="str">
+      <c r="G195" s="17" t="str">
         <f aca="true">IF(H195="", IF(I195="","",(INDIRECT("M" &amp; ROW() - 1) - M195)),IF(I195="", "", INDIRECT("M" &amp; ROW() - 1) - M195))</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G196" s="16" t="str">
+      <c r="G196" s="17" t="str">
         <f aca="true">IF(H196="", IF(I196="","",(INDIRECT("M" &amp; ROW() - 1) - M196)),IF(I196="", "", INDIRECT("M" &amp; ROW() - 1) - M196))</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G197" s="16" t="str">
+      <c r="G197" s="17" t="str">
         <f aca="true">IF(H197="", IF(I197="","",(INDIRECT("M" &amp; ROW() - 1) - M197)),IF(I197="", "", INDIRECT("M" &amp; ROW() - 1) - M197))</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G198" s="16" t="str">
+      <c r="G198" s="17" t="str">
         <f aca="true">IF(H198="", IF(I198="","",(INDIRECT("M" &amp; ROW() - 1) - M198)),IF(I198="", "", INDIRECT("M" &amp; ROW() - 1) - M198))</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G199" s="16" t="str">
+      <c r="G199" s="17" t="str">
         <f aca="true">IF(H199="", IF(I199="","",(INDIRECT("M" &amp; ROW() - 1) - M199)),IF(I199="", "", INDIRECT("M" &amp; ROW() - 1) - M199))</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G200" s="16" t="str">
+      <c r="G200" s="17" t="str">
         <f aca="true">IF(H200="", IF(I200="","",(INDIRECT("M" &amp; ROW() - 1) - M200)),IF(I200="", "", INDIRECT("M" &amp; ROW() - 1) - M200))</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G201" s="16" t="str">
+      <c r="G201" s="17" t="str">
         <f aca="true">IF(H201="", IF(I201="","",(INDIRECT("M" &amp; ROW() - 1) - M201)),IF(I201="", "", INDIRECT("M" &amp; ROW() - 1) - M201))</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G202" s="16" t="str">
+      <c r="G202" s="17" t="str">
         <f aca="true">IF(H202="", IF(I202="","",(INDIRECT("M" &amp; ROW() - 1) - M202)),IF(I202="", "", INDIRECT("M" &amp; ROW() - 1) - M202))</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G203" s="16" t="str">
+      <c r="G203" s="17" t="str">
         <f aca="true">IF(H203="", IF(I203="","",(INDIRECT("M" &amp; ROW() - 1) - M203)),IF(I203="", "", INDIRECT("M" &amp; ROW() - 1) - M203))</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G204" s="16" t="str">
+      <c r="G204" s="17" t="str">
         <f aca="true">IF(H204="", IF(I204="","",(INDIRECT("M" &amp; ROW() - 1) - M204)),IF(I204="", "", INDIRECT("M" &amp; ROW() - 1) - M204))</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G205" s="16" t="str">
+      <c r="G205" s="17" t="str">
         <f aca="true">IF(H205="", IF(I205="","",(INDIRECT("M" &amp; ROW() - 1) - M205)),IF(I205="", "", INDIRECT("M" &amp; ROW() - 1) - M205))</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G206" s="16" t="str">
+      <c r="G206" s="17" t="str">
         <f aca="true">IF(H206="", IF(I206="","",(INDIRECT("M" &amp; ROW() - 1) - M206)),IF(I206="", "", INDIRECT("M" &amp; ROW() - 1) - M206))</f>
         <v/>
       </c>
